--- a/하나마트/샘플-매입매출데이터(2021-05-06).xlsx
+++ b/하나마트/샘플-매입매출데이터(2021-05-06).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5856" uniqueCount="1521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5365" uniqueCount="1521">
   <si>
     <t xml:space="preserve"> 옥동자(초코)</t>
   </si>
@@ -4934,11 +4934,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5269,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J495"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5288,18 +5288,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
@@ -22049,8 +22049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B33" sqref="B32:B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22110,8 +22110,8 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>872</v>
+      <c r="F2" s="3">
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <v>66</v>
@@ -22120,7 +22120,7 @@
         <v>497</v>
       </c>
       <c r="I2" s="6">
-        <f>H2*G2</f>
+        <f t="shared" ref="I2:I65" si="0">H2*G2</f>
         <v>32802</v>
       </c>
     </row>
@@ -22140,8 +22140,8 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>872</v>
+      <c r="F3" s="3">
+        <v>1</v>
       </c>
       <c r="G3" s="6">
         <v>89</v>
@@ -22150,7 +22150,7 @@
         <v>245</v>
       </c>
       <c r="I3" s="6">
-        <f>H3*G3</f>
+        <f t="shared" si="0"/>
         <v>21805</v>
       </c>
     </row>
@@ -22170,8 +22170,8 @@
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>872</v>
+      <c r="F4" s="3">
+        <v>1</v>
       </c>
       <c r="G4" s="6">
         <v>94</v>
@@ -22180,7 +22180,7 @@
         <v>295</v>
       </c>
       <c r="I4" s="6">
-        <f>H4*G4</f>
+        <f t="shared" si="0"/>
         <v>27730</v>
       </c>
     </row>
@@ -22200,8 +22200,8 @@
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>872</v>
+      <c r="F5" s="3">
+        <v>1</v>
       </c>
       <c r="G5" s="6">
         <v>87</v>
@@ -22210,7 +22210,7 @@
         <v>2745</v>
       </c>
       <c r="I5" s="6">
-        <f>H5*G5</f>
+        <f t="shared" si="0"/>
         <v>238815</v>
       </c>
     </row>
@@ -22230,8 +22230,8 @@
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>872</v>
+      <c r="F6" s="3">
+        <v>1</v>
       </c>
       <c r="G6" s="6">
         <v>94</v>
@@ -22240,7 +22240,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <f>H6*G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -22260,8 +22260,8 @@
       <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>872</v>
+      <c r="F7" s="3">
+        <v>1</v>
       </c>
       <c r="G7" s="6">
         <v>66</v>
@@ -22270,7 +22270,7 @@
         <v>622</v>
       </c>
       <c r="I7" s="6">
-        <f>H7*G7</f>
+        <f t="shared" si="0"/>
         <v>41052</v>
       </c>
     </row>
@@ -22290,8 +22290,8 @@
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>872</v>
+      <c r="F8" s="3">
+        <v>1</v>
       </c>
       <c r="G8" s="6">
         <v>100</v>
@@ -22300,7 +22300,7 @@
         <v>1885</v>
       </c>
       <c r="I8" s="6">
-        <f>H8*G8</f>
+        <f t="shared" si="0"/>
         <v>188500</v>
       </c>
     </row>
@@ -22320,8 +22320,8 @@
       <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>872</v>
+      <c r="F9" s="3">
+        <v>1</v>
       </c>
       <c r="G9" s="6">
         <v>84</v>
@@ -22330,7 +22330,7 @@
         <v>491</v>
       </c>
       <c r="I9" s="6">
-        <f>H9*G9</f>
+        <f t="shared" si="0"/>
         <v>41244</v>
       </c>
     </row>
@@ -22350,8 +22350,8 @@
       <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>872</v>
+      <c r="F10" s="3">
+        <v>1</v>
       </c>
       <c r="G10" s="6">
         <v>78</v>
@@ -22360,7 +22360,7 @@
         <v>591</v>
       </c>
       <c r="I10" s="6">
-        <f>H10*G10</f>
+        <f t="shared" si="0"/>
         <v>46098</v>
       </c>
     </row>
@@ -22380,8 +22380,8 @@
       <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>872</v>
+      <c r="F11" s="3">
+        <v>1</v>
       </c>
       <c r="G11" s="6">
         <v>93</v>
@@ -22390,7 +22390,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6">
-        <f>H11*G11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -22410,8 +22410,8 @@
       <c r="E12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>872</v>
+      <c r="F12" s="3">
+        <v>1</v>
       </c>
       <c r="G12" s="6">
         <v>73</v>
@@ -22420,7 +22420,7 @@
         <v>8240</v>
       </c>
       <c r="I12" s="6">
-        <f>H12*G12</f>
+        <f t="shared" si="0"/>
         <v>601520</v>
       </c>
     </row>
@@ -22440,8 +22440,8 @@
       <c r="E13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>872</v>
+      <c r="F13" s="3">
+        <v>1</v>
       </c>
       <c r="G13" s="6">
         <v>89</v>
@@ -22450,7 +22450,7 @@
         <v>1844</v>
       </c>
       <c r="I13" s="6">
-        <f>H13*G13</f>
+        <f t="shared" si="0"/>
         <v>164116</v>
       </c>
     </row>
@@ -22470,8 +22470,8 @@
       <c r="E14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>872</v>
+      <c r="F14" s="3">
+        <v>1</v>
       </c>
       <c r="G14" s="6">
         <v>73</v>
@@ -22480,7 +22480,7 @@
         <v>409</v>
       </c>
       <c r="I14" s="6">
-        <f>H14*G14</f>
+        <f t="shared" si="0"/>
         <v>29857</v>
       </c>
     </row>
@@ -22500,8 +22500,8 @@
       <c r="E15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>872</v>
+      <c r="F15" s="3">
+        <v>1</v>
       </c>
       <c r="G15" s="6">
         <v>78</v>
@@ -22510,7 +22510,7 @@
         <v>2196</v>
       </c>
       <c r="I15" s="6">
-        <f>H15*G15</f>
+        <f t="shared" si="0"/>
         <v>171288</v>
       </c>
     </row>
@@ -22530,8 +22530,8 @@
       <c r="E16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>872</v>
+      <c r="F16" s="3">
+        <v>1</v>
       </c>
       <c r="G16" s="6">
         <v>68</v>
@@ -22540,7 +22540,7 @@
         <v>655</v>
       </c>
       <c r="I16" s="6">
-        <f>H16*G16</f>
+        <f t="shared" si="0"/>
         <v>44540</v>
       </c>
     </row>
@@ -22560,8 +22560,8 @@
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>872</v>
+      <c r="F17" s="3">
+        <v>1</v>
       </c>
       <c r="G17" s="6">
         <v>79</v>
@@ -22570,7 +22570,7 @@
         <v>311</v>
       </c>
       <c r="I17" s="6">
-        <f>H17*G17</f>
+        <f t="shared" si="0"/>
         <v>24569</v>
       </c>
     </row>
@@ -22590,8 +22590,8 @@
       <c r="E18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>872</v>
+      <c r="F18" s="3">
+        <v>1</v>
       </c>
       <c r="G18" s="6">
         <v>64</v>
@@ -22600,7 +22600,7 @@
         <v>436</v>
       </c>
       <c r="I18" s="6">
-        <f>H18*G18</f>
+        <f t="shared" si="0"/>
         <v>27904</v>
       </c>
     </row>
@@ -22620,8 +22620,8 @@
       <c r="E19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>872</v>
+      <c r="F19" s="3">
+        <v>1</v>
       </c>
       <c r="G19" s="6">
         <v>60</v>
@@ -22630,7 +22630,7 @@
         <v>647</v>
       </c>
       <c r="I19" s="6">
-        <f>H19*G19</f>
+        <f t="shared" si="0"/>
         <v>38820</v>
       </c>
     </row>
@@ -22650,8 +22650,8 @@
       <c r="E20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>872</v>
+      <c r="F20" s="3">
+        <v>1</v>
       </c>
       <c r="G20" s="6">
         <v>56</v>
@@ -22660,7 +22660,7 @@
         <v>2065</v>
       </c>
       <c r="I20" s="6">
-        <f>H20*G20</f>
+        <f t="shared" si="0"/>
         <v>115640</v>
       </c>
     </row>
@@ -22680,8 +22680,8 @@
       <c r="E21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>872</v>
+      <c r="F21" s="3">
+        <v>1</v>
       </c>
       <c r="G21" s="6">
         <v>88</v>
@@ -22690,7 +22690,7 @@
         <v>887</v>
       </c>
       <c r="I21" s="6">
-        <f>H21*G21</f>
+        <f t="shared" si="0"/>
         <v>78056</v>
       </c>
     </row>
@@ -22710,8 +22710,8 @@
       <c r="E22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>872</v>
+      <c r="F22" s="3">
+        <v>1</v>
       </c>
       <c r="G22" s="6">
         <v>50</v>
@@ -22720,7 +22720,7 @@
         <v>245</v>
       </c>
       <c r="I22" s="6">
-        <f>H22*G22</f>
+        <f t="shared" si="0"/>
         <v>12250</v>
       </c>
     </row>
@@ -22740,8 +22740,8 @@
       <c r="E23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>872</v>
+      <c r="F23" s="3">
+        <v>1</v>
       </c>
       <c r="G23" s="6">
         <v>77</v>
@@ -22750,7 +22750,7 @@
         <v>1844</v>
       </c>
       <c r="I23" s="6">
-        <f>H23*G23</f>
+        <f t="shared" si="0"/>
         <v>141988</v>
       </c>
     </row>
@@ -22770,8 +22770,8 @@
       <c r="E24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>872</v>
+      <c r="F24" s="3">
+        <v>1</v>
       </c>
       <c r="G24" s="6">
         <v>54</v>
@@ -22780,7 +22780,7 @@
         <v>286</v>
       </c>
       <c r="I24" s="6">
-        <f>H24*G24</f>
+        <f t="shared" si="0"/>
         <v>15444</v>
       </c>
     </row>
@@ -22800,8 +22800,8 @@
       <c r="E25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>872</v>
+      <c r="F25" s="3">
+        <v>1</v>
       </c>
       <c r="G25" s="6">
         <v>58</v>
@@ -22810,7 +22810,7 @@
         <v>327</v>
       </c>
       <c r="I25" s="6">
-        <f>H25*G25</f>
+        <f t="shared" si="0"/>
         <v>18966</v>
       </c>
     </row>
@@ -22830,8 +22830,8 @@
       <c r="E26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>872</v>
+      <c r="F26" s="3">
+        <v>1</v>
       </c>
       <c r="G26" s="6">
         <v>78</v>
@@ -22840,7 +22840,7 @@
         <v>436</v>
       </c>
       <c r="I26" s="6">
-        <f>H26*G26</f>
+        <f t="shared" si="0"/>
         <v>34008</v>
       </c>
     </row>
@@ -22860,8 +22860,8 @@
       <c r="E27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>872</v>
+      <c r="F27" s="3">
+        <v>1</v>
       </c>
       <c r="G27" s="6">
         <v>72</v>
@@ -22870,7 +22870,7 @@
         <v>2049</v>
       </c>
       <c r="I27" s="6">
-        <f>H27*G27</f>
+        <f t="shared" si="0"/>
         <v>147528</v>
       </c>
     </row>
@@ -22890,8 +22890,8 @@
       <c r="E28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>872</v>
+      <c r="F28" s="3">
+        <v>1</v>
       </c>
       <c r="G28" s="6">
         <v>97</v>
@@ -22900,7 +22900,7 @@
         <v>614</v>
       </c>
       <c r="I28" s="6">
-        <f>H28*G28</f>
+        <f t="shared" si="0"/>
         <v>59558</v>
       </c>
     </row>
@@ -22920,8 +22920,8 @@
       <c r="E29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>872</v>
+      <c r="F29" s="3">
+        <v>1</v>
       </c>
       <c r="G29" s="6">
         <v>52</v>
@@ -22930,7 +22930,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6">
-        <f>H29*G29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -22950,8 +22950,8 @@
       <c r="E30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>872</v>
+      <c r="F30" s="3">
+        <v>1</v>
       </c>
       <c r="G30" s="6">
         <v>100</v>
@@ -22960,7 +22960,7 @@
         <v>245</v>
       </c>
       <c r="I30" s="6">
-        <f>H30*G30</f>
+        <f t="shared" si="0"/>
         <v>24500</v>
       </c>
     </row>
@@ -22980,8 +22980,8 @@
       <c r="E31" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>872</v>
+      <c r="F31" s="3">
+        <v>1</v>
       </c>
       <c r="G31" s="6">
         <v>87</v>
@@ -22990,7 +22990,7 @@
         <v>655</v>
       </c>
       <c r="I31" s="6">
-        <f>H31*G31</f>
+        <f t="shared" si="0"/>
         <v>56985</v>
       </c>
     </row>
@@ -23010,8 +23010,8 @@
       <c r="E32" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>872</v>
+      <c r="F32" s="3">
+        <v>1</v>
       </c>
       <c r="G32" s="6">
         <v>89</v>
@@ -23020,7 +23020,7 @@
         <v>300</v>
       </c>
       <c r="I32" s="6">
-        <f>H32*G32</f>
+        <f t="shared" si="0"/>
         <v>26700</v>
       </c>
     </row>
@@ -23040,8 +23040,8 @@
       <c r="E33" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>872</v>
+      <c r="F33" s="3">
+        <v>1</v>
       </c>
       <c r="G33" s="6">
         <v>73</v>
@@ -23050,7 +23050,7 @@
         <v>409</v>
       </c>
       <c r="I33" s="6">
-        <f>H33*G33</f>
+        <f t="shared" si="0"/>
         <v>29857</v>
       </c>
     </row>
@@ -23070,8 +23070,8 @@
       <c r="E34" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>872</v>
+      <c r="F34" s="3">
+        <v>1</v>
       </c>
       <c r="G34" s="6">
         <v>81</v>
@@ -23080,7 +23080,7 @@
         <v>1311</v>
       </c>
       <c r="I34" s="6">
-        <f>H34*G34</f>
+        <f t="shared" si="0"/>
         <v>106191</v>
       </c>
     </row>
@@ -23100,8 +23100,8 @@
       <c r="E35" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>872</v>
+      <c r="F35" s="3">
+        <v>1</v>
       </c>
       <c r="G35" s="6">
         <v>93</v>
@@ -23110,7 +23110,7 @@
         <v>655</v>
       </c>
       <c r="I35" s="6">
-        <f>H35*G35</f>
+        <f t="shared" si="0"/>
         <v>60915</v>
       </c>
     </row>
@@ -23130,8 +23130,8 @@
       <c r="E36" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>872</v>
+      <c r="F36" s="3">
+        <v>1</v>
       </c>
       <c r="G36" s="6">
         <v>78</v>
@@ -23140,7 +23140,7 @@
         <v>384</v>
       </c>
       <c r="I36" s="6">
-        <f>H36*G36</f>
+        <f t="shared" si="0"/>
         <v>29952</v>
       </c>
     </row>
@@ -23160,8 +23160,8 @@
       <c r="E37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>872</v>
+      <c r="F37" s="3">
+        <v>1</v>
       </c>
       <c r="G37" s="6">
         <v>71</v>
@@ -23170,7 +23170,7 @@
         <v>1647</v>
       </c>
       <c r="I37" s="6">
-        <f>H37*G37</f>
+        <f t="shared" si="0"/>
         <v>116937</v>
       </c>
     </row>
@@ -23190,8 +23190,8 @@
       <c r="E38" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>872</v>
+      <c r="F38" s="3">
+        <v>1</v>
       </c>
       <c r="G38" s="6">
         <v>54</v>
@@ -23200,7 +23200,7 @@
         <v>327</v>
       </c>
       <c r="I38" s="6">
-        <f>H38*G38</f>
+        <f t="shared" si="0"/>
         <v>17658</v>
       </c>
     </row>
@@ -23220,8 +23220,8 @@
       <c r="E39" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>872</v>
+      <c r="F39" s="3">
+        <v>1</v>
       </c>
       <c r="G39" s="6">
         <v>100</v>
@@ -23230,7 +23230,7 @@
         <v>655</v>
       </c>
       <c r="I39" s="6">
-        <f>H39*G39</f>
+        <f t="shared" si="0"/>
         <v>65500</v>
       </c>
     </row>
@@ -23250,8 +23250,8 @@
       <c r="E40" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>872</v>
+      <c r="F40" s="3">
+        <v>1</v>
       </c>
       <c r="G40" s="6">
         <v>88</v>
@@ -23260,7 +23260,7 @@
         <v>2745</v>
       </c>
       <c r="I40" s="6">
-        <f>H40*G40</f>
+        <f t="shared" si="0"/>
         <v>241560</v>
       </c>
     </row>
@@ -23280,8 +23280,8 @@
       <c r="E41" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>872</v>
+      <c r="F41" s="3">
+        <v>1</v>
       </c>
       <c r="G41" s="6">
         <v>71</v>
@@ -23290,7 +23290,7 @@
         <v>491</v>
       </c>
       <c r="I41" s="6">
-        <f>H41*G41</f>
+        <f t="shared" si="0"/>
         <v>34861</v>
       </c>
     </row>
@@ -23310,8 +23310,8 @@
       <c r="E42" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>872</v>
+      <c r="F42" s="3">
+        <v>1</v>
       </c>
       <c r="G42" s="6">
         <v>69</v>
@@ -23320,7 +23320,7 @@
         <v>311</v>
       </c>
       <c r="I42" s="6">
-        <f>H42*G42</f>
+        <f t="shared" si="0"/>
         <v>21459</v>
       </c>
     </row>
@@ -23340,8 +23340,8 @@
       <c r="E43" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>872</v>
+      <c r="F43" s="3">
+        <v>1</v>
       </c>
       <c r="G43" s="6">
         <v>88</v>
@@ -23350,7 +23350,7 @@
         <v>2049</v>
       </c>
       <c r="I43" s="6">
-        <f>H43*G43</f>
+        <f t="shared" si="0"/>
         <v>180312</v>
       </c>
     </row>
@@ -23370,8 +23370,8 @@
       <c r="E44" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>872</v>
+      <c r="F44" s="3">
+        <v>1</v>
       </c>
       <c r="G44" s="6">
         <v>69</v>
@@ -23380,7 +23380,7 @@
         <v>327</v>
       </c>
       <c r="I44" s="6">
-        <f>H44*G44</f>
+        <f t="shared" si="0"/>
         <v>22563</v>
       </c>
     </row>
@@ -23400,8 +23400,8 @@
       <c r="E45" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>872</v>
+      <c r="F45" s="3">
+        <v>1</v>
       </c>
       <c r="G45" s="6">
         <v>55</v>
@@ -23410,7 +23410,7 @@
         <v>655</v>
       </c>
       <c r="I45" s="6">
-        <f>H45*G45</f>
+        <f t="shared" si="0"/>
         <v>36025</v>
       </c>
     </row>
@@ -23430,8 +23430,8 @@
       <c r="E46" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>872</v>
+      <c r="F46" s="3">
+        <v>1</v>
       </c>
       <c r="G46" s="6">
         <v>90</v>
@@ -23440,7 +23440,7 @@
         <v>887</v>
       </c>
       <c r="I46" s="6">
-        <f>H46*G46</f>
+        <f t="shared" si="0"/>
         <v>79830</v>
       </c>
     </row>
@@ -23460,8 +23460,8 @@
       <c r="E47" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>872</v>
+      <c r="F47" s="3">
+        <v>1</v>
       </c>
       <c r="G47" s="6">
         <v>82</v>
@@ -23470,7 +23470,7 @@
         <v>650</v>
       </c>
       <c r="I47" s="6">
-        <f>H47*G47</f>
+        <f t="shared" si="0"/>
         <v>53300</v>
       </c>
     </row>
@@ -23490,8 +23490,8 @@
       <c r="E48" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>872</v>
+      <c r="F48" s="3">
+        <v>1</v>
       </c>
       <c r="G48" s="6">
         <v>84</v>
@@ -23500,7 +23500,7 @@
         <v>1844</v>
       </c>
       <c r="I48" s="6">
-        <f>H48*G48</f>
+        <f t="shared" si="0"/>
         <v>154896</v>
       </c>
     </row>
@@ -23520,8 +23520,8 @@
       <c r="E49" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>872</v>
+      <c r="F49" s="3">
+        <v>1</v>
       </c>
       <c r="G49" s="6">
         <v>95</v>
@@ -23530,7 +23530,7 @@
         <v>655</v>
       </c>
       <c r="I49" s="6">
-        <f>H49*G49</f>
+        <f t="shared" si="0"/>
         <v>62225</v>
       </c>
     </row>
@@ -23550,8 +23550,8 @@
       <c r="E50" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>872</v>
+      <c r="F50" s="3">
+        <v>1</v>
       </c>
       <c r="G50" s="6">
         <v>89</v>
@@ -23560,7 +23560,7 @@
         <v>573</v>
       </c>
       <c r="I50" s="6">
-        <f>H50*G50</f>
+        <f t="shared" si="0"/>
         <v>50997</v>
       </c>
     </row>
@@ -23580,8 +23580,8 @@
       <c r="E51" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>872</v>
+      <c r="F51" s="3">
+        <v>1</v>
       </c>
       <c r="G51" s="6">
         <v>90</v>
@@ -23590,7 +23590,7 @@
         <v>7377</v>
       </c>
       <c r="I51" s="6">
-        <f>H51*G51</f>
+        <f t="shared" si="0"/>
         <v>663930</v>
       </c>
     </row>
@@ -23610,8 +23610,8 @@
       <c r="E52" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>872</v>
+      <c r="F52" s="3">
+        <v>1</v>
       </c>
       <c r="G52" s="6">
         <v>76</v>
@@ -23620,7 +23620,7 @@
         <v>384</v>
       </c>
       <c r="I52" s="6">
-        <f>H52*G52</f>
+        <f t="shared" si="0"/>
         <v>29184</v>
       </c>
     </row>
@@ -23640,8 +23640,8 @@
       <c r="E53" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>872</v>
+      <c r="F53" s="3">
+        <v>1</v>
       </c>
       <c r="G53" s="6">
         <v>100</v>
@@ -23650,7 +23650,7 @@
         <v>204</v>
       </c>
       <c r="I53" s="6">
-        <f>H53*G53</f>
+        <f t="shared" si="0"/>
         <v>20400</v>
       </c>
     </row>
@@ -23670,8 +23670,8 @@
       <c r="E54" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>872</v>
+      <c r="F54" s="3">
+        <v>1</v>
       </c>
       <c r="G54" s="6">
         <v>91</v>
@@ -23680,7 +23680,7 @@
         <v>5778</v>
       </c>
       <c r="I54" s="6">
-        <f>H54*G54</f>
+        <f t="shared" si="0"/>
         <v>525798</v>
       </c>
     </row>
@@ -23700,8 +23700,8 @@
       <c r="E55" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>872</v>
+      <c r="F55" s="3">
+        <v>1</v>
       </c>
       <c r="G55" s="6">
         <v>89</v>
@@ -23710,7 +23710,7 @@
         <v>491</v>
       </c>
       <c r="I55" s="6">
-        <f>H55*G55</f>
+        <f t="shared" si="0"/>
         <v>43699</v>
       </c>
     </row>
@@ -23730,8 +23730,8 @@
       <c r="E56" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>872</v>
+      <c r="F56" s="3">
+        <v>1</v>
       </c>
       <c r="G56" s="6">
         <v>54</v>
@@ -23740,7 +23740,7 @@
         <v>1803</v>
       </c>
       <c r="I56" s="6">
-        <f>H56*G56</f>
+        <f t="shared" si="0"/>
         <v>97362</v>
       </c>
     </row>
@@ -23760,8 +23760,8 @@
       <c r="E57" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>872</v>
+      <c r="F57" s="3">
+        <v>1</v>
       </c>
       <c r="G57" s="6">
         <v>73</v>
@@ -23770,7 +23770,7 @@
         <v>901</v>
       </c>
       <c r="I57" s="6">
-        <f>H57*G57</f>
+        <f t="shared" si="0"/>
         <v>65773</v>
       </c>
     </row>
@@ -23790,8 +23790,8 @@
       <c r="E58" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>872</v>
+      <c r="F58" s="3">
+        <v>1</v>
       </c>
       <c r="G58" s="6">
         <v>73</v>
@@ -23800,7 +23800,7 @@
         <v>311</v>
       </c>
       <c r="I58" s="6">
-        <f>H58*G58</f>
+        <f t="shared" si="0"/>
         <v>22703</v>
       </c>
     </row>
@@ -23820,8 +23820,8 @@
       <c r="E59" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>872</v>
+      <c r="F59" s="3">
+        <v>1</v>
       </c>
       <c r="G59" s="6">
         <v>50</v>
@@ -23830,7 +23830,7 @@
         <v>819</v>
       </c>
       <c r="I59" s="6">
-        <f>H59*G59</f>
+        <f t="shared" si="0"/>
         <v>40950</v>
       </c>
     </row>
@@ -23850,8 +23850,8 @@
       <c r="E60" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>872</v>
+      <c r="F60" s="3">
+        <v>1</v>
       </c>
       <c r="G60" s="6">
         <v>55</v>
@@ -23860,7 +23860,7 @@
         <v>976</v>
       </c>
       <c r="I60" s="6">
-        <f>H60*G60</f>
+        <f t="shared" si="0"/>
         <v>53680</v>
       </c>
     </row>
@@ -23880,8 +23880,8 @@
       <c r="E61" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>872</v>
+      <c r="F61" s="3">
+        <v>1</v>
       </c>
       <c r="G61" s="6">
         <v>81</v>
@@ -23890,7 +23890,7 @@
         <v>286</v>
       </c>
       <c r="I61" s="6">
-        <f>H61*G61</f>
+        <f t="shared" si="0"/>
         <v>23166</v>
       </c>
     </row>
@@ -23910,8 +23910,8 @@
       <c r="E62" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>872</v>
+      <c r="F62" s="3">
+        <v>1</v>
       </c>
       <c r="G62" s="6">
         <v>64</v>
@@ -23920,7 +23920,7 @@
         <v>2622</v>
       </c>
       <c r="I62" s="6">
-        <f>H62*G62</f>
+        <f t="shared" si="0"/>
         <v>167808</v>
       </c>
     </row>
@@ -23940,8 +23940,8 @@
       <c r="E63" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>872</v>
+      <c r="F63" s="3">
+        <v>1</v>
       </c>
       <c r="G63" s="6">
         <v>98</v>
@@ -23950,7 +23950,7 @@
         <v>983</v>
       </c>
       <c r="I63" s="6">
-        <f>H63*G63</f>
+        <f t="shared" si="0"/>
         <v>96334</v>
       </c>
     </row>
@@ -23970,8 +23970,8 @@
       <c r="E64" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>872</v>
+      <c r="F64" s="3">
+        <v>1</v>
       </c>
       <c r="G64" s="6">
         <v>62</v>
@@ -23980,7 +23980,7 @@
         <v>2407</v>
       </c>
       <c r="I64" s="6">
-        <f>H64*G64</f>
+        <f t="shared" si="0"/>
         <v>149234</v>
       </c>
     </row>
@@ -24000,8 +24000,8 @@
       <c r="E65" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>872</v>
+      <c r="F65" s="3">
+        <v>1</v>
       </c>
       <c r="G65" s="6">
         <v>59</v>
@@ -24010,7 +24010,7 @@
         <v>409</v>
       </c>
       <c r="I65" s="6">
-        <f>H65*G65</f>
+        <f t="shared" si="0"/>
         <v>24131</v>
       </c>
     </row>
@@ -24030,8 +24030,8 @@
       <c r="E66" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>872</v>
+      <c r="F66" s="3">
+        <v>1</v>
       </c>
       <c r="G66" s="6">
         <v>93</v>
@@ -24040,7 +24040,7 @@
         <v>586</v>
       </c>
       <c r="I66" s="6">
-        <f>H66*G66</f>
+        <f t="shared" ref="I66:I129" si="1">H66*G66</f>
         <v>54498</v>
       </c>
     </row>
@@ -24060,8 +24060,8 @@
       <c r="E67" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>872</v>
+      <c r="F67" s="3">
+        <v>1</v>
       </c>
       <c r="G67" s="6">
         <v>72</v>
@@ -24070,7 +24070,7 @@
         <v>655</v>
       </c>
       <c r="I67" s="6">
-        <f>H67*G67</f>
+        <f t="shared" si="1"/>
         <v>47160</v>
       </c>
     </row>
@@ -24090,8 +24090,8 @@
       <c r="E68" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>872</v>
+      <c r="F68" s="3">
+        <v>1</v>
       </c>
       <c r="G68" s="6">
         <v>82</v>
@@ -24100,7 +24100,7 @@
         <v>344</v>
       </c>
       <c r="I68" s="6">
-        <f>H68*G68</f>
+        <f t="shared" si="1"/>
         <v>28208</v>
       </c>
     </row>
@@ -24120,8 +24120,8 @@
       <c r="E69" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>872</v>
+      <c r="F69" s="3">
+        <v>1</v>
       </c>
       <c r="G69" s="6">
         <v>69</v>
@@ -24130,7 +24130,7 @@
         <v>1844</v>
       </c>
       <c r="I69" s="6">
-        <f>H69*G69</f>
+        <f t="shared" si="1"/>
         <v>127236</v>
       </c>
     </row>
@@ -24150,8 +24150,8 @@
       <c r="E70" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>872</v>
+      <c r="F70" s="3">
+        <v>1</v>
       </c>
       <c r="G70" s="6">
         <v>83</v>
@@ -24160,7 +24160,7 @@
         <v>286</v>
       </c>
       <c r="I70" s="6">
-        <f>H70*G70</f>
+        <f t="shared" si="1"/>
         <v>23738</v>
       </c>
     </row>
@@ -24180,8 +24180,8 @@
       <c r="E71" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>872</v>
+      <c r="F71" s="3">
+        <v>1</v>
       </c>
       <c r="G71" s="6">
         <v>80</v>
@@ -24190,7 +24190,7 @@
         <v>655</v>
       </c>
       <c r="I71" s="6">
-        <f>H71*G71</f>
+        <f t="shared" si="1"/>
         <v>52400</v>
       </c>
     </row>
@@ -24210,8 +24210,8 @@
       <c r="E72" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>872</v>
+      <c r="F72" s="3">
+        <v>1</v>
       </c>
       <c r="G72" s="6">
         <v>85</v>
@@ -24220,7 +24220,7 @@
         <v>245</v>
       </c>
       <c r="I72" s="6">
-        <f>H72*G72</f>
+        <f t="shared" si="1"/>
         <v>20825</v>
       </c>
     </row>
@@ -24240,8 +24240,8 @@
       <c r="E73" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>872</v>
+      <c r="F73" s="3">
+        <v>1</v>
       </c>
       <c r="G73" s="6">
         <v>99</v>
@@ -24250,7 +24250,7 @@
         <v>311</v>
       </c>
       <c r="I73" s="6">
-        <f>H73*G73</f>
+        <f t="shared" si="1"/>
         <v>30789</v>
       </c>
     </row>
@@ -24270,8 +24270,8 @@
       <c r="E74" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>872</v>
+      <c r="F74" s="3">
+        <v>1</v>
       </c>
       <c r="G74" s="6">
         <v>97</v>
@@ -24280,7 +24280,7 @@
         <v>983</v>
       </c>
       <c r="I74" s="6">
-        <f>H74*G74</f>
+        <f t="shared" si="1"/>
         <v>95351</v>
       </c>
     </row>
@@ -24300,8 +24300,8 @@
       <c r="E75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>872</v>
+      <c r="F75" s="3">
+        <v>1</v>
       </c>
       <c r="G75" s="6">
         <v>53</v>
@@ -24310,7 +24310,7 @@
         <v>901</v>
       </c>
       <c r="I75" s="6">
-        <f>H75*G75</f>
+        <f t="shared" si="1"/>
         <v>47753</v>
       </c>
     </row>
@@ -24330,8 +24330,8 @@
       <c r="E76" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>872</v>
+      <c r="F76" s="3">
+        <v>1</v>
       </c>
       <c r="G76" s="6">
         <v>100</v>
@@ -24340,7 +24340,7 @@
         <v>896</v>
       </c>
       <c r="I76" s="6">
-        <f>H76*G76</f>
+        <f t="shared" si="1"/>
         <v>89600</v>
       </c>
     </row>
@@ -24360,8 +24360,8 @@
       <c r="E77" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>872</v>
+      <c r="F77" s="3">
+        <v>1</v>
       </c>
       <c r="G77" s="6">
         <v>77</v>
@@ -24370,7 +24370,7 @@
         <v>1775</v>
       </c>
       <c r="I77" s="6">
-        <f>H77*G77</f>
+        <f t="shared" si="1"/>
         <v>136675</v>
       </c>
     </row>
@@ -24390,8 +24390,8 @@
       <c r="E78" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>872</v>
+      <c r="F78" s="3">
+        <v>1</v>
       </c>
       <c r="G78" s="6">
         <v>88</v>
@@ -24400,7 +24400,7 @@
         <v>1311</v>
       </c>
       <c r="I78" s="6">
-        <f>H78*G78</f>
+        <f t="shared" si="1"/>
         <v>115368</v>
       </c>
     </row>
@@ -24420,8 +24420,8 @@
       <c r="E79" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>872</v>
+      <c r="F79" s="3">
+        <v>1</v>
       </c>
       <c r="G79" s="6">
         <v>79</v>
@@ -24430,7 +24430,7 @@
         <v>1475</v>
       </c>
       <c r="I79" s="6">
-        <f>H79*G79</f>
+        <f t="shared" si="1"/>
         <v>116525</v>
       </c>
     </row>
@@ -24450,8 +24450,8 @@
       <c r="E80" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>872</v>
+      <c r="F80" s="3">
+        <v>1</v>
       </c>
       <c r="G80" s="6">
         <v>76</v>
@@ -24460,7 +24460,7 @@
         <v>1121</v>
       </c>
       <c r="I80" s="6">
-        <f>H80*G80</f>
+        <f t="shared" si="1"/>
         <v>85196</v>
       </c>
     </row>
@@ -24480,8 +24480,8 @@
       <c r="E81" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>872</v>
+      <c r="F81" s="3">
+        <v>1</v>
       </c>
       <c r="G81" s="6">
         <v>50</v>
@@ -24490,7 +24490,7 @@
         <v>655</v>
       </c>
       <c r="I81" s="6">
-        <f>H81*G81</f>
+        <f t="shared" si="1"/>
         <v>32750</v>
       </c>
     </row>
@@ -24510,8 +24510,8 @@
       <c r="E82" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>872</v>
+      <c r="F82" s="3">
+        <v>1</v>
       </c>
       <c r="G82" s="6">
         <v>61</v>
@@ -24520,7 +24520,7 @@
         <v>2065</v>
       </c>
       <c r="I82" s="6">
-        <f>H82*G82</f>
+        <f t="shared" si="1"/>
         <v>125965</v>
       </c>
     </row>
@@ -24540,8 +24540,8 @@
       <c r="E83" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>872</v>
+      <c r="F83" s="3">
+        <v>1</v>
       </c>
       <c r="G83" s="6">
         <v>84</v>
@@ -24550,7 +24550,7 @@
         <v>2196</v>
       </c>
       <c r="I83" s="6">
-        <f>H83*G83</f>
+        <f t="shared" si="1"/>
         <v>184464</v>
       </c>
     </row>
@@ -24570,8 +24570,8 @@
       <c r="E84" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>872</v>
+      <c r="F84" s="3">
+        <v>1</v>
       </c>
       <c r="G84" s="6">
         <v>72</v>
@@ -24580,7 +24580,7 @@
         <v>573</v>
       </c>
       <c r="I84" s="6">
-        <f>H84*G84</f>
+        <f t="shared" si="1"/>
         <v>41256</v>
       </c>
     </row>
@@ -24600,8 +24600,8 @@
       <c r="E85" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>872</v>
+      <c r="F85" s="3">
+        <v>1</v>
       </c>
       <c r="G85" s="6">
         <v>75</v>
@@ -24610,7 +24610,7 @@
         <v>386</v>
       </c>
       <c r="I85" s="6">
-        <f>H85*G85</f>
+        <f t="shared" si="1"/>
         <v>28950</v>
       </c>
     </row>
@@ -24630,8 +24630,8 @@
       <c r="E86" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>872</v>
+      <c r="F86" s="3">
+        <v>1</v>
       </c>
       <c r="G86" s="6">
         <v>93</v>
@@ -24640,7 +24640,7 @@
         <v>4918</v>
       </c>
       <c r="I86" s="6">
-        <f>H86*G86</f>
+        <f t="shared" si="1"/>
         <v>457374</v>
       </c>
     </row>
@@ -24660,8 +24660,8 @@
       <c r="E87" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>872</v>
+      <c r="F87" s="3">
+        <v>1</v>
       </c>
       <c r="G87" s="6">
         <v>98</v>
@@ -24670,7 +24670,7 @@
         <v>491</v>
       </c>
       <c r="I87" s="6">
-        <f>H87*G87</f>
+        <f t="shared" si="1"/>
         <v>48118</v>
       </c>
     </row>
@@ -24690,8 +24690,8 @@
       <c r="E88" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>872</v>
+      <c r="F88" s="3">
+        <v>1</v>
       </c>
       <c r="G88" s="6">
         <v>99</v>
@@ -24700,7 +24700,7 @@
         <v>1844</v>
       </c>
       <c r="I88" s="6">
-        <f>H88*G88</f>
+        <f t="shared" si="1"/>
         <v>182556</v>
       </c>
     </row>
@@ -24720,8 +24720,8 @@
       <c r="E89" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>872</v>
+      <c r="F89" s="3">
+        <v>1</v>
       </c>
       <c r="G89" s="6">
         <v>57</v>
@@ -24730,7 +24730,7 @@
         <v>655</v>
       </c>
       <c r="I89" s="6">
-        <f>H89*G89</f>
+        <f t="shared" si="1"/>
         <v>37335</v>
       </c>
     </row>
@@ -24750,8 +24750,8 @@
       <c r="E90" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>872</v>
+      <c r="F90" s="3">
+        <v>1</v>
       </c>
       <c r="G90" s="6">
         <v>81</v>
@@ -24760,7 +24760,7 @@
         <v>1639</v>
       </c>
       <c r="I90" s="6">
-        <f>H90*G90</f>
+        <f t="shared" si="1"/>
         <v>132759</v>
       </c>
     </row>
@@ -24780,8 +24780,8 @@
       <c r="E91" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>872</v>
+      <c r="F91" s="3">
+        <v>1</v>
       </c>
       <c r="G91" s="6">
         <v>62</v>
@@ -24790,7 +24790,7 @@
         <v>655</v>
       </c>
       <c r="I91" s="6">
-        <f>H91*G91</f>
+        <f t="shared" si="1"/>
         <v>40610</v>
       </c>
     </row>
@@ -24810,8 +24810,8 @@
       <c r="E92" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>872</v>
+      <c r="F92" s="3">
+        <v>1</v>
       </c>
       <c r="G92" s="6">
         <v>75</v>
@@ -24820,7 +24820,7 @@
         <v>1704</v>
       </c>
       <c r="I92" s="6">
-        <f>H92*G92</f>
+        <f t="shared" si="1"/>
         <v>127800</v>
       </c>
     </row>
@@ -24840,8 +24840,8 @@
       <c r="E93" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>872</v>
+      <c r="F93" s="3">
+        <v>1</v>
       </c>
       <c r="G93" s="6">
         <v>51</v>
@@ -24850,7 +24850,7 @@
         <v>860</v>
       </c>
       <c r="I93" s="6">
-        <f>H93*G93</f>
+        <f t="shared" si="1"/>
         <v>43860</v>
       </c>
     </row>
@@ -24870,8 +24870,8 @@
       <c r="E94" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>872</v>
+      <c r="F94" s="3">
+        <v>1</v>
       </c>
       <c r="G94" s="6">
         <v>89</v>
@@ -24880,7 +24880,7 @@
         <v>409</v>
       </c>
       <c r="I94" s="6">
-        <f>H94*G94</f>
+        <f t="shared" si="1"/>
         <v>36401</v>
       </c>
     </row>
@@ -24900,8 +24900,8 @@
       <c r="E95" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>872</v>
+      <c r="F95" s="3">
+        <v>1</v>
       </c>
       <c r="G95" s="6">
         <v>58</v>
@@ -24910,7 +24910,7 @@
         <v>1844</v>
       </c>
       <c r="I95" s="6">
-        <f>H95*G95</f>
+        <f t="shared" si="1"/>
         <v>106952</v>
       </c>
     </row>
@@ -24930,8 +24930,8 @@
       <c r="E96" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>872</v>
+      <c r="F96" s="3">
+        <v>1</v>
       </c>
       <c r="G96" s="6">
         <v>62</v>
@@ -24940,7 +24940,7 @@
         <v>327</v>
       </c>
       <c r="I96" s="6">
-        <f>H96*G96</f>
+        <f t="shared" si="1"/>
         <v>20274</v>
       </c>
     </row>
@@ -24960,8 +24960,8 @@
       <c r="E97" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>872</v>
+      <c r="F97" s="3">
+        <v>1</v>
       </c>
       <c r="G97" s="6">
         <v>82</v>
@@ -24970,7 +24970,7 @@
         <v>368</v>
       </c>
       <c r="I97" s="6">
-        <f>H97*G97</f>
+        <f t="shared" si="1"/>
         <v>30176</v>
       </c>
     </row>
@@ -24990,8 +24990,8 @@
       <c r="E98" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>872</v>
+      <c r="F98" s="3">
+        <v>1</v>
       </c>
       <c r="G98" s="6">
         <v>65</v>
@@ -25000,7 +25000,7 @@
         <v>1844</v>
       </c>
       <c r="I98" s="6">
-        <f>H98*G98</f>
+        <f t="shared" si="1"/>
         <v>119860</v>
       </c>
     </row>
@@ -25020,8 +25020,8 @@
       <c r="E99" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>872</v>
+      <c r="F99" s="3">
+        <v>1</v>
       </c>
       <c r="G99" s="6">
         <v>65</v>
@@ -25030,7 +25030,7 @@
         <v>614</v>
       </c>
       <c r="I99" s="6">
-        <f>H99*G99</f>
+        <f t="shared" si="1"/>
         <v>39910</v>
       </c>
     </row>
@@ -25050,8 +25050,8 @@
       <c r="E100" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>872</v>
+      <c r="F100" s="3">
+        <v>1</v>
       </c>
       <c r="G100" s="6">
         <v>97</v>
@@ -25060,7 +25060,7 @@
         <v>286</v>
       </c>
       <c r="I100" s="6">
-        <f>H100*G100</f>
+        <f t="shared" si="1"/>
         <v>27742</v>
       </c>
     </row>
@@ -25080,8 +25080,8 @@
       <c r="E101" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>872</v>
+      <c r="F101" s="3">
+        <v>1</v>
       </c>
       <c r="G101" s="6">
         <v>85</v>
@@ -25090,7 +25090,7 @@
         <v>737</v>
       </c>
       <c r="I101" s="6">
-        <f>H101*G101</f>
+        <f t="shared" si="1"/>
         <v>62645</v>
       </c>
     </row>
@@ -25110,8 +25110,8 @@
       <c r="E102" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>872</v>
+      <c r="F102" s="3">
+        <v>1</v>
       </c>
       <c r="G102" s="6">
         <v>76</v>
@@ -25120,7 +25120,7 @@
         <v>295</v>
       </c>
       <c r="I102" s="6">
-        <f>H102*G102</f>
+        <f t="shared" si="1"/>
         <v>22420</v>
       </c>
     </row>
@@ -25140,8 +25140,8 @@
       <c r="E103" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>872</v>
+      <c r="F103" s="3">
+        <v>1</v>
       </c>
       <c r="G103" s="6">
         <v>70</v>
@@ -25150,7 +25150,7 @@
         <v>411</v>
       </c>
       <c r="I103" s="6">
-        <f>H103*G103</f>
+        <f t="shared" si="1"/>
         <v>28770</v>
       </c>
     </row>
@@ -25170,8 +25170,8 @@
       <c r="E104" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>872</v>
+      <c r="F104" s="3">
+        <v>1</v>
       </c>
       <c r="G104" s="6">
         <v>58</v>
@@ -25180,7 +25180,7 @@
         <v>1803</v>
       </c>
       <c r="I104" s="6">
-        <f>H104*G104</f>
+        <f t="shared" si="1"/>
         <v>104574</v>
       </c>
     </row>
@@ -25200,8 +25200,8 @@
       <c r="E105" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>872</v>
+      <c r="F105" s="3">
+        <v>1</v>
       </c>
       <c r="G105" s="6">
         <v>74</v>
@@ -25210,7 +25210,7 @@
         <v>1647</v>
       </c>
       <c r="I105" s="6">
-        <f>H105*G105</f>
+        <f t="shared" si="1"/>
         <v>121878</v>
       </c>
     </row>
@@ -25230,8 +25230,8 @@
       <c r="E106" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>872</v>
+      <c r="F106" s="3">
+        <v>1</v>
       </c>
       <c r="G106" s="6">
         <v>85</v>
@@ -25240,7 +25240,7 @@
         <v>901</v>
       </c>
       <c r="I106" s="6">
-        <f>H106*G106</f>
+        <f t="shared" si="1"/>
         <v>76585</v>
       </c>
     </row>
@@ -25260,8 +25260,8 @@
       <c r="E107" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>872</v>
+      <c r="F107" s="3">
+        <v>1</v>
       </c>
       <c r="G107" s="6">
         <v>76</v>
@@ -25270,7 +25270,7 @@
         <v>1172</v>
       </c>
       <c r="I107" s="6">
-        <f>H107*G107</f>
+        <f t="shared" si="1"/>
         <v>89072</v>
       </c>
     </row>
@@ -25290,8 +25290,8 @@
       <c r="E108" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>872</v>
+      <c r="F108" s="3">
+        <v>1</v>
       </c>
       <c r="G108" s="6">
         <v>70</v>
@@ -25300,7 +25300,7 @@
         <v>322</v>
       </c>
       <c r="I108" s="6">
-        <f>H108*G108</f>
+        <f t="shared" si="1"/>
         <v>22540</v>
       </c>
     </row>
@@ -25320,8 +25320,8 @@
       <c r="E109" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>872</v>
+      <c r="F109" s="3">
+        <v>1</v>
       </c>
       <c r="G109" s="6">
         <v>66</v>
@@ -25330,7 +25330,7 @@
         <v>737</v>
       </c>
       <c r="I109" s="6">
-        <f>H109*G109</f>
+        <f t="shared" si="1"/>
         <v>48642</v>
       </c>
     </row>
@@ -25350,8 +25350,8 @@
       <c r="E110" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>872</v>
+      <c r="F110" s="3">
+        <v>1</v>
       </c>
       <c r="G110" s="6">
         <v>66</v>
@@ -25360,7 +25360,7 @@
         <v>622</v>
       </c>
       <c r="I110" s="6">
-        <f>H110*G110</f>
+        <f t="shared" si="1"/>
         <v>41052</v>
       </c>
     </row>
@@ -25380,8 +25380,8 @@
       <c r="E111" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>872</v>
+      <c r="F111" s="3">
+        <v>1</v>
       </c>
       <c r="G111" s="6">
         <v>67</v>
@@ -25390,7 +25390,7 @@
         <v>491</v>
       </c>
       <c r="I111" s="6">
-        <f>H111*G111</f>
+        <f t="shared" si="1"/>
         <v>32897</v>
       </c>
     </row>
@@ -25410,8 +25410,8 @@
       <c r="E112" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>872</v>
+      <c r="F112" s="3">
+        <v>1</v>
       </c>
       <c r="G112" s="6">
         <v>82</v>
@@ -25420,7 +25420,7 @@
         <v>709</v>
       </c>
       <c r="I112" s="6">
-        <f>H112*G112</f>
+        <f t="shared" si="1"/>
         <v>58138</v>
       </c>
     </row>
@@ -25440,8 +25440,8 @@
       <c r="E113" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>872</v>
+      <c r="F113" s="3">
+        <v>1</v>
       </c>
       <c r="G113" s="6">
         <v>86</v>
@@ -25450,7 +25450,7 @@
         <v>622</v>
       </c>
       <c r="I113" s="6">
-        <f>H113*G113</f>
+        <f t="shared" si="1"/>
         <v>53492</v>
       </c>
     </row>
@@ -25470,8 +25470,8 @@
       <c r="E114" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>872</v>
+      <c r="F114" s="3">
+        <v>1</v>
       </c>
       <c r="G114" s="6">
         <v>73</v>
@@ -25480,7 +25480,7 @@
         <v>512</v>
       </c>
       <c r="I114" s="6">
-        <f>H114*G114</f>
+        <f t="shared" si="1"/>
         <v>37376</v>
       </c>
     </row>
@@ -25500,8 +25500,8 @@
       <c r="E115" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>872</v>
+      <c r="F115" s="3">
+        <v>1</v>
       </c>
       <c r="G115" s="6">
         <v>98</v>
@@ -25510,7 +25510,7 @@
         <v>245</v>
       </c>
       <c r="I115" s="6">
-        <f>H115*G115</f>
+        <f t="shared" si="1"/>
         <v>24010</v>
       </c>
     </row>
@@ -25530,8 +25530,8 @@
       <c r="E116" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>872</v>
+      <c r="F116" s="3">
+        <v>1</v>
       </c>
       <c r="G116" s="6">
         <v>52</v>
@@ -25540,7 +25540,7 @@
         <v>549</v>
       </c>
       <c r="I116" s="6">
-        <f>H116*G116</f>
+        <f t="shared" si="1"/>
         <v>28548</v>
       </c>
     </row>
@@ -25560,8 +25560,8 @@
       <c r="E117" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>872</v>
+      <c r="F117" s="3">
+        <v>1</v>
       </c>
       <c r="G117" s="6">
         <v>60</v>
@@ -25570,7 +25570,7 @@
         <v>901</v>
       </c>
       <c r="I117" s="6">
-        <f>H117*G117</f>
+        <f t="shared" si="1"/>
         <v>54060</v>
       </c>
     </row>
@@ -25590,8 +25590,8 @@
       <c r="E118" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>872</v>
+      <c r="F118" s="3">
+        <v>1</v>
       </c>
       <c r="G118" s="6">
         <v>74</v>
@@ -25600,7 +25600,7 @@
         <v>651</v>
       </c>
       <c r="I118" s="6">
-        <f>H118*G118</f>
+        <f t="shared" si="1"/>
         <v>48174</v>
       </c>
     </row>
@@ -25620,8 +25620,8 @@
       <c r="E119" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>872</v>
+      <c r="F119" s="3">
+        <v>1</v>
       </c>
       <c r="G119" s="6">
         <v>96</v>
@@ -25630,7 +25630,7 @@
         <v>655</v>
       </c>
       <c r="I119" s="6">
-        <f>H119*G119</f>
+        <f t="shared" si="1"/>
         <v>62880</v>
       </c>
     </row>
@@ -25650,8 +25650,8 @@
       <c r="E120" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>872</v>
+      <c r="F120" s="3">
+        <v>1</v>
       </c>
       <c r="G120" s="6">
         <v>56</v>
@@ -25660,7 +25660,7 @@
         <v>7377</v>
       </c>
       <c r="I120" s="6">
-        <f>H120*G120</f>
+        <f t="shared" si="1"/>
         <v>413112</v>
       </c>
     </row>
@@ -25680,8 +25680,8 @@
       <c r="E121" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>872</v>
+      <c r="F121" s="3">
+        <v>1</v>
       </c>
       <c r="G121" s="6">
         <v>54</v>
@@ -25690,7 +25690,7 @@
         <v>573</v>
       </c>
       <c r="I121" s="6">
-        <f>H121*G121</f>
+        <f t="shared" si="1"/>
         <v>30942</v>
       </c>
     </row>
@@ -25710,8 +25710,8 @@
       <c r="E122" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>872</v>
+      <c r="F122" s="3">
+        <v>1</v>
       </c>
       <c r="G122" s="6">
         <v>71</v>
@@ -25720,7 +25720,7 @@
         <v>368</v>
       </c>
       <c r="I122" s="6">
-        <f>H122*G122</f>
+        <f t="shared" si="1"/>
         <v>26128</v>
       </c>
     </row>
@@ -25740,8 +25740,8 @@
       <c r="E123" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>872</v>
+      <c r="F123" s="3">
+        <v>1</v>
       </c>
       <c r="G123" s="6">
         <v>65</v>
@@ -25750,7 +25750,7 @@
         <v>491</v>
       </c>
       <c r="I123" s="6">
-        <f>H123*G123</f>
+        <f t="shared" si="1"/>
         <v>31915</v>
       </c>
     </row>
@@ -25770,8 +25770,8 @@
       <c r="E124" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>872</v>
+      <c r="F124" s="3">
+        <v>1</v>
       </c>
       <c r="G124" s="6">
         <v>78</v>
@@ -25780,7 +25780,7 @@
         <v>409</v>
       </c>
       <c r="I124" s="6">
-        <f>H124*G124</f>
+        <f t="shared" si="1"/>
         <v>31902</v>
       </c>
     </row>
@@ -25800,8 +25800,8 @@
       <c r="E125" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>872</v>
+      <c r="F125" s="3">
+        <v>1</v>
       </c>
       <c r="G125" s="6">
         <v>57</v>
@@ -25810,7 +25810,7 @@
         <v>352</v>
       </c>
       <c r="I125" s="6">
-        <f>H125*G125</f>
+        <f t="shared" si="1"/>
         <v>20064</v>
       </c>
     </row>
@@ -25830,8 +25830,8 @@
       <c r="E126" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="F126" s="3" t="s">
-        <v>872</v>
+      <c r="F126" s="3">
+        <v>1</v>
       </c>
       <c r="G126" s="6">
         <v>68</v>
@@ -25840,7 +25840,7 @@
         <v>386</v>
       </c>
       <c r="I126" s="6">
-        <f>H126*G126</f>
+        <f t="shared" si="1"/>
         <v>26248</v>
       </c>
     </row>
@@ -25860,8 +25860,8 @@
       <c r="E127" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>872</v>
+      <c r="F127" s="3">
+        <v>1</v>
       </c>
       <c r="G127" s="6">
         <v>58</v>
@@ -25870,7 +25870,7 @@
         <v>591</v>
       </c>
       <c r="I127" s="6">
-        <f>H127*G127</f>
+        <f t="shared" si="1"/>
         <v>34278</v>
       </c>
     </row>
@@ -25890,8 +25890,8 @@
       <c r="E128" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>872</v>
+      <c r="F128" s="3">
+        <v>1</v>
       </c>
       <c r="G128" s="6">
         <v>89</v>
@@ -25900,7 +25900,7 @@
         <v>622</v>
       </c>
       <c r="I128" s="6">
-        <f>H128*G128</f>
+        <f t="shared" si="1"/>
         <v>55358</v>
       </c>
     </row>
@@ -25920,8 +25920,8 @@
       <c r="E129" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>872</v>
+      <c r="F129" s="3">
+        <v>1</v>
       </c>
       <c r="G129" s="6">
         <v>62</v>
@@ -25930,7 +25930,7 @@
         <v>1844</v>
       </c>
       <c r="I129" s="6">
-        <f>H129*G129</f>
+        <f t="shared" si="1"/>
         <v>114328</v>
       </c>
     </row>
@@ -25950,8 +25950,8 @@
       <c r="E130" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>872</v>
+      <c r="F130" s="3">
+        <v>1</v>
       </c>
       <c r="G130" s="6">
         <v>87</v>
@@ -25960,7 +25960,7 @@
         <v>180</v>
       </c>
       <c r="I130" s="6">
-        <f>H130*G130</f>
+        <f t="shared" ref="I130:I193" si="2">H130*G130</f>
         <v>15660</v>
       </c>
     </row>
@@ -25980,8 +25980,8 @@
       <c r="E131" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>872</v>
+      <c r="F131" s="3">
+        <v>1</v>
       </c>
       <c r="G131" s="6">
         <v>75</v>
@@ -25990,7 +25990,7 @@
         <v>413</v>
       </c>
       <c r="I131" s="6">
-        <f>H131*G131</f>
+        <f t="shared" si="2"/>
         <v>30975</v>
       </c>
     </row>
@@ -26010,8 +26010,8 @@
       <c r="E132" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>872</v>
+      <c r="F132" s="3">
+        <v>1</v>
       </c>
       <c r="G132" s="6">
         <v>59</v>
@@ -26020,7 +26020,7 @@
         <v>622</v>
       </c>
       <c r="I132" s="6">
-        <f>H132*G132</f>
+        <f t="shared" si="2"/>
         <v>36698</v>
       </c>
     </row>
@@ -26040,8 +26040,8 @@
       <c r="E133" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>872</v>
+      <c r="F133" s="3">
+        <v>1</v>
       </c>
       <c r="G133" s="6">
         <v>54</v>
@@ -26050,7 +26050,7 @@
         <v>1549</v>
       </c>
       <c r="I133" s="6">
-        <f>H133*G133</f>
+        <f t="shared" si="2"/>
         <v>83646</v>
       </c>
     </row>
@@ -26070,8 +26070,8 @@
       <c r="E134" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>872</v>
+      <c r="F134" s="3">
+        <v>1</v>
       </c>
       <c r="G134" s="6">
         <v>67</v>
@@ -26080,7 +26080,7 @@
         <v>2704</v>
       </c>
       <c r="I134" s="6">
-        <f>H134*G134</f>
+        <f t="shared" si="2"/>
         <v>181168</v>
       </c>
     </row>
@@ -26100,8 +26100,8 @@
       <c r="E135" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>872</v>
+      <c r="F135" s="3">
+        <v>1</v>
       </c>
       <c r="G135" s="6">
         <v>61</v>
@@ -26110,7 +26110,7 @@
         <v>614</v>
       </c>
       <c r="I135" s="6">
-        <f>H135*G135</f>
+        <f t="shared" si="2"/>
         <v>37454</v>
       </c>
     </row>
@@ -26130,8 +26130,8 @@
       <c r="E136" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F136" s="3" t="s">
-        <v>872</v>
+      <c r="F136" s="3">
+        <v>1</v>
       </c>
       <c r="G136" s="6">
         <v>73</v>
@@ -26140,7 +26140,7 @@
         <v>1885</v>
       </c>
       <c r="I136" s="6">
-        <f>H136*G136</f>
+        <f t="shared" si="2"/>
         <v>137605</v>
       </c>
     </row>
@@ -26160,8 +26160,8 @@
       <c r="E137" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="F137" s="3" t="s">
-        <v>872</v>
+      <c r="F137" s="3">
+        <v>1</v>
       </c>
       <c r="G137" s="6">
         <v>95</v>
@@ -26170,7 +26170,7 @@
         <v>1758</v>
       </c>
       <c r="I137" s="6">
-        <f>H137*G137</f>
+        <f t="shared" si="2"/>
         <v>167010</v>
       </c>
     </row>
@@ -26190,8 +26190,8 @@
       <c r="E138" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>872</v>
+      <c r="F138" s="3">
+        <v>1</v>
       </c>
       <c r="G138" s="6">
         <v>52</v>
@@ -26200,7 +26200,7 @@
         <v>272</v>
       </c>
       <c r="I138" s="6">
-        <f>H138*G138</f>
+        <f t="shared" si="2"/>
         <v>14144</v>
       </c>
     </row>
@@ -26220,8 +26220,8 @@
       <c r="E139" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>872</v>
+      <c r="F139" s="3">
+        <v>1</v>
       </c>
       <c r="G139" s="6">
         <v>95</v>
@@ -26230,7 +26230,7 @@
         <v>413</v>
       </c>
       <c r="I139" s="6">
-        <f>H139*G139</f>
+        <f t="shared" si="2"/>
         <v>39235</v>
       </c>
     </row>
@@ -26250,8 +26250,8 @@
       <c r="E140" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>872</v>
+      <c r="F140" s="3">
+        <v>1</v>
       </c>
       <c r="G140" s="6">
         <v>93</v>
@@ -26260,7 +26260,7 @@
         <v>450</v>
       </c>
       <c r="I140" s="6">
-        <f>H140*G140</f>
+        <f t="shared" si="2"/>
         <v>41850</v>
       </c>
     </row>
@@ -26280,8 +26280,8 @@
       <c r="E141" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>872</v>
+      <c r="F141" s="3">
+        <v>1</v>
       </c>
       <c r="G141" s="6">
         <v>79</v>
@@ -26290,7 +26290,7 @@
         <v>341</v>
       </c>
       <c r="I141" s="6">
-        <f>H141*G141</f>
+        <f t="shared" si="2"/>
         <v>26939</v>
       </c>
     </row>
@@ -26310,8 +26310,8 @@
       <c r="E142" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>872</v>
+      <c r="F142" s="3">
+        <v>1</v>
       </c>
       <c r="G142" s="6">
         <v>82</v>
@@ -26320,7 +26320,7 @@
         <v>286</v>
       </c>
       <c r="I142" s="6">
-        <f>H142*G142</f>
+        <f t="shared" si="2"/>
         <v>23452</v>
       </c>
     </row>
@@ -26340,8 +26340,8 @@
       <c r="E143" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>872</v>
+      <c r="F143" s="3">
+        <v>1</v>
       </c>
       <c r="G143" s="6">
         <v>79</v>
@@ -26350,7 +26350,7 @@
         <v>450</v>
       </c>
       <c r="I143" s="6">
-        <f>H143*G143</f>
+        <f t="shared" si="2"/>
         <v>35550</v>
       </c>
     </row>
@@ -26370,8 +26370,8 @@
       <c r="E144" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>872</v>
+      <c r="F144" s="3">
+        <v>1</v>
       </c>
       <c r="G144" s="6">
         <v>87</v>
@@ -26380,7 +26380,7 @@
         <v>1180</v>
       </c>
       <c r="I144" s="6">
-        <f>H144*G144</f>
+        <f t="shared" si="2"/>
         <v>102660</v>
       </c>
     </row>
@@ -26400,8 +26400,8 @@
       <c r="E145" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>872</v>
+      <c r="F145" s="3">
+        <v>1</v>
       </c>
       <c r="G145" s="6">
         <v>60</v>
@@ -26410,7 +26410,7 @@
         <v>1475</v>
       </c>
       <c r="I145" s="6">
-        <f>H145*G145</f>
+        <f t="shared" si="2"/>
         <v>88500</v>
       </c>
     </row>
@@ -26430,8 +26430,8 @@
       <c r="E146" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>872</v>
+      <c r="F146" s="3">
+        <v>1</v>
       </c>
       <c r="G146" s="6">
         <v>82</v>
@@ -26440,7 +26440,7 @@
         <v>426</v>
       </c>
       <c r="I146" s="6">
-        <f>H146*G146</f>
+        <f t="shared" si="2"/>
         <v>34932</v>
       </c>
     </row>
@@ -26460,8 +26460,8 @@
       <c r="E147" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>872</v>
+      <c r="F147" s="3">
+        <v>1</v>
       </c>
       <c r="G147" s="6">
         <v>58</v>
@@ -26470,7 +26470,7 @@
         <v>614</v>
       </c>
       <c r="I147" s="6">
-        <f>H147*G147</f>
+        <f t="shared" si="2"/>
         <v>35612</v>
       </c>
     </row>
@@ -26490,8 +26490,8 @@
       <c r="E148" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>872</v>
+      <c r="F148" s="3">
+        <v>1</v>
       </c>
       <c r="G148" s="6">
         <v>99</v>
@@ -26500,7 +26500,7 @@
         <v>9016</v>
       </c>
       <c r="I148" s="6">
-        <f>H148*G148</f>
+        <f t="shared" si="2"/>
         <v>892584</v>
       </c>
     </row>
@@ -26520,8 +26520,8 @@
       <c r="E149" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>872</v>
+      <c r="F149" s="3">
+        <v>1</v>
       </c>
       <c r="G149" s="6">
         <v>90</v>
@@ -26530,7 +26530,7 @@
         <v>491</v>
       </c>
       <c r="I149" s="6">
-        <f>H149*G149</f>
+        <f t="shared" si="2"/>
         <v>44190</v>
       </c>
     </row>
@@ -26550,8 +26550,8 @@
       <c r="E150" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>872</v>
+      <c r="F150" s="3">
+        <v>1</v>
       </c>
       <c r="G150" s="6">
         <v>86</v>
@@ -26560,7 +26560,7 @@
         <v>622</v>
       </c>
       <c r="I150" s="6">
-        <f>H150*G150</f>
+        <f t="shared" si="2"/>
         <v>53492</v>
       </c>
     </row>
@@ -26580,8 +26580,8 @@
       <c r="E151" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>872</v>
+      <c r="F151" s="3">
+        <v>1</v>
       </c>
       <c r="G151" s="6">
         <v>90</v>
@@ -26590,7 +26590,7 @@
         <v>327</v>
       </c>
       <c r="I151" s="6">
-        <f>H151*G151</f>
+        <f t="shared" si="2"/>
         <v>29430</v>
       </c>
     </row>
@@ -26610,8 +26610,8 @@
       <c r="E152" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>872</v>
+      <c r="F152" s="3">
+        <v>1</v>
       </c>
       <c r="G152" s="6">
         <v>99</v>
@@ -26620,7 +26620,7 @@
         <v>532</v>
       </c>
       <c r="I152" s="6">
-        <f>H152*G152</f>
+        <f t="shared" si="2"/>
         <v>52668</v>
       </c>
     </row>
@@ -26640,8 +26640,8 @@
       <c r="E153" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="F153" s="3" t="s">
-        <v>872</v>
+      <c r="F153" s="3">
+        <v>1</v>
       </c>
       <c r="G153" s="6">
         <v>63</v>
@@ -26650,7 +26650,7 @@
         <v>327</v>
       </c>
       <c r="I153" s="6">
-        <f>H153*G153</f>
+        <f t="shared" si="2"/>
         <v>20601</v>
       </c>
     </row>
@@ -26670,8 +26670,8 @@
       <c r="E154" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F154" s="3" t="s">
-        <v>872</v>
+      <c r="F154" s="3">
+        <v>1</v>
       </c>
       <c r="G154" s="6">
         <v>80</v>
@@ -26680,7 +26680,7 @@
         <v>976</v>
       </c>
       <c r="I154" s="6">
-        <f>H154*G154</f>
+        <f t="shared" si="2"/>
         <v>78080</v>
       </c>
     </row>
@@ -26700,8 +26700,8 @@
       <c r="E155" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>872</v>
+      <c r="F155" s="3">
+        <v>1</v>
       </c>
       <c r="G155" s="6">
         <v>69</v>
@@ -26710,7 +26710,7 @@
         <v>1696</v>
       </c>
       <c r="I155" s="6">
-        <f>H155*G155</f>
+        <f t="shared" si="2"/>
         <v>117024</v>
       </c>
     </row>
@@ -26730,8 +26730,8 @@
       <c r="E156" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F156" s="3" t="s">
-        <v>872</v>
+      <c r="F156" s="3">
+        <v>1</v>
       </c>
       <c r="G156" s="6">
         <v>86</v>
@@ -26740,7 +26740,7 @@
         <v>1844</v>
       </c>
       <c r="I156" s="6">
-        <f>H156*G156</f>
+        <f t="shared" si="2"/>
         <v>158584</v>
       </c>
     </row>
@@ -26760,8 +26760,8 @@
       <c r="E157" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>872</v>
+      <c r="F157" s="3">
+        <v>1</v>
       </c>
       <c r="G157" s="6">
         <v>62</v>
@@ -26770,7 +26770,7 @@
         <v>1967</v>
       </c>
       <c r="I157" s="6">
-        <f>H157*G157</f>
+        <f t="shared" si="2"/>
         <v>121954</v>
       </c>
     </row>
@@ -26790,8 +26790,8 @@
       <c r="E158" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>872</v>
+      <c r="F158" s="3">
+        <v>1</v>
       </c>
       <c r="G158" s="6">
         <v>93</v>
@@ -26800,7 +26800,7 @@
         <v>1844</v>
       </c>
       <c r="I158" s="6">
-        <f>H158*G158</f>
+        <f t="shared" si="2"/>
         <v>171492</v>
       </c>
     </row>
@@ -26820,8 +26820,8 @@
       <c r="E159" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="F159" s="3" t="s">
-        <v>872</v>
+      <c r="F159" s="3">
+        <v>1</v>
       </c>
       <c r="G159" s="6">
         <v>71</v>
@@ -26830,7 +26830,7 @@
         <v>1844</v>
       </c>
       <c r="I159" s="6">
-        <f>H159*G159</f>
+        <f t="shared" si="2"/>
         <v>130924</v>
       </c>
     </row>
@@ -26850,8 +26850,8 @@
       <c r="E160" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F160" s="3" t="s">
-        <v>872</v>
+      <c r="F160" s="3">
+        <v>1</v>
       </c>
       <c r="G160" s="6">
         <v>65</v>
@@ -26860,7 +26860,7 @@
         <v>819</v>
       </c>
       <c r="I160" s="6">
-        <f>H160*G160</f>
+        <f t="shared" si="2"/>
         <v>53235</v>
       </c>
     </row>
@@ -26880,8 +26880,8 @@
       <c r="E161" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="F161" s="3" t="s">
-        <v>872</v>
+      <c r="F161" s="3">
+        <v>1</v>
       </c>
       <c r="G161" s="6">
         <v>72</v>
@@ -26890,7 +26890,7 @@
         <v>221</v>
       </c>
       <c r="I161" s="6">
-        <f>H161*G161</f>
+        <f t="shared" si="2"/>
         <v>15912</v>
       </c>
     </row>
@@ -26910,8 +26910,8 @@
       <c r="E162" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F162" s="3" t="s">
-        <v>872</v>
+      <c r="F162" s="3">
+        <v>1</v>
       </c>
       <c r="G162" s="6">
         <v>95</v>
@@ -26920,7 +26920,7 @@
         <v>386</v>
       </c>
       <c r="I162" s="6">
-        <f>H162*G162</f>
+        <f t="shared" si="2"/>
         <v>36670</v>
       </c>
     </row>
@@ -26940,8 +26940,8 @@
       <c r="E163" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="F163" s="3" t="s">
-        <v>872</v>
+      <c r="F163" s="3">
+        <v>1</v>
       </c>
       <c r="G163" s="6">
         <v>67</v>
@@ -26950,7 +26950,7 @@
         <v>586</v>
       </c>
       <c r="I163" s="6">
-        <f>H163*G163</f>
+        <f t="shared" si="2"/>
         <v>39262</v>
       </c>
     </row>
@@ -26970,8 +26970,8 @@
       <c r="E164" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>872</v>
+      <c r="F164" s="3">
+        <v>1</v>
       </c>
       <c r="G164" s="6">
         <v>91</v>
@@ -26980,7 +26980,7 @@
         <v>436</v>
       </c>
       <c r="I164" s="6">
-        <f>H164*G164</f>
+        <f t="shared" si="2"/>
         <v>39676</v>
       </c>
     </row>
@@ -27000,8 +27000,8 @@
       <c r="E165" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>872</v>
+      <c r="F165" s="3">
+        <v>1</v>
       </c>
       <c r="G165" s="6">
         <v>89</v>
@@ -27010,7 +27010,7 @@
         <v>341</v>
       </c>
       <c r="I165" s="6">
-        <f>H165*G165</f>
+        <f t="shared" si="2"/>
         <v>30349</v>
       </c>
     </row>
@@ -27030,8 +27030,8 @@
       <c r="E166" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>872</v>
+      <c r="F166" s="3">
+        <v>1</v>
       </c>
       <c r="G166" s="6">
         <v>79</v>
@@ -27040,7 +27040,7 @@
         <v>413</v>
       </c>
       <c r="I166" s="6">
-        <f>H166*G166</f>
+        <f t="shared" si="2"/>
         <v>32627</v>
       </c>
     </row>
@@ -27060,8 +27060,8 @@
       <c r="E167" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>872</v>
+      <c r="F167" s="3">
+        <v>1</v>
       </c>
       <c r="G167" s="6">
         <v>60</v>
@@ -27070,7 +27070,7 @@
         <v>655</v>
       </c>
       <c r="I167" s="6">
-        <f>H167*G167</f>
+        <f t="shared" si="2"/>
         <v>39300</v>
       </c>
     </row>
@@ -27090,8 +27090,8 @@
       <c r="E168" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>872</v>
+      <c r="F168" s="3">
+        <v>1</v>
       </c>
       <c r="G168" s="6">
         <v>75</v>
@@ -27100,7 +27100,7 @@
         <v>1844</v>
       </c>
       <c r="I168" s="6">
-        <f>H168*G168</f>
+        <f t="shared" si="2"/>
         <v>138300</v>
       </c>
     </row>
@@ -27120,8 +27120,8 @@
       <c r="E169" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="F169" s="3" t="s">
-        <v>872</v>
+      <c r="F169" s="3">
+        <v>1</v>
       </c>
       <c r="G169" s="6">
         <v>63</v>
@@ -27130,7 +27130,7 @@
         <v>655</v>
       </c>
       <c r="I169" s="6">
-        <f>H169*G169</f>
+        <f t="shared" si="2"/>
         <v>41265</v>
       </c>
     </row>
@@ -27150,8 +27150,8 @@
       <c r="E170" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F170" s="3" t="s">
-        <v>872</v>
+      <c r="F170" s="3">
+        <v>1</v>
       </c>
       <c r="G170" s="6">
         <v>98</v>
@@ -27160,7 +27160,7 @@
         <v>386</v>
       </c>
       <c r="I170" s="6">
-        <f>H170*G170</f>
+        <f t="shared" si="2"/>
         <v>37828</v>
       </c>
     </row>
@@ -27180,8 +27180,8 @@
       <c r="E171" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F171" s="3" t="s">
-        <v>872</v>
+      <c r="F171" s="3">
+        <v>1</v>
       </c>
       <c r="G171" s="6">
         <v>77</v>
@@ -27190,7 +27190,7 @@
         <v>1147</v>
       </c>
       <c r="I171" s="6">
-        <f>H171*G171</f>
+        <f t="shared" si="2"/>
         <v>88319</v>
       </c>
     </row>
@@ -27210,8 +27210,8 @@
       <c r="E172" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F172" s="3" t="s">
-        <v>872</v>
+      <c r="F172" s="3">
+        <v>1</v>
       </c>
       <c r="G172" s="6">
         <v>72</v>
@@ -27220,7 +27220,7 @@
         <v>1844</v>
       </c>
       <c r="I172" s="6">
-        <f>H172*G172</f>
+        <f t="shared" si="2"/>
         <v>132768</v>
       </c>
     </row>
@@ -27240,8 +27240,8 @@
       <c r="E173" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="F173" s="3" t="s">
-        <v>872</v>
+      <c r="F173" s="3">
+        <v>1</v>
       </c>
       <c r="G173" s="6">
         <v>58</v>
@@ -27250,7 +27250,7 @@
         <v>622</v>
       </c>
       <c r="I173" s="6">
-        <f>H173*G173</f>
+        <f t="shared" si="2"/>
         <v>36076</v>
       </c>
     </row>
@@ -27270,8 +27270,8 @@
       <c r="E174" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F174" s="3" t="s">
-        <v>872</v>
+      <c r="F174" s="3">
+        <v>1</v>
       </c>
       <c r="G174" s="6">
         <v>86</v>
@@ -27280,7 +27280,7 @@
         <v>1311</v>
       </c>
       <c r="I174" s="6">
-        <f>H174*G174</f>
+        <f t="shared" si="2"/>
         <v>112746</v>
       </c>
     </row>
@@ -27300,8 +27300,8 @@
       <c r="E175" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="F175" s="3" t="s">
-        <v>872</v>
+      <c r="F175" s="3">
+        <v>1</v>
       </c>
       <c r="G175" s="6">
         <v>58</v>
@@ -27310,7 +27310,7 @@
         <v>614</v>
       </c>
       <c r="I175" s="6">
-        <f>H175*G175</f>
+        <f t="shared" si="2"/>
         <v>35612</v>
       </c>
     </row>
@@ -27330,8 +27330,8 @@
       <c r="E176" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F176" s="3" t="s">
-        <v>872</v>
+      <c r="F176" s="3">
+        <v>1</v>
       </c>
       <c r="G176" s="6">
         <v>74</v>
@@ -27340,7 +27340,7 @@
         <v>1803</v>
       </c>
       <c r="I176" s="6">
-        <f>H176*G176</f>
+        <f t="shared" si="2"/>
         <v>133422</v>
       </c>
     </row>
@@ -27360,8 +27360,8 @@
       <c r="E177" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F177" s="3" t="s">
-        <v>872</v>
+      <c r="F177" s="3">
+        <v>1</v>
       </c>
       <c r="G177" s="6">
         <v>78</v>
@@ -27370,7 +27370,7 @@
         <v>1183</v>
       </c>
       <c r="I177" s="6">
-        <f>H177*G177</f>
+        <f t="shared" si="2"/>
         <v>92274</v>
       </c>
     </row>
@@ -27390,8 +27390,8 @@
       <c r="E178" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="F178" s="3" t="s">
-        <v>872</v>
+      <c r="F178" s="3">
+        <v>1</v>
       </c>
       <c r="G178" s="6">
         <v>59</v>
@@ -27400,7 +27400,7 @@
         <v>1758</v>
       </c>
       <c r="I178" s="6">
-        <f>H178*G178</f>
+        <f t="shared" si="2"/>
         <v>103722</v>
       </c>
     </row>
@@ -27420,8 +27420,8 @@
       <c r="E179" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F179" s="3" t="s">
-        <v>872</v>
+      <c r="F179" s="3">
+        <v>1</v>
       </c>
       <c r="G179" s="6">
         <v>60</v>
@@ -27430,7 +27430,7 @@
         <v>655</v>
       </c>
       <c r="I179" s="6">
-        <f>H179*G179</f>
+        <f t="shared" si="2"/>
         <v>39300</v>
       </c>
     </row>
@@ -27450,8 +27450,8 @@
       <c r="E180" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F180" s="3" t="s">
-        <v>872</v>
+      <c r="F180" s="3">
+        <v>1</v>
       </c>
       <c r="G180" s="6">
         <v>58</v>
@@ -27460,7 +27460,7 @@
         <v>6557</v>
       </c>
       <c r="I180" s="6">
-        <f>H180*G180</f>
+        <f t="shared" si="2"/>
         <v>380306</v>
       </c>
     </row>
@@ -27480,8 +27480,8 @@
       <c r="E181" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="F181" s="3" t="s">
-        <v>872</v>
+      <c r="F181" s="3">
+        <v>1</v>
       </c>
       <c r="G181" s="6">
         <v>86</v>
@@ -27490,7 +27490,7 @@
         <v>13934</v>
       </c>
       <c r="I181" s="6">
-        <f>H181*G181</f>
+        <f t="shared" si="2"/>
         <v>1198324</v>
       </c>
     </row>
@@ -27510,8 +27510,8 @@
       <c r="E182" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="F182" s="3" t="s">
-        <v>872</v>
+      <c r="F182" s="3">
+        <v>1</v>
       </c>
       <c r="G182" s="6">
         <v>57</v>
@@ -27520,7 +27520,7 @@
         <v>1647</v>
       </c>
       <c r="I182" s="6">
-        <f>H182*G182</f>
+        <f t="shared" si="2"/>
         <v>93879</v>
       </c>
     </row>
@@ -27540,8 +27540,8 @@
       <c r="E183" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F183" s="3" t="s">
-        <v>872</v>
+      <c r="F183" s="3">
+        <v>1</v>
       </c>
       <c r="G183" s="6">
         <v>51</v>
@@ -27550,7 +27550,7 @@
         <v>327</v>
       </c>
       <c r="I183" s="6">
-        <f>H183*G183</f>
+        <f t="shared" si="2"/>
         <v>16677</v>
       </c>
     </row>
@@ -27570,8 +27570,8 @@
       <c r="E184" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F184" s="3" t="s">
-        <v>872</v>
+      <c r="F184" s="3">
+        <v>1</v>
       </c>
       <c r="G184" s="6">
         <v>77</v>
@@ -27580,7 +27580,7 @@
         <v>651</v>
       </c>
       <c r="I184" s="6">
-        <f>H184*G184</f>
+        <f t="shared" si="2"/>
         <v>50127</v>
       </c>
     </row>
@@ -27600,8 +27600,8 @@
       <c r="E185" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F185" s="3" t="s">
-        <v>872</v>
+      <c r="F185" s="3">
+        <v>1</v>
       </c>
       <c r="G185" s="6">
         <v>86</v>
@@ -27610,7 +27610,7 @@
         <v>983</v>
       </c>
       <c r="I185" s="6">
-        <f>H185*G185</f>
+        <f t="shared" si="2"/>
         <v>84538</v>
       </c>
     </row>
@@ -27630,8 +27630,8 @@
       <c r="E186" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="F186" s="3" t="s">
-        <v>872</v>
+      <c r="F186" s="3">
+        <v>1</v>
       </c>
       <c r="G186" s="6">
         <v>68</v>
@@ -27640,7 +27640,7 @@
         <v>1639</v>
       </c>
       <c r="I186" s="6">
-        <f>H186*G186</f>
+        <f t="shared" si="2"/>
         <v>111452</v>
       </c>
     </row>
@@ -27660,8 +27660,8 @@
       <c r="E187" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F187" s="3" t="s">
-        <v>872</v>
+      <c r="F187" s="3">
+        <v>1</v>
       </c>
       <c r="G187" s="6">
         <v>94</v>
@@ -27670,7 +27670,7 @@
         <v>1844</v>
       </c>
       <c r="I187" s="6">
-        <f>H187*G187</f>
+        <f t="shared" si="2"/>
         <v>173336</v>
       </c>
     </row>
@@ -27690,8 +27690,8 @@
       <c r="E188" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>872</v>
+      <c r="F188" s="3">
+        <v>1</v>
       </c>
       <c r="G188" s="6">
         <v>71</v>
@@ -27700,7 +27700,7 @@
         <v>409</v>
       </c>
       <c r="I188" s="6">
-        <f>H188*G188</f>
+        <f t="shared" si="2"/>
         <v>29039</v>
       </c>
     </row>
@@ -27720,8 +27720,8 @@
       <c r="E189" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F189" s="3" t="s">
-        <v>872</v>
+      <c r="F189" s="3">
+        <v>1</v>
       </c>
       <c r="G189" s="6">
         <v>69</v>
@@ -27730,7 +27730,7 @@
         <v>295</v>
       </c>
       <c r="I189" s="6">
-        <f>H189*G189</f>
+        <f t="shared" si="2"/>
         <v>20355</v>
       </c>
     </row>
@@ -27750,8 +27750,8 @@
       <c r="E190" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F190" s="3" t="s">
-        <v>872</v>
+      <c r="F190" s="3">
+        <v>1</v>
       </c>
       <c r="G190" s="6">
         <v>79</v>
@@ -27760,7 +27760,7 @@
         <v>587</v>
       </c>
       <c r="I190" s="6">
-        <f>H190*G190</f>
+        <f t="shared" si="2"/>
         <v>46373</v>
       </c>
     </row>
@@ -27780,8 +27780,8 @@
       <c r="E191" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="F191" s="3" t="s">
-        <v>872</v>
+      <c r="F191" s="3">
+        <v>1</v>
       </c>
       <c r="G191" s="6">
         <v>91</v>
@@ -27790,7 +27790,7 @@
         <v>919</v>
       </c>
       <c r="I191" s="6">
-        <f>H191*G191</f>
+        <f t="shared" si="2"/>
         <v>83629</v>
       </c>
     </row>
@@ -27810,8 +27810,8 @@
       <c r="E192" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="F192" s="3" t="s">
-        <v>872</v>
+      <c r="F192" s="3">
+        <v>1</v>
       </c>
       <c r="G192" s="6">
         <v>99</v>
@@ -27820,7 +27820,7 @@
         <v>491</v>
       </c>
       <c r="I192" s="6">
-        <f>H192*G192</f>
+        <f t="shared" si="2"/>
         <v>48609</v>
       </c>
     </row>
@@ -27840,8 +27840,8 @@
       <c r="E193" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="F193" s="3" t="s">
-        <v>872</v>
+      <c r="F193" s="3">
+        <v>1</v>
       </c>
       <c r="G193" s="6">
         <v>98</v>
@@ -27850,7 +27850,7 @@
         <v>274</v>
       </c>
       <c r="I193" s="6">
-        <f>H193*G193</f>
+        <f t="shared" si="2"/>
         <v>26852</v>
       </c>
     </row>
@@ -27870,8 +27870,8 @@
       <c r="E194" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="F194" s="3" t="s">
-        <v>872</v>
+      <c r="F194" s="3">
+        <v>1</v>
       </c>
       <c r="G194" s="6">
         <v>83</v>
@@ -27880,7 +27880,7 @@
         <v>524</v>
       </c>
       <c r="I194" s="6">
-        <f>H194*G194</f>
+        <f t="shared" ref="I194:I257" si="3">H194*G194</f>
         <v>43492</v>
       </c>
     </row>
@@ -27900,8 +27900,8 @@
       <c r="E195" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F195" s="3" t="s">
-        <v>872</v>
+      <c r="F195" s="3">
+        <v>1</v>
       </c>
       <c r="G195" s="6">
         <v>57</v>
@@ -27910,7 +27910,7 @@
         <v>614</v>
       </c>
       <c r="I195" s="6">
-        <f>H195*G195</f>
+        <f t="shared" si="3"/>
         <v>34998</v>
       </c>
     </row>
@@ -27930,8 +27930,8 @@
       <c r="E196" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="F196" s="3" t="s">
-        <v>872</v>
+      <c r="F196" s="3">
+        <v>1</v>
       </c>
       <c r="G196" s="6">
         <v>99</v>
@@ -27940,7 +27940,7 @@
         <v>341</v>
       </c>
       <c r="I196" s="6">
-        <f>H196*G196</f>
+        <f t="shared" si="3"/>
         <v>33759</v>
       </c>
     </row>
@@ -27960,8 +27960,8 @@
       <c r="E197" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="F197" s="3" t="s">
-        <v>872</v>
+      <c r="F197" s="3">
+        <v>1</v>
       </c>
       <c r="G197" s="6">
         <v>84</v>
@@ -27970,7 +27970,7 @@
         <v>327</v>
       </c>
       <c r="I197" s="6">
-        <f>H197*G197</f>
+        <f t="shared" si="3"/>
         <v>27468</v>
       </c>
     </row>
@@ -27990,8 +27990,8 @@
       <c r="E198" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F198" s="3" t="s">
-        <v>872</v>
+      <c r="F198" s="3">
+        <v>1</v>
       </c>
       <c r="G198" s="6">
         <v>80</v>
@@ -28000,7 +28000,7 @@
         <v>368</v>
       </c>
       <c r="I198" s="6">
-        <f>H198*G198</f>
+        <f t="shared" si="3"/>
         <v>29440</v>
       </c>
     </row>
@@ -28020,8 +28020,8 @@
       <c r="E199" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="F199" s="3" t="s">
-        <v>872</v>
+      <c r="F199" s="3">
+        <v>1</v>
       </c>
       <c r="G199" s="6">
         <v>55</v>
@@ -28030,7 +28030,7 @@
         <v>1465</v>
       </c>
       <c r="I199" s="6">
-        <f>H199*G199</f>
+        <f t="shared" si="3"/>
         <v>80575</v>
       </c>
     </row>
@@ -28050,8 +28050,8 @@
       <c r="E200" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="F200" s="3" t="s">
-        <v>872</v>
+      <c r="F200" s="3">
+        <v>1</v>
       </c>
       <c r="G200" s="6">
         <v>71</v>
@@ -28060,7 +28060,7 @@
         <v>651</v>
       </c>
       <c r="I200" s="6">
-        <f>H200*G200</f>
+        <f t="shared" si="3"/>
         <v>46221</v>
       </c>
     </row>
@@ -28080,8 +28080,8 @@
       <c r="E201" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F201" s="3" t="s">
-        <v>872</v>
+      <c r="F201" s="3">
+        <v>1</v>
       </c>
       <c r="G201" s="6">
         <v>69</v>
@@ -28090,7 +28090,7 @@
         <v>1803</v>
       </c>
       <c r="I201" s="6">
-        <f>H201*G201</f>
+        <f t="shared" si="3"/>
         <v>124407</v>
       </c>
     </row>
@@ -28110,8 +28110,8 @@
       <c r="E202" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="F202" s="3" t="s">
-        <v>872</v>
+      <c r="F202" s="3">
+        <v>1</v>
       </c>
       <c r="G202" s="6">
         <v>67</v>
@@ -28120,7 +28120,7 @@
         <v>2213</v>
       </c>
       <c r="I202" s="6">
-        <f>H202*G202</f>
+        <f t="shared" si="3"/>
         <v>148271</v>
       </c>
     </row>
@@ -28140,8 +28140,8 @@
       <c r="E203" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="F203" s="3" t="s">
-        <v>872</v>
+      <c r="F203" s="3">
+        <v>1</v>
       </c>
       <c r="G203" s="6">
         <v>82</v>
@@ -28150,7 +28150,7 @@
         <v>573</v>
       </c>
       <c r="I203" s="6">
-        <f>H203*G203</f>
+        <f t="shared" si="3"/>
         <v>46986</v>
       </c>
     </row>
@@ -28170,8 +28170,8 @@
       <c r="E204" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F204" s="3" t="s">
-        <v>872</v>
+      <c r="F204" s="3">
+        <v>1</v>
       </c>
       <c r="G204" s="6">
         <v>68</v>
@@ -28180,7 +28180,7 @@
         <v>1696</v>
       </c>
       <c r="I204" s="6">
-        <f>H204*G204</f>
+        <f t="shared" si="3"/>
         <v>115328</v>
       </c>
     </row>
@@ -28200,8 +28200,8 @@
       <c r="E205" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="F205" s="3" t="s">
-        <v>872</v>
+      <c r="F205" s="3">
+        <v>1</v>
       </c>
       <c r="G205" s="6">
         <v>85</v>
@@ -28210,7 +28210,7 @@
         <v>6557</v>
       </c>
       <c r="I205" s="6">
-        <f>H205*G205</f>
+        <f t="shared" si="3"/>
         <v>557345</v>
       </c>
     </row>
@@ -28230,8 +28230,8 @@
       <c r="E206" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F206" s="3" t="s">
-        <v>872</v>
+      <c r="F206" s="3">
+        <v>1</v>
       </c>
       <c r="G206" s="6">
         <v>81</v>
@@ -28240,7 +28240,7 @@
         <v>2459</v>
       </c>
       <c r="I206" s="6">
-        <f>H206*G206</f>
+        <f t="shared" si="3"/>
         <v>199179</v>
       </c>
     </row>
@@ -28260,8 +28260,8 @@
       <c r="E207" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="F207" s="3" t="s">
-        <v>872</v>
+      <c r="F207" s="3">
+        <v>1</v>
       </c>
       <c r="G207" s="6">
         <v>91</v>
@@ -28270,7 +28270,7 @@
         <v>6557</v>
       </c>
       <c r="I207" s="6">
-        <f>H207*G207</f>
+        <f t="shared" si="3"/>
         <v>596687</v>
       </c>
     </row>
@@ -28290,8 +28290,8 @@
       <c r="E208" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="F208" s="3" t="s">
-        <v>872</v>
+      <c r="F208" s="3">
+        <v>1</v>
       </c>
       <c r="G208" s="6">
         <v>57</v>
@@ -28300,7 +28300,7 @@
         <v>2065</v>
       </c>
       <c r="I208" s="6">
-        <f>H208*G208</f>
+        <f t="shared" si="3"/>
         <v>117705</v>
       </c>
     </row>
@@ -28320,8 +28320,8 @@
       <c r="E209" s="3" t="s">
         <v>812</v>
       </c>
-      <c r="F209" s="3" t="s">
-        <v>872</v>
+      <c r="F209" s="3">
+        <v>1</v>
       </c>
       <c r="G209" s="6">
         <v>90</v>
@@ -28330,7 +28330,7 @@
         <v>384</v>
       </c>
       <c r="I209" s="6">
-        <f>H209*G209</f>
+        <f t="shared" si="3"/>
         <v>34560</v>
       </c>
     </row>
@@ -28350,8 +28350,8 @@
       <c r="E210" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="F210" s="3" t="s">
-        <v>872</v>
+      <c r="F210" s="3">
+        <v>1</v>
       </c>
       <c r="G210" s="6">
         <v>60</v>
@@ -28360,7 +28360,7 @@
         <v>368</v>
       </c>
       <c r="I210" s="6">
-        <f>H210*G210</f>
+        <f t="shared" si="3"/>
         <v>22080</v>
       </c>
     </row>
@@ -28380,8 +28380,8 @@
       <c r="E211" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="F211" s="3" t="s">
-        <v>872</v>
+      <c r="F211" s="3">
+        <v>1</v>
       </c>
       <c r="G211" s="6">
         <v>98</v>
@@ -28390,7 +28390,7 @@
         <v>549</v>
       </c>
       <c r="I211" s="6">
-        <f>H211*G211</f>
+        <f t="shared" si="3"/>
         <v>53802</v>
       </c>
     </row>
@@ -28410,8 +28410,8 @@
       <c r="E212" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F212" s="3" t="s">
-        <v>872</v>
+      <c r="F212" s="3">
+        <v>1</v>
       </c>
       <c r="G212" s="6">
         <v>86</v>
@@ -28420,7 +28420,7 @@
         <v>591</v>
       </c>
       <c r="I212" s="6">
-        <f>H212*G212</f>
+        <f t="shared" si="3"/>
         <v>50826</v>
       </c>
     </row>
@@ -28440,8 +28440,8 @@
       <c r="E213" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F213" s="3" t="s">
-        <v>872</v>
+      <c r="F213" s="3">
+        <v>1</v>
       </c>
       <c r="G213" s="6">
         <v>58</v>
@@ -28450,7 +28450,7 @@
         <v>1844</v>
       </c>
       <c r="I213" s="6">
-        <f>H213*G213</f>
+        <f t="shared" si="3"/>
         <v>106952</v>
       </c>
     </row>
@@ -28470,8 +28470,8 @@
       <c r="E214" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="F214" s="3" t="s">
-        <v>872</v>
+      <c r="F214" s="3">
+        <v>1</v>
       </c>
       <c r="G214" s="6">
         <v>50</v>
@@ -28480,7 +28480,7 @@
         <v>409</v>
       </c>
       <c r="I214" s="6">
-        <f>H214*G214</f>
+        <f t="shared" si="3"/>
         <v>20450</v>
       </c>
     </row>
@@ -28500,8 +28500,8 @@
       <c r="E215" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F215" s="3" t="s">
-        <v>872</v>
+      <c r="F215" s="3">
+        <v>1</v>
       </c>
       <c r="G215" s="6">
         <v>99</v>
@@ -28510,7 +28510,7 @@
         <v>555</v>
       </c>
       <c r="I215" s="6">
-        <f>H215*G215</f>
+        <f t="shared" si="3"/>
         <v>54945</v>
       </c>
     </row>
@@ -28530,8 +28530,8 @@
       <c r="E216" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F216" s="3" t="s">
-        <v>872</v>
+      <c r="F216" s="3">
+        <v>1</v>
       </c>
       <c r="G216" s="6">
         <v>87</v>
@@ -28540,7 +28540,7 @@
         <v>1844</v>
       </c>
       <c r="I216" s="6">
-        <f>H216*G216</f>
+        <f t="shared" si="3"/>
         <v>160428</v>
       </c>
     </row>
@@ -28560,8 +28560,8 @@
       <c r="E217" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="F217" s="3" t="s">
-        <v>872</v>
+      <c r="F217" s="3">
+        <v>1</v>
       </c>
       <c r="G217" s="6">
         <v>56</v>
@@ -28570,7 +28570,7 @@
         <v>8240</v>
       </c>
       <c r="I217" s="6">
-        <f>H217*G217</f>
+        <f t="shared" si="3"/>
         <v>461440</v>
       </c>
     </row>
@@ -28590,8 +28590,8 @@
       <c r="E218" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F218" s="3" t="s">
-        <v>872</v>
+      <c r="F218" s="3">
+        <v>1</v>
       </c>
       <c r="G218" s="6">
         <v>68</v>
@@ -28600,7 +28600,7 @@
         <v>5327</v>
       </c>
       <c r="I218" s="6">
-        <f>H218*G218</f>
+        <f t="shared" si="3"/>
         <v>362236</v>
       </c>
     </row>
@@ -28620,8 +28620,8 @@
       <c r="E219" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F219" s="3" t="s">
-        <v>872</v>
+      <c r="F219" s="3">
+        <v>1</v>
       </c>
       <c r="G219" s="6">
         <v>98</v>
@@ -28630,7 +28630,7 @@
         <v>1549</v>
       </c>
       <c r="I219" s="6">
-        <f>H219*G219</f>
+        <f t="shared" si="3"/>
         <v>151802</v>
       </c>
     </row>
@@ -28650,8 +28650,8 @@
       <c r="E220" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F220" s="3" t="s">
-        <v>872</v>
+      <c r="F220" s="3">
+        <v>1</v>
       </c>
       <c r="G220" s="6">
         <v>66</v>
@@ -28660,7 +28660,7 @@
         <v>295</v>
       </c>
       <c r="I220" s="6">
-        <f>H220*G220</f>
+        <f t="shared" si="3"/>
         <v>19470</v>
       </c>
     </row>
@@ -28680,8 +28680,8 @@
       <c r="E221" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="F221" s="3" t="s">
-        <v>872</v>
+      <c r="F221" s="3">
+        <v>1</v>
       </c>
       <c r="G221" s="6">
         <v>69</v>
@@ -28690,7 +28690,7 @@
         <v>327</v>
       </c>
       <c r="I221" s="6">
-        <f>H221*G221</f>
+        <f t="shared" si="3"/>
         <v>22563</v>
       </c>
     </row>
@@ -28710,8 +28710,8 @@
       <c r="E222" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F222" s="3" t="s">
-        <v>872</v>
+      <c r="F222" s="3">
+        <v>1</v>
       </c>
       <c r="G222" s="6">
         <v>88</v>
@@ -28720,7 +28720,7 @@
         <v>311</v>
       </c>
       <c r="I222" s="6">
-        <f>H222*G222</f>
+        <f t="shared" si="3"/>
         <v>27368</v>
       </c>
     </row>
@@ -28740,8 +28740,8 @@
       <c r="E223" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F223" s="3" t="s">
-        <v>872</v>
+      <c r="F223" s="3">
+        <v>1</v>
       </c>
       <c r="G223" s="6">
         <v>72</v>
@@ -28750,7 +28750,7 @@
         <v>450</v>
       </c>
       <c r="I223" s="6">
-        <f>H223*G223</f>
+        <f t="shared" si="3"/>
         <v>32400</v>
       </c>
     </row>
@@ -28770,8 +28770,8 @@
       <c r="E224" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F224" s="3" t="s">
-        <v>872</v>
+      <c r="F224" s="3">
+        <v>1</v>
       </c>
       <c r="G224" s="6">
         <v>84</v>
@@ -28780,7 +28780,7 @@
         <v>524</v>
       </c>
       <c r="I224" s="6">
-        <f>H224*G224</f>
+        <f t="shared" si="3"/>
         <v>44016</v>
       </c>
     </row>
@@ -28800,8 +28800,8 @@
       <c r="E225" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="F225" s="3" t="s">
-        <v>872</v>
+      <c r="F225" s="3">
+        <v>1</v>
       </c>
       <c r="G225" s="6">
         <v>69</v>
@@ -28810,7 +28810,7 @@
         <v>311</v>
       </c>
       <c r="I225" s="6">
-        <f>H225*G225</f>
+        <f t="shared" si="3"/>
         <v>21459</v>
       </c>
     </row>
@@ -28830,8 +28830,8 @@
       <c r="E226" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F226" s="3" t="s">
-        <v>872</v>
+      <c r="F226" s="3">
+        <v>1</v>
       </c>
       <c r="G226" s="6">
         <v>86</v>
@@ -28840,7 +28840,7 @@
         <v>1721</v>
       </c>
       <c r="I226" s="6">
-        <f>H226*G226</f>
+        <f t="shared" si="3"/>
         <v>148006</v>
       </c>
     </row>
@@ -28860,8 +28860,8 @@
       <c r="E227" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F227" s="3" t="s">
-        <v>872</v>
+      <c r="F227" s="3">
+        <v>1</v>
       </c>
       <c r="G227" s="6">
         <v>65</v>
@@ -28870,7 +28870,7 @@
         <v>1434</v>
       </c>
       <c r="I227" s="6">
-        <f>H227*G227</f>
+        <f t="shared" si="3"/>
         <v>93210</v>
       </c>
     </row>
@@ -28890,8 +28890,8 @@
       <c r="E228" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F228" s="3" t="s">
-        <v>872</v>
+      <c r="F228" s="3">
+        <v>1</v>
       </c>
       <c r="G228" s="6">
         <v>81</v>
@@ -28900,7 +28900,7 @@
         <v>1885</v>
       </c>
       <c r="I228" s="6">
-        <f>H228*G228</f>
+        <f t="shared" si="3"/>
         <v>152685</v>
       </c>
     </row>
@@ -28920,8 +28920,8 @@
       <c r="E229" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F229" s="3" t="s">
-        <v>872</v>
+      <c r="F229" s="3">
+        <v>1</v>
       </c>
       <c r="G229" s="6">
         <v>87</v>
@@ -28930,7 +28930,7 @@
         <v>515</v>
       </c>
       <c r="I229" s="6">
-        <f>H229*G229</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
     </row>
@@ -28950,8 +28950,8 @@
       <c r="E230" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="F230" s="3" t="s">
-        <v>872</v>
+      <c r="F230" s="3">
+        <v>1</v>
       </c>
       <c r="G230" s="6">
         <v>93</v>
@@ -28960,7 +28960,7 @@
         <v>591</v>
       </c>
       <c r="I230" s="6">
-        <f>H230*G230</f>
+        <f t="shared" si="3"/>
         <v>54963</v>
       </c>
     </row>
@@ -28980,8 +28980,8 @@
       <c r="E231" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F231" s="3" t="s">
-        <v>872</v>
+      <c r="F231" s="3">
+        <v>1</v>
       </c>
       <c r="G231" s="6">
         <v>61</v>
@@ -28990,7 +28990,7 @@
         <v>9016</v>
       </c>
       <c r="I231" s="6">
-        <f>H231*G231</f>
+        <f t="shared" si="3"/>
         <v>549976</v>
       </c>
     </row>
@@ -29010,8 +29010,8 @@
       <c r="E232" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="F232" s="3" t="s">
-        <v>872</v>
+      <c r="F232" s="3">
+        <v>1</v>
       </c>
       <c r="G232" s="6">
         <v>96</v>
@@ -29020,7 +29020,7 @@
         <v>491</v>
       </c>
       <c r="I232" s="6">
-        <f>H232*G232</f>
+        <f t="shared" si="3"/>
         <v>47136</v>
       </c>
     </row>
@@ -29040,8 +29040,8 @@
       <c r="E233" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F233" s="3" t="s">
-        <v>872</v>
+      <c r="F233" s="3">
+        <v>1</v>
       </c>
       <c r="G233" s="6">
         <v>69</v>
@@ -29050,7 +29050,7 @@
         <v>1639</v>
       </c>
       <c r="I233" s="6">
-        <f>H233*G233</f>
+        <f t="shared" si="3"/>
         <v>113091</v>
       </c>
     </row>
@@ -29069,7 +29069,7 @@
   <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29129,8 +29129,8 @@
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>871</v>
+      <c r="F2" s="3">
+        <v>2</v>
       </c>
       <c r="G2" s="6">
         <v>51</v>
@@ -29139,7 +29139,7 @@
         <v>500</v>
       </c>
       <c r="I2" s="7">
-        <f>H2*G2</f>
+        <f t="shared" ref="I2:I65" si="0">H2*G2</f>
         <v>25500</v>
       </c>
     </row>
@@ -29159,8 +29159,8 @@
       <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>871</v>
+      <c r="F3" s="3">
+        <v>2</v>
       </c>
       <c r="G3" s="6">
         <v>91</v>
@@ -29169,7 +29169,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="7">
-        <f>H3*G3</f>
+        <f t="shared" si="0"/>
         <v>91000</v>
       </c>
     </row>
@@ -29189,8 +29189,8 @@
       <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>871</v>
+      <c r="F4" s="3">
+        <v>2</v>
       </c>
       <c r="G4" s="6">
         <v>86</v>
@@ -29199,7 +29199,7 @@
         <v>1500</v>
       </c>
       <c r="I4" s="7">
-        <f>H4*G4</f>
+        <f t="shared" si="0"/>
         <v>129000</v>
       </c>
     </row>
@@ -29219,8 +29219,8 @@
       <c r="E5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>871</v>
+      <c r="F5" s="3">
+        <v>2</v>
       </c>
       <c r="G5" s="6">
         <v>87</v>
@@ -29229,7 +29229,7 @@
         <v>1500</v>
       </c>
       <c r="I5" s="7">
-        <f>H5*G5</f>
+        <f t="shared" si="0"/>
         <v>130500</v>
       </c>
     </row>
@@ -29249,8 +29249,8 @@
       <c r="E6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>871</v>
+      <c r="F6" s="3">
+        <v>2</v>
       </c>
       <c r="G6" s="6">
         <v>74</v>
@@ -29259,7 +29259,7 @@
         <v>2000</v>
       </c>
       <c r="I6" s="7">
-        <f>H6*G6</f>
+        <f t="shared" si="0"/>
         <v>148000</v>
       </c>
     </row>
@@ -29279,8 +29279,8 @@
       <c r="E7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>871</v>
+      <c r="F7" s="3">
+        <v>2</v>
       </c>
       <c r="G7" s="6">
         <v>58</v>
@@ -29289,7 +29289,7 @@
         <v>1500</v>
       </c>
       <c r="I7" s="7">
-        <f>H7*G7</f>
+        <f t="shared" si="0"/>
         <v>87000</v>
       </c>
     </row>
@@ -29309,8 +29309,8 @@
       <c r="E8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>871</v>
+      <c r="F8" s="3">
+        <v>2</v>
       </c>
       <c r="G8" s="6">
         <v>81</v>
@@ -29319,7 +29319,7 @@
         <v>700</v>
       </c>
       <c r="I8" s="7">
-        <f>H8*G8</f>
+        <f t="shared" si="0"/>
         <v>56700</v>
       </c>
     </row>
@@ -29339,8 +29339,8 @@
       <c r="E9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>871</v>
+      <c r="F9" s="3">
+        <v>2</v>
       </c>
       <c r="G9" s="6">
         <v>97</v>
@@ -29349,7 +29349,7 @@
         <v>700</v>
       </c>
       <c r="I9" s="7">
-        <f>H9*G9</f>
+        <f t="shared" si="0"/>
         <v>67900</v>
       </c>
     </row>
@@ -29369,8 +29369,8 @@
       <c r="E10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>871</v>
+      <c r="F10" s="3">
+        <v>2</v>
       </c>
       <c r="G10" s="6">
         <v>60</v>
@@ -29379,7 +29379,7 @@
         <v>2500</v>
       </c>
       <c r="I10" s="7">
-        <f>H10*G10</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
     </row>
@@ -29399,8 +29399,8 @@
       <c r="E11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>871</v>
+      <c r="F11" s="3">
+        <v>2</v>
       </c>
       <c r="G11" s="6">
         <v>95</v>
@@ -29409,7 +29409,7 @@
         <v>700</v>
       </c>
       <c r="I11" s="7">
-        <f>H11*G11</f>
+        <f t="shared" si="0"/>
         <v>66500</v>
       </c>
     </row>
@@ -29429,8 +29429,8 @@
       <c r="E12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>871</v>
+      <c r="F12" s="3">
+        <v>2</v>
       </c>
       <c r="G12" s="6">
         <v>66</v>
@@ -29439,7 +29439,7 @@
         <v>1500</v>
       </c>
       <c r="I12" s="7">
-        <f>H12*G12</f>
+        <f t="shared" si="0"/>
         <v>99000</v>
       </c>
     </row>
@@ -29459,8 +29459,8 @@
       <c r="E13" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>871</v>
+      <c r="F13" s="3">
+        <v>2</v>
       </c>
       <c r="G13" s="6">
         <v>68</v>
@@ -29469,7 +29469,7 @@
         <v>2500</v>
       </c>
       <c r="I13" s="7">
-        <f>H13*G13</f>
+        <f t="shared" si="0"/>
         <v>170000</v>
       </c>
     </row>
@@ -29489,8 +29489,8 @@
       <c r="E14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>871</v>
+      <c r="F14" s="3">
+        <v>2</v>
       </c>
       <c r="G14" s="6">
         <v>98</v>
@@ -29499,7 +29499,7 @@
         <v>500</v>
       </c>
       <c r="I14" s="7">
-        <f>H14*G14</f>
+        <f t="shared" si="0"/>
         <v>49000</v>
       </c>
     </row>
@@ -29519,8 +29519,8 @@
       <c r="E15" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>871</v>
+      <c r="F15" s="3">
+        <v>2</v>
       </c>
       <c r="G15" s="6">
         <v>51</v>
@@ -29529,7 +29529,7 @@
         <v>1500</v>
       </c>
       <c r="I15" s="7">
-        <f>H15*G15</f>
+        <f t="shared" si="0"/>
         <v>76500</v>
       </c>
     </row>
@@ -29549,8 +29549,8 @@
       <c r="E16" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>871</v>
+      <c r="F16" s="3">
+        <v>2</v>
       </c>
       <c r="G16" s="6">
         <v>75</v>
@@ -29559,7 +29559,7 @@
         <v>12000</v>
       </c>
       <c r="I16" s="7">
-        <f>H16*G16</f>
+        <f t="shared" si="0"/>
         <v>900000</v>
       </c>
     </row>
@@ -29579,8 +29579,8 @@
       <c r="E17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>871</v>
+      <c r="F17" s="3">
+        <v>2</v>
       </c>
       <c r="G17" s="6">
         <v>58</v>
@@ -29589,7 +29589,7 @@
         <v>12000</v>
       </c>
       <c r="I17" s="7">
-        <f>H17*G17</f>
+        <f t="shared" si="0"/>
         <v>696000</v>
       </c>
     </row>
@@ -29609,8 +29609,8 @@
       <c r="E18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>871</v>
+      <c r="F18" s="3">
+        <v>2</v>
       </c>
       <c r="G18" s="6">
         <v>55</v>
@@ -29619,7 +29619,7 @@
         <v>800</v>
       </c>
       <c r="I18" s="7">
-        <f>H18*G18</f>
+        <f t="shared" si="0"/>
         <v>44000</v>
       </c>
     </row>
@@ -29639,8 +29639,8 @@
       <c r="E19" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>871</v>
+      <c r="F19" s="3">
+        <v>2</v>
       </c>
       <c r="G19" s="6">
         <v>50</v>
@@ -29649,7 +29649,7 @@
         <v>1000</v>
       </c>
       <c r="I19" s="7">
-        <f>H19*G19</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
@@ -29669,8 +29669,8 @@
       <c r="E20" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>871</v>
+      <c r="F20" s="3">
+        <v>2</v>
       </c>
       <c r="G20" s="6">
         <v>92</v>
@@ -29679,7 +29679,7 @@
         <v>2500</v>
       </c>
       <c r="I20" s="7">
-        <f>H20*G20</f>
+        <f t="shared" si="0"/>
         <v>230000</v>
       </c>
     </row>
@@ -29699,8 +29699,8 @@
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>871</v>
+      <c r="F21" s="3">
+        <v>2</v>
       </c>
       <c r="G21" s="6">
         <v>84</v>
@@ -29709,7 +29709,7 @@
         <v>1000</v>
       </c>
       <c r="I21" s="7">
-        <f>H21*G21</f>
+        <f t="shared" si="0"/>
         <v>84000</v>
       </c>
     </row>
@@ -29729,8 +29729,8 @@
       <c r="E22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>871</v>
+      <c r="F22" s="3">
+        <v>2</v>
       </c>
       <c r="G22" s="6">
         <v>71</v>
@@ -29739,7 +29739,7 @@
         <v>1200</v>
       </c>
       <c r="I22" s="7">
-        <f>H22*G22</f>
+        <f t="shared" si="0"/>
         <v>85200</v>
       </c>
     </row>
@@ -29759,8 +29759,8 @@
       <c r="E23" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>871</v>
+      <c r="F23" s="3">
+        <v>2</v>
       </c>
       <c r="G23" s="6">
         <v>95</v>
@@ -29769,7 +29769,7 @@
         <v>1800</v>
       </c>
       <c r="I23" s="7">
-        <f>H23*G23</f>
+        <f t="shared" si="0"/>
         <v>171000</v>
       </c>
     </row>
@@ -29789,8 +29789,8 @@
       <c r="E24" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>871</v>
+      <c r="F24" s="3">
+        <v>2</v>
       </c>
       <c r="G24" s="6">
         <v>97</v>
@@ -29799,7 +29799,7 @@
         <v>1500</v>
       </c>
       <c r="I24" s="7">
-        <f>H24*G24</f>
+        <f t="shared" si="0"/>
         <v>145500</v>
       </c>
     </row>
@@ -29819,8 +29819,8 @@
       <c r="E25" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>871</v>
+      <c r="F25" s="3">
+        <v>2</v>
       </c>
       <c r="G25" s="6">
         <v>63</v>
@@ -29829,7 +29829,7 @@
         <v>700</v>
       </c>
       <c r="I25" s="7">
-        <f>H25*G25</f>
+        <f t="shared" si="0"/>
         <v>44100</v>
       </c>
     </row>
@@ -29849,8 +29849,8 @@
       <c r="E26" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>871</v>
+      <c r="F26" s="3">
+        <v>2</v>
       </c>
       <c r="G26" s="6">
         <v>52</v>
@@ -29859,7 +29859,7 @@
         <v>1500</v>
       </c>
       <c r="I26" s="7">
-        <f>H26*G26</f>
+        <f t="shared" si="0"/>
         <v>78000</v>
       </c>
     </row>
@@ -29879,8 +29879,8 @@
       <c r="E27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>871</v>
+      <c r="F27" s="3">
+        <v>2</v>
       </c>
       <c r="G27" s="6">
         <v>59</v>
@@ -29889,7 +29889,7 @@
         <v>1500</v>
       </c>
       <c r="I27" s="7">
-        <f>H27*G27</f>
+        <f t="shared" si="0"/>
         <v>88500</v>
       </c>
     </row>
@@ -29909,8 +29909,8 @@
       <c r="E28" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>871</v>
+      <c r="F28" s="3">
+        <v>2</v>
       </c>
       <c r="G28" s="6">
         <v>50</v>
@@ -29919,7 +29919,7 @@
         <v>500</v>
       </c>
       <c r="I28" s="7">
-        <f>H28*G28</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
@@ -29939,8 +29939,8 @@
       <c r="E29" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>871</v>
+      <c r="F29" s="3">
+        <v>2</v>
       </c>
       <c r="G29" s="6">
         <v>67</v>
@@ -29949,7 +29949,7 @@
         <v>700</v>
       </c>
       <c r="I29" s="7">
-        <f>H29*G29</f>
+        <f t="shared" si="0"/>
         <v>46900</v>
       </c>
     </row>
@@ -29969,8 +29969,8 @@
       <c r="E30" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>871</v>
+      <c r="F30" s="3">
+        <v>2</v>
       </c>
       <c r="G30" s="6">
         <v>81</v>
@@ -29979,7 +29979,7 @@
         <v>2500</v>
       </c>
       <c r="I30" s="7">
-        <f>H30*G30</f>
+        <f t="shared" si="0"/>
         <v>202500</v>
       </c>
     </row>
@@ -29999,8 +29999,8 @@
       <c r="E31" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>871</v>
+      <c r="F31" s="3">
+        <v>2</v>
       </c>
       <c r="G31" s="6">
         <v>62</v>
@@ -30009,7 +30009,7 @@
         <v>2000</v>
       </c>
       <c r="I31" s="7">
-        <f>H31*G31</f>
+        <f t="shared" si="0"/>
         <v>124000</v>
       </c>
     </row>
@@ -30029,8 +30029,8 @@
       <c r="E32" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>871</v>
+      <c r="F32" s="3">
+        <v>2</v>
       </c>
       <c r="G32" s="6">
         <v>84</v>
@@ -30039,7 +30039,7 @@
         <v>1500</v>
       </c>
       <c r="I32" s="7">
-        <f>H32*G32</f>
+        <f t="shared" si="0"/>
         <v>126000</v>
       </c>
     </row>
@@ -30059,8 +30059,8 @@
       <c r="E33" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>871</v>
+      <c r="F33" s="3">
+        <v>2</v>
       </c>
       <c r="G33" s="6">
         <v>90</v>
@@ -30069,7 +30069,7 @@
         <v>1500</v>
       </c>
       <c r="I33" s="7">
-        <f>H33*G33</f>
+        <f t="shared" si="0"/>
         <v>135000</v>
       </c>
     </row>
@@ -30089,8 +30089,8 @@
       <c r="E34" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>871</v>
+      <c r="F34" s="3">
+        <v>2</v>
       </c>
       <c r="G34" s="6">
         <v>57</v>
@@ -30099,7 +30099,7 @@
         <v>1000</v>
       </c>
       <c r="I34" s="7">
-        <f>H34*G34</f>
+        <f t="shared" si="0"/>
         <v>57000</v>
       </c>
     </row>
@@ -30119,8 +30119,8 @@
       <c r="E35" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>871</v>
+      <c r="F35" s="3">
+        <v>2</v>
       </c>
       <c r="G35" s="6">
         <v>61</v>
@@ -30129,7 +30129,7 @@
         <v>1500</v>
       </c>
       <c r="I35" s="7">
-        <f>H35*G35</f>
+        <f t="shared" si="0"/>
         <v>91500</v>
       </c>
     </row>
@@ -30149,8 +30149,8 @@
       <c r="E36" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>871</v>
+      <c r="F36" s="3">
+        <v>2</v>
       </c>
       <c r="G36" s="6">
         <v>68</v>
@@ -30159,7 +30159,7 @@
         <v>10000</v>
       </c>
       <c r="I36" s="7">
-        <f>H36*G36</f>
+        <f t="shared" si="0"/>
         <v>680000</v>
       </c>
     </row>
@@ -30179,8 +30179,8 @@
       <c r="E37" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>871</v>
+      <c r="F37" s="3">
+        <v>2</v>
       </c>
       <c r="G37" s="6">
         <v>76</v>
@@ -30189,7 +30189,7 @@
         <v>900</v>
       </c>
       <c r="I37" s="7">
-        <f>H37*G37</f>
+        <f t="shared" si="0"/>
         <v>68400</v>
       </c>
     </row>
@@ -30209,8 +30209,8 @@
       <c r="E38" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>871</v>
+      <c r="F38" s="3">
+        <v>2</v>
       </c>
       <c r="G38" s="6">
         <v>63</v>
@@ -30219,7 +30219,7 @@
         <v>1500</v>
       </c>
       <c r="I38" s="7">
-        <f>H38*G38</f>
+        <f t="shared" si="0"/>
         <v>94500</v>
       </c>
     </row>
@@ -30239,8 +30239,8 @@
       <c r="E39" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>871</v>
+      <c r="F39" s="3">
+        <v>2</v>
       </c>
       <c r="G39" s="6">
         <v>70</v>
@@ -30249,7 +30249,7 @@
         <v>3000</v>
       </c>
       <c r="I39" s="7">
-        <f>H39*G39</f>
+        <f t="shared" si="0"/>
         <v>210000</v>
       </c>
     </row>
@@ -30269,8 +30269,8 @@
       <c r="E40" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>871</v>
+      <c r="F40" s="3">
+        <v>2</v>
       </c>
       <c r="G40" s="6">
         <v>68</v>
@@ -30279,7 +30279,7 @@
         <v>3000</v>
       </c>
       <c r="I40" s="7">
-        <f>H40*G40</f>
+        <f t="shared" si="0"/>
         <v>204000</v>
       </c>
     </row>
@@ -30299,8 +30299,8 @@
       <c r="E41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>871</v>
+      <c r="F41" s="3">
+        <v>2</v>
       </c>
       <c r="G41" s="6">
         <v>50</v>
@@ -30309,7 +30309,7 @@
         <v>2000</v>
       </c>
       <c r="I41" s="7">
-        <f>H41*G41</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
@@ -30329,8 +30329,8 @@
       <c r="E42" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>871</v>
+      <c r="F42" s="3">
+        <v>2</v>
       </c>
       <c r="G42" s="6">
         <v>85</v>
@@ -30339,7 +30339,7 @@
         <v>700</v>
       </c>
       <c r="I42" s="7">
-        <f>H42*G42</f>
+        <f t="shared" si="0"/>
         <v>59500</v>
       </c>
     </row>
@@ -30359,8 +30359,8 @@
       <c r="E43" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>871</v>
+      <c r="F43" s="3">
+        <v>2</v>
       </c>
       <c r="G43" s="6">
         <v>53</v>
@@ -30369,7 +30369,7 @@
         <v>2000</v>
       </c>
       <c r="I43" s="7">
-        <f>H43*G43</f>
+        <f t="shared" si="0"/>
         <v>106000</v>
       </c>
     </row>
@@ -30389,8 +30389,8 @@
       <c r="E44" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>871</v>
+      <c r="F44" s="3">
+        <v>2</v>
       </c>
       <c r="G44" s="6">
         <v>72</v>
@@ -30399,7 +30399,7 @@
         <v>1500</v>
       </c>
       <c r="I44" s="7">
-        <f>H44*G44</f>
+        <f t="shared" si="0"/>
         <v>108000</v>
       </c>
     </row>
@@ -30419,8 +30419,8 @@
       <c r="E45" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>871</v>
+      <c r="F45" s="3">
+        <v>2</v>
       </c>
       <c r="G45" s="6">
         <v>69</v>
@@ -30429,7 +30429,7 @@
         <v>1500</v>
       </c>
       <c r="I45" s="7">
-        <f>H45*G45</f>
+        <f t="shared" si="0"/>
         <v>103500</v>
       </c>
     </row>
@@ -30449,8 +30449,8 @@
       <c r="E46" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>871</v>
+      <c r="F46" s="3">
+        <v>2</v>
       </c>
       <c r="G46" s="6">
         <v>99</v>
@@ -30459,7 +30459,7 @@
         <v>500</v>
       </c>
       <c r="I46" s="7">
-        <f>H46*G46</f>
+        <f t="shared" si="0"/>
         <v>49500</v>
       </c>
     </row>
@@ -30479,8 +30479,8 @@
       <c r="E47" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>871</v>
+      <c r="F47" s="3">
+        <v>2</v>
       </c>
       <c r="G47" s="6">
         <v>73</v>
@@ -30489,7 +30489,7 @@
         <v>1000</v>
       </c>
       <c r="I47" s="7">
-        <f>H47*G47</f>
+        <f t="shared" si="0"/>
         <v>73000</v>
       </c>
     </row>
@@ -30509,8 +30509,8 @@
       <c r="E48" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>871</v>
+      <c r="F48" s="3">
+        <v>2</v>
       </c>
       <c r="G48" s="6">
         <v>60</v>
@@ -30519,7 +30519,7 @@
         <v>1500</v>
       </c>
       <c r="I48" s="7">
-        <f>H48*G48</f>
+        <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
@@ -30539,8 +30539,8 @@
       <c r="E49" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>871</v>
+      <c r="F49" s="3">
+        <v>2</v>
       </c>
       <c r="G49" s="6">
         <v>87</v>
@@ -30549,7 +30549,7 @@
         <v>1500</v>
       </c>
       <c r="I49" s="7">
-        <f>H49*G49</f>
+        <f t="shared" si="0"/>
         <v>130500</v>
       </c>
     </row>
@@ -30569,8 +30569,8 @@
       <c r="E50" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>871</v>
+      <c r="F50" s="3">
+        <v>2</v>
       </c>
       <c r="G50" s="6">
         <v>90</v>
@@ -30579,7 +30579,7 @@
         <v>2000</v>
       </c>
       <c r="I50" s="7">
-        <f>H50*G50</f>
+        <f t="shared" si="0"/>
         <v>180000</v>
       </c>
     </row>
@@ -30599,8 +30599,8 @@
       <c r="E51" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>871</v>
+      <c r="F51" s="3">
+        <v>2</v>
       </c>
       <c r="G51" s="6">
         <v>76</v>
@@ -30609,7 +30609,7 @@
         <v>2500</v>
       </c>
       <c r="I51" s="7">
-        <f>H51*G51</f>
+        <f t="shared" si="0"/>
         <v>190000</v>
       </c>
     </row>
@@ -30629,8 +30629,8 @@
       <c r="E52" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>871</v>
+      <c r="F52" s="3">
+        <v>2</v>
       </c>
       <c r="G52" s="6">
         <v>69</v>
@@ -30639,7 +30639,7 @@
         <v>1200</v>
       </c>
       <c r="I52" s="7">
-        <f>H52*G52</f>
+        <f t="shared" si="0"/>
         <v>82800</v>
       </c>
     </row>
@@ -30659,8 +30659,8 @@
       <c r="E53" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>871</v>
+      <c r="F53" s="3">
+        <v>2</v>
       </c>
       <c r="G53" s="6">
         <v>97</v>
@@ -30669,7 +30669,7 @@
         <v>3000</v>
       </c>
       <c r="I53" s="7">
-        <f>H53*G53</f>
+        <f t="shared" si="0"/>
         <v>291000</v>
       </c>
     </row>
@@ -30689,8 +30689,8 @@
       <c r="E54" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>871</v>
+      <c r="F54" s="3">
+        <v>2</v>
       </c>
       <c r="G54" s="6">
         <v>57</v>
@@ -30699,7 +30699,7 @@
         <v>5000</v>
       </c>
       <c r="I54" s="7">
-        <f>H54*G54</f>
+        <f t="shared" si="0"/>
         <v>285000</v>
       </c>
     </row>
@@ -30719,8 +30719,8 @@
       <c r="E55" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>871</v>
+      <c r="F55" s="3">
+        <v>2</v>
       </c>
       <c r="G55" s="6">
         <v>79</v>
@@ -30729,7 +30729,7 @@
         <v>700</v>
       </c>
       <c r="I55" s="7">
-        <f>H55*G55</f>
+        <f t="shared" si="0"/>
         <v>55300</v>
       </c>
     </row>
@@ -30749,8 +30749,8 @@
       <c r="E56" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>871</v>
+      <c r="F56" s="3">
+        <v>2</v>
       </c>
       <c r="G56" s="6">
         <v>62</v>
@@ -30759,7 +30759,7 @@
         <v>1500</v>
       </c>
       <c r="I56" s="7">
-        <f>H56*G56</f>
+        <f t="shared" si="0"/>
         <v>93000</v>
       </c>
     </row>
@@ -30779,8 +30779,8 @@
       <c r="E57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>871</v>
+      <c r="F57" s="3">
+        <v>2</v>
       </c>
       <c r="G57" s="6">
         <v>87</v>
@@ -30789,7 +30789,7 @@
         <v>2000</v>
       </c>
       <c r="I57" s="7">
-        <f>H57*G57</f>
+        <f t="shared" si="0"/>
         <v>174000</v>
       </c>
     </row>
@@ -30809,8 +30809,8 @@
       <c r="E58" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>871</v>
+      <c r="F58" s="3">
+        <v>2</v>
       </c>
       <c r="G58" s="6">
         <v>60</v>
@@ -30819,7 +30819,7 @@
         <v>4500</v>
       </c>
       <c r="I58" s="7">
-        <f>H58*G58</f>
+        <f t="shared" si="0"/>
         <v>270000</v>
       </c>
     </row>
@@ -30839,8 +30839,8 @@
       <c r="E59" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>871</v>
+      <c r="F59" s="3">
+        <v>2</v>
       </c>
       <c r="G59" s="6">
         <v>95</v>
@@ -30849,7 +30849,7 @@
         <v>2300</v>
       </c>
       <c r="I59" s="7">
-        <f>H59*G59</f>
+        <f t="shared" si="0"/>
         <v>218500</v>
       </c>
     </row>
@@ -30869,8 +30869,8 @@
       <c r="E60" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>871</v>
+      <c r="F60" s="3">
+        <v>2</v>
       </c>
       <c r="G60" s="6">
         <v>78</v>
@@ -30879,7 +30879,7 @@
         <v>4000</v>
       </c>
       <c r="I60" s="7">
-        <f>H60*G60</f>
+        <f t="shared" si="0"/>
         <v>312000</v>
       </c>
     </row>
@@ -30899,8 +30899,8 @@
       <c r="E61" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>871</v>
+      <c r="F61" s="3">
+        <v>2</v>
       </c>
       <c r="G61" s="6">
         <v>63</v>
@@ -30909,7 +30909,7 @@
         <v>3000</v>
       </c>
       <c r="I61" s="7">
-        <f>H61*G61</f>
+        <f t="shared" si="0"/>
         <v>189000</v>
       </c>
     </row>
@@ -30929,8 +30929,8 @@
       <c r="E62" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>871</v>
+      <c r="F62" s="3">
+        <v>2</v>
       </c>
       <c r="G62" s="6">
         <v>50</v>
@@ -30939,7 +30939,7 @@
         <v>500</v>
       </c>
       <c r="I62" s="7">
-        <f>H62*G62</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
@@ -30959,8 +30959,8 @@
       <c r="E63" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>871</v>
+      <c r="F63" s="3">
+        <v>2</v>
       </c>
       <c r="G63" s="6">
         <v>95</v>
@@ -30969,7 +30969,7 @@
         <v>500</v>
       </c>
       <c r="I63" s="7">
-        <f>H63*G63</f>
+        <f t="shared" si="0"/>
         <v>47500</v>
       </c>
     </row>
@@ -30989,8 +30989,8 @@
       <c r="E64" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>871</v>
+      <c r="F64" s="3">
+        <v>2</v>
       </c>
       <c r="G64" s="6">
         <v>68</v>
@@ -30999,7 +30999,7 @@
         <v>1500</v>
       </c>
       <c r="I64" s="7">
-        <f>H64*G64</f>
+        <f t="shared" si="0"/>
         <v>102000</v>
       </c>
     </row>
@@ -31019,8 +31019,8 @@
       <c r="E65" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>871</v>
+      <c r="F65" s="3">
+        <v>2</v>
       </c>
       <c r="G65" s="6">
         <v>90</v>
@@ -31029,7 +31029,7 @@
         <v>1100</v>
       </c>
       <c r="I65" s="7">
-        <f>H65*G65</f>
+        <f t="shared" si="0"/>
         <v>99000</v>
       </c>
     </row>
@@ -31049,8 +31049,8 @@
       <c r="E66" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>871</v>
+      <c r="F66" s="3">
+        <v>2</v>
       </c>
       <c r="G66" s="6">
         <v>70</v>
@@ -31059,7 +31059,7 @@
         <v>1000</v>
       </c>
       <c r="I66" s="7">
-        <f>H66*G66</f>
+        <f t="shared" ref="I66:I129" si="1">H66*G66</f>
         <v>70000</v>
       </c>
     </row>
@@ -31079,8 +31079,8 @@
       <c r="E67" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>871</v>
+      <c r="F67" s="3">
+        <v>2</v>
       </c>
       <c r="G67" s="6">
         <v>95</v>
@@ -31089,7 +31089,7 @@
         <v>1500</v>
       </c>
       <c r="I67" s="7">
-        <f>H67*G67</f>
+        <f t="shared" si="1"/>
         <v>142500</v>
       </c>
     </row>
@@ -31109,8 +31109,8 @@
       <c r="E68" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>871</v>
+      <c r="F68" s="3">
+        <v>2</v>
       </c>
       <c r="G68" s="6">
         <v>69</v>
@@ -31119,7 +31119,7 @@
         <v>500</v>
       </c>
       <c r="I68" s="7">
-        <f>H68*G68</f>
+        <f t="shared" si="1"/>
         <v>34500</v>
       </c>
     </row>
@@ -31139,8 +31139,8 @@
       <c r="E69" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>871</v>
+      <c r="F69" s="3">
+        <v>2</v>
       </c>
       <c r="G69" s="6">
         <v>69</v>
@@ -31149,7 +31149,7 @@
         <v>2300</v>
       </c>
       <c r="I69" s="7">
-        <f>H69*G69</f>
+        <f t="shared" si="1"/>
         <v>158700</v>
       </c>
     </row>
@@ -31169,8 +31169,8 @@
       <c r="E70" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>871</v>
+      <c r="F70" s="3">
+        <v>2</v>
       </c>
       <c r="G70" s="6">
         <v>56</v>
@@ -31179,7 +31179,7 @@
         <v>1500</v>
       </c>
       <c r="I70" s="7">
-        <f>H70*G70</f>
+        <f t="shared" si="1"/>
         <v>84000</v>
       </c>
     </row>
@@ -31199,8 +31199,8 @@
       <c r="E71" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>871</v>
+      <c r="F71" s="3">
+        <v>2</v>
       </c>
       <c r="G71" s="6">
         <v>95</v>
@@ -31209,7 +31209,7 @@
         <v>10000</v>
       </c>
       <c r="I71" s="7">
-        <f>H71*G71</f>
+        <f t="shared" si="1"/>
         <v>950000</v>
       </c>
     </row>
@@ -31229,8 +31229,8 @@
       <c r="E72" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>871</v>
+      <c r="F72" s="3">
+        <v>2</v>
       </c>
       <c r="G72" s="6">
         <v>59</v>
@@ -31239,7 +31239,7 @@
         <v>1300</v>
       </c>
       <c r="I72" s="7">
-        <f>H72*G72</f>
+        <f t="shared" si="1"/>
         <v>76700</v>
       </c>
     </row>
@@ -31259,8 +31259,8 @@
       <c r="E73" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>871</v>
+      <c r="F73" s="3">
+        <v>2</v>
       </c>
       <c r="G73" s="6">
         <v>54</v>
@@ -31269,7 +31269,7 @@
         <v>1500</v>
       </c>
       <c r="I73" s="7">
-        <f>H73*G73</f>
+        <f t="shared" si="1"/>
         <v>81000</v>
       </c>
     </row>
@@ -31289,8 +31289,8 @@
       <c r="E74" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>871</v>
+      <c r="F74" s="3">
+        <v>2</v>
       </c>
       <c r="G74" s="6">
         <v>70</v>
@@ -31299,7 +31299,7 @@
         <v>1000</v>
       </c>
       <c r="I74" s="7">
-        <f>H74*G74</f>
+        <f t="shared" si="1"/>
         <v>70000</v>
       </c>
     </row>
@@ -31319,8 +31319,8 @@
       <c r="E75" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>871</v>
+      <c r="F75" s="3">
+        <v>2</v>
       </c>
       <c r="G75" s="6">
         <v>93</v>
@@ -31329,7 +31329,7 @@
         <v>1800</v>
       </c>
       <c r="I75" s="7">
-        <f>H75*G75</f>
+        <f t="shared" si="1"/>
         <v>167400</v>
       </c>
     </row>
@@ -31349,8 +31349,8 @@
       <c r="E76" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>871</v>
+      <c r="F76" s="3">
+        <v>2</v>
       </c>
       <c r="G76" s="6">
         <v>69</v>
@@ -31359,7 +31359,7 @@
         <v>500</v>
       </c>
       <c r="I76" s="7">
-        <f>H76*G76</f>
+        <f t="shared" si="1"/>
         <v>34500</v>
       </c>
     </row>
@@ -31379,8 +31379,8 @@
       <c r="E77" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>871</v>
+      <c r="F77" s="3">
+        <v>2</v>
       </c>
       <c r="G77" s="6">
         <v>58</v>
@@ -31389,7 +31389,7 @@
         <v>6000</v>
       </c>
       <c r="I77" s="7">
-        <f>H77*G77</f>
+        <f t="shared" si="1"/>
         <v>348000</v>
       </c>
     </row>
@@ -31409,8 +31409,8 @@
       <c r="E78" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>871</v>
+      <c r="F78" s="3">
+        <v>2</v>
       </c>
       <c r="G78" s="6">
         <v>65</v>
@@ -31419,7 +31419,7 @@
         <v>500</v>
       </c>
       <c r="I78" s="7">
-        <f>H78*G78</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
     </row>
@@ -31439,8 +31439,8 @@
       <c r="E79" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>871</v>
+      <c r="F79" s="3">
+        <v>2</v>
       </c>
       <c r="G79" s="6">
         <v>78</v>
@@ -31449,7 +31449,7 @@
         <v>2500</v>
       </c>
       <c r="I79" s="7">
-        <f>H79*G79</f>
+        <f t="shared" si="1"/>
         <v>195000</v>
       </c>
     </row>
@@ -31469,8 +31469,8 @@
       <c r="E80" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>871</v>
+      <c r="F80" s="3">
+        <v>2</v>
       </c>
       <c r="G80" s="6">
         <v>66</v>
@@ -31479,7 +31479,7 @@
         <v>2800</v>
       </c>
       <c r="I80" s="7">
-        <f>H80*G80</f>
+        <f t="shared" si="1"/>
         <v>184800</v>
       </c>
     </row>
@@ -31499,8 +31499,8 @@
       <c r="E81" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>871</v>
+      <c r="F81" s="3">
+        <v>2</v>
       </c>
       <c r="G81" s="6">
         <v>100</v>
@@ -31509,7 +31509,7 @@
         <v>3800</v>
       </c>
       <c r="I81" s="7">
-        <f>H81*G81</f>
+        <f t="shared" si="1"/>
         <v>380000</v>
       </c>
     </row>
@@ -31529,8 +31529,8 @@
       <c r="E82" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>871</v>
+      <c r="F82" s="3">
+        <v>2</v>
       </c>
       <c r="G82" s="6">
         <v>56</v>
@@ -31539,7 +31539,7 @@
         <v>500</v>
       </c>
       <c r="I82" s="7">
-        <f>H82*G82</f>
+        <f t="shared" si="1"/>
         <v>28000</v>
       </c>
     </row>
@@ -31559,8 +31559,8 @@
       <c r="E83" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>871</v>
+      <c r="F83" s="3">
+        <v>2</v>
       </c>
       <c r="G83" s="6">
         <v>79</v>
@@ -31569,7 +31569,7 @@
         <v>2500</v>
       </c>
       <c r="I83" s="7">
-        <f>H83*G83</f>
+        <f t="shared" si="1"/>
         <v>197500</v>
       </c>
     </row>
@@ -31589,8 +31589,8 @@
       <c r="E84" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>871</v>
+      <c r="F84" s="3">
+        <v>2</v>
       </c>
       <c r="G84" s="6">
         <v>79</v>
@@ -31599,7 +31599,7 @@
         <v>4000</v>
       </c>
       <c r="I84" s="7">
-        <f>H84*G84</f>
+        <f t="shared" si="1"/>
         <v>316000</v>
       </c>
     </row>
@@ -31619,8 +31619,8 @@
       <c r="E85" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>871</v>
+      <c r="F85" s="3">
+        <v>2</v>
       </c>
       <c r="G85" s="6">
         <v>99</v>
@@ -31629,7 +31629,7 @@
         <v>800</v>
       </c>
       <c r="I85" s="7">
-        <f>H85*G85</f>
+        <f t="shared" si="1"/>
         <v>79200</v>
       </c>
     </row>
@@ -31649,8 +31649,8 @@
       <c r="E86" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>871</v>
+      <c r="F86" s="3">
+        <v>2</v>
       </c>
       <c r="G86" s="6">
         <v>81</v>
@@ -31659,7 +31659,7 @@
         <v>2500</v>
       </c>
       <c r="I86" s="7">
-        <f>H86*G86</f>
+        <f t="shared" si="1"/>
         <v>202500</v>
       </c>
     </row>
@@ -31679,8 +31679,8 @@
       <c r="E87" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>871</v>
+      <c r="F87" s="3">
+        <v>2</v>
       </c>
       <c r="G87" s="6">
         <v>77</v>
@@ -31689,7 +31689,7 @@
         <v>2500</v>
       </c>
       <c r="I87" s="7">
-        <f>H87*G87</f>
+        <f t="shared" si="1"/>
         <v>192500</v>
       </c>
     </row>
@@ -31709,8 +31709,8 @@
       <c r="E88" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>871</v>
+      <c r="F88" s="3">
+        <v>2</v>
       </c>
       <c r="G88" s="6">
         <v>60</v>
@@ -31719,7 +31719,7 @@
         <v>1500</v>
       </c>
       <c r="I88" s="7">
-        <f>H88*G88</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
@@ -31739,8 +31739,8 @@
       <c r="E89" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>871</v>
+      <c r="F89" s="3">
+        <v>2</v>
       </c>
       <c r="G89" s="6">
         <v>77</v>
@@ -31749,7 +31749,7 @@
         <v>1500</v>
       </c>
       <c r="I89" s="7">
-        <f>H89*G89</f>
+        <f t="shared" si="1"/>
         <v>115500</v>
       </c>
     </row>
@@ -31769,8 +31769,8 @@
       <c r="E90" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>871</v>
+      <c r="F90" s="3">
+        <v>2</v>
       </c>
       <c r="G90" s="6">
         <v>53</v>
@@ -31779,7 +31779,7 @@
         <v>700</v>
       </c>
       <c r="I90" s="7">
-        <f>H90*G90</f>
+        <f t="shared" si="1"/>
         <v>37100</v>
       </c>
     </row>
@@ -31799,8 +31799,8 @@
       <c r="E91" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>871</v>
+      <c r="F91" s="3">
+        <v>2</v>
       </c>
       <c r="G91" s="6">
         <v>91</v>
@@ -31809,7 +31809,7 @@
         <v>2000</v>
       </c>
       <c r="I91" s="7">
-        <f>H91*G91</f>
+        <f t="shared" si="1"/>
         <v>182000</v>
       </c>
     </row>
@@ -31829,8 +31829,8 @@
       <c r="E92" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>871</v>
+      <c r="F92" s="3">
+        <v>2</v>
       </c>
       <c r="G92" s="6">
         <v>55</v>
@@ -31839,7 +31839,7 @@
         <v>1000</v>
       </c>
       <c r="I92" s="7">
-        <f>H92*G92</f>
+        <f t="shared" si="1"/>
         <v>55000</v>
       </c>
     </row>
@@ -31859,8 +31859,8 @@
       <c r="E93" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>871</v>
+      <c r="F93" s="3">
+        <v>2</v>
       </c>
       <c r="G93" s="6">
         <v>67</v>
@@ -31869,7 +31869,7 @@
         <v>1000</v>
       </c>
       <c r="I93" s="7">
-        <f>H93*G93</f>
+        <f t="shared" si="1"/>
         <v>67000</v>
       </c>
     </row>
@@ -31889,8 +31889,8 @@
       <c r="E94" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>871</v>
+      <c r="F94" s="3">
+        <v>2</v>
       </c>
       <c r="G94" s="6">
         <v>66</v>
@@ -31899,7 +31899,7 @@
         <v>700</v>
       </c>
       <c r="I94" s="7">
-        <f>H94*G94</f>
+        <f t="shared" si="1"/>
         <v>46200</v>
       </c>
     </row>
@@ -31919,8 +31919,8 @@
       <c r="E95" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>871</v>
+      <c r="F95" s="3">
+        <v>2</v>
       </c>
       <c r="G95" s="6">
         <v>53</v>
@@ -31929,7 +31929,7 @@
         <v>1500</v>
       </c>
       <c r="I95" s="7">
-        <f>H95*G95</f>
+        <f t="shared" si="1"/>
         <v>79500</v>
       </c>
     </row>
@@ -31949,8 +31949,8 @@
       <c r="E96" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>871</v>
+      <c r="F96" s="3">
+        <v>2</v>
       </c>
       <c r="G96" s="6">
         <v>97</v>
@@ -31959,7 +31959,7 @@
         <v>1000</v>
       </c>
       <c r="I96" s="7">
-        <f>H96*G96</f>
+        <f t="shared" si="1"/>
         <v>97000</v>
       </c>
     </row>
@@ -31979,8 +31979,8 @@
       <c r="E97" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>871</v>
+      <c r="F97" s="3">
+        <v>2</v>
       </c>
       <c r="G97" s="6">
         <v>65</v>
@@ -31989,7 +31989,7 @@
         <v>12000</v>
       </c>
       <c r="I97" s="7">
-        <f>H97*G97</f>
+        <f t="shared" si="1"/>
         <v>780000</v>
       </c>
     </row>
@@ -32009,8 +32009,8 @@
       <c r="E98" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>871</v>
+      <c r="F98" s="3">
+        <v>2</v>
       </c>
       <c r="G98" s="6">
         <v>67</v>
@@ -32019,7 +32019,7 @@
         <v>1000</v>
       </c>
       <c r="I98" s="7">
-        <f>H98*G98</f>
+        <f t="shared" si="1"/>
         <v>67000</v>
       </c>
     </row>
@@ -32039,8 +32039,8 @@
       <c r="E99" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>871</v>
+      <c r="F99" s="3">
+        <v>2</v>
       </c>
       <c r="G99" s="6">
         <v>89</v>
@@ -32049,7 +32049,7 @@
         <v>500</v>
       </c>
       <c r="I99" s="7">
-        <f>H99*G99</f>
+        <f t="shared" si="1"/>
         <v>44500</v>
       </c>
     </row>
@@ -32069,8 +32069,8 @@
       <c r="E100" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>871</v>
+      <c r="F100" s="3">
+        <v>2</v>
       </c>
       <c r="G100" s="6">
         <v>80</v>
@@ -32079,7 +32079,7 @@
         <v>900</v>
       </c>
       <c r="I100" s="7">
-        <f>H100*G100</f>
+        <f t="shared" si="1"/>
         <v>72000</v>
       </c>
     </row>
@@ -32099,8 +32099,8 @@
       <c r="E101" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>871</v>
+      <c r="F101" s="3">
+        <v>2</v>
       </c>
       <c r="G101" s="6">
         <v>68</v>
@@ -32109,7 +32109,7 @@
         <v>3000</v>
       </c>
       <c r="I101" s="7">
-        <f>H101*G101</f>
+        <f t="shared" si="1"/>
         <v>204000</v>
       </c>
     </row>
@@ -32129,8 +32129,8 @@
       <c r="E102" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>871</v>
+      <c r="F102" s="3">
+        <v>2</v>
       </c>
       <c r="G102" s="6">
         <v>60</v>
@@ -32139,7 +32139,7 @@
         <v>1100</v>
       </c>
       <c r="I102" s="7">
-        <f>H102*G102</f>
+        <f t="shared" si="1"/>
         <v>66000</v>
       </c>
     </row>
@@ -32159,8 +32159,8 @@
       <c r="E103" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>871</v>
+      <c r="F103" s="3">
+        <v>2</v>
       </c>
       <c r="G103" s="6">
         <v>50</v>
@@ -32169,7 +32169,7 @@
         <v>13000</v>
       </c>
       <c r="I103" s="7">
-        <f>H103*G103</f>
+        <f t="shared" si="1"/>
         <v>650000</v>
       </c>
     </row>
@@ -32189,8 +32189,8 @@
       <c r="E104" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>871</v>
+      <c r="F104" s="3">
+        <v>2</v>
       </c>
       <c r="G104" s="6">
         <v>59</v>
@@ -32199,7 +32199,7 @@
         <v>900</v>
       </c>
       <c r="I104" s="7">
-        <f>H104*G104</f>
+        <f t="shared" si="1"/>
         <v>53100</v>
       </c>
     </row>
@@ -32219,8 +32219,8 @@
       <c r="E105" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>871</v>
+      <c r="F105" s="3">
+        <v>2</v>
       </c>
       <c r="G105" s="6">
         <v>52</v>
@@ -32229,7 +32229,7 @@
         <v>2000</v>
       </c>
       <c r="I105" s="7">
-        <f>H105*G105</f>
+        <f t="shared" si="1"/>
         <v>104000</v>
       </c>
     </row>
@@ -32249,8 +32249,8 @@
       <c r="E106" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>871</v>
+      <c r="F106" s="3">
+        <v>2</v>
       </c>
       <c r="G106" s="6">
         <v>54</v>
@@ -32259,7 +32259,7 @@
         <v>1000</v>
       </c>
       <c r="I106" s="7">
-        <f>H106*G106</f>
+        <f t="shared" si="1"/>
         <v>54000</v>
       </c>
     </row>
@@ -32279,8 +32279,8 @@
       <c r="E107" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>871</v>
+      <c r="F107" s="3">
+        <v>2</v>
       </c>
       <c r="G107" s="6">
         <v>78</v>
@@ -32289,7 +32289,7 @@
         <v>1500</v>
       </c>
       <c r="I107" s="7">
-        <f>H107*G107</f>
+        <f t="shared" si="1"/>
         <v>117000</v>
       </c>
     </row>
@@ -32309,8 +32309,8 @@
       <c r="E108" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>871</v>
+      <c r="F108" s="3">
+        <v>2</v>
       </c>
       <c r="G108" s="6">
         <v>93</v>
@@ -32319,7 +32319,7 @@
         <v>3000</v>
       </c>
       <c r="I108" s="7">
-        <f>H108*G108</f>
+        <f t="shared" si="1"/>
         <v>279000</v>
       </c>
     </row>
@@ -32339,8 +32339,8 @@
       <c r="E109" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>871</v>
+      <c r="F109" s="3">
+        <v>2</v>
       </c>
       <c r="G109" s="6">
         <v>54</v>
@@ -32349,7 +32349,7 @@
         <v>800</v>
       </c>
       <c r="I109" s="7">
-        <f>H109*G109</f>
+        <f t="shared" si="1"/>
         <v>43200</v>
       </c>
     </row>
@@ -32369,8 +32369,8 @@
       <c r="E110" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>871</v>
+      <c r="F110" s="3">
+        <v>2</v>
       </c>
       <c r="G110" s="6">
         <v>61</v>
@@ -32379,7 +32379,7 @@
         <v>5000</v>
       </c>
       <c r="I110" s="7">
-        <f>H110*G110</f>
+        <f t="shared" si="1"/>
         <v>305000</v>
       </c>
     </row>
@@ -32399,8 +32399,8 @@
       <c r="E111" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>871</v>
+      <c r="F111" s="3">
+        <v>2</v>
       </c>
       <c r="G111" s="6">
         <v>75</v>
@@ -32409,7 +32409,7 @@
         <v>1200</v>
       </c>
       <c r="I111" s="7">
-        <f>H111*G111</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
@@ -32429,8 +32429,8 @@
       <c r="E112" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>871</v>
+      <c r="F112" s="3">
+        <v>2</v>
       </c>
       <c r="G112" s="6">
         <v>70</v>
@@ -32439,7 +32439,7 @@
         <v>800</v>
       </c>
       <c r="I112" s="7">
-        <f>H112*G112</f>
+        <f t="shared" si="1"/>
         <v>56000</v>
       </c>
     </row>
@@ -32459,8 +32459,8 @@
       <c r="E113" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>871</v>
+      <c r="F113" s="3">
+        <v>2</v>
       </c>
       <c r="G113" s="6">
         <v>99</v>
@@ -32469,7 +32469,7 @@
         <v>2500</v>
       </c>
       <c r="I113" s="7">
-        <f>H113*G113</f>
+        <f t="shared" si="1"/>
         <v>247500</v>
       </c>
     </row>
@@ -32489,8 +32489,8 @@
       <c r="E114" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>871</v>
+      <c r="F114" s="3">
+        <v>2</v>
       </c>
       <c r="G114" s="6">
         <v>72</v>
@@ -32499,7 +32499,7 @@
         <v>2500</v>
       </c>
       <c r="I114" s="7">
-        <f>H114*G114</f>
+        <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
@@ -32519,8 +32519,8 @@
       <c r="E115" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>871</v>
+      <c r="F115" s="3">
+        <v>2</v>
       </c>
       <c r="G115" s="6">
         <v>94</v>
@@ -32529,7 +32529,7 @@
         <v>1500</v>
       </c>
       <c r="I115" s="7">
-        <f>H115*G115</f>
+        <f t="shared" si="1"/>
         <v>141000</v>
       </c>
     </row>
@@ -32549,8 +32549,8 @@
       <c r="E116" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>871</v>
+      <c r="F116" s="3">
+        <v>2</v>
       </c>
       <c r="G116" s="6">
         <v>99</v>
@@ -32559,7 +32559,7 @@
         <v>2500</v>
       </c>
       <c r="I116" s="7">
-        <f>H116*G116</f>
+        <f t="shared" si="1"/>
         <v>247500</v>
       </c>
     </row>
@@ -32579,8 +32579,8 @@
       <c r="E117" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>871</v>
+      <c r="F117" s="3">
+        <v>2</v>
       </c>
       <c r="G117" s="6">
         <v>100</v>
@@ -32589,7 +32589,7 @@
         <v>1500</v>
       </c>
       <c r="I117" s="7">
-        <f>H117*G117</f>
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
     </row>
@@ -32609,8 +32609,8 @@
       <c r="E118" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>871</v>
+      <c r="F118" s="3">
+        <v>2</v>
       </c>
       <c r="G118" s="6">
         <v>94</v>
@@ -32619,7 +32619,7 @@
         <v>500</v>
       </c>
       <c r="I118" s="7">
-        <f>H118*G118</f>
+        <f t="shared" si="1"/>
         <v>47000</v>
       </c>
     </row>
@@ -32639,8 +32639,8 @@
       <c r="E119" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>871</v>
+      <c r="F119" s="3">
+        <v>2</v>
       </c>
       <c r="G119" s="6">
         <v>74</v>
@@ -32649,7 +32649,7 @@
         <v>1000</v>
       </c>
       <c r="I119" s="7">
-        <f>H119*G119</f>
+        <f t="shared" si="1"/>
         <v>74000</v>
       </c>
     </row>
@@ -32669,8 +32669,8 @@
       <c r="E120" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>871</v>
+      <c r="F120" s="3">
+        <v>2</v>
       </c>
       <c r="G120" s="6">
         <v>75</v>
@@ -32679,7 +32679,7 @@
         <v>2500</v>
       </c>
       <c r="I120" s="7">
-        <f>H120*G120</f>
+        <f t="shared" si="1"/>
         <v>187500</v>
       </c>
     </row>
@@ -32699,8 +32699,8 @@
       <c r="E121" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>871</v>
+      <c r="F121" s="3">
+        <v>2</v>
       </c>
       <c r="G121" s="6">
         <v>93</v>
@@ -32709,7 +32709,7 @@
         <v>1800</v>
       </c>
       <c r="I121" s="7">
-        <f>H121*G121</f>
+        <f t="shared" si="1"/>
         <v>167400</v>
       </c>
     </row>
@@ -32729,8 +32729,8 @@
       <c r="E122" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>871</v>
+      <c r="F122" s="3">
+        <v>2</v>
       </c>
       <c r="G122" s="6">
         <v>87</v>
@@ -32739,7 +32739,7 @@
         <v>1000</v>
       </c>
       <c r="I122" s="7">
-        <f>H122*G122</f>
+        <f t="shared" si="1"/>
         <v>87000</v>
       </c>
     </row>
@@ -32759,8 +32759,8 @@
       <c r="E123" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>871</v>
+      <c r="F123" s="3">
+        <v>2</v>
       </c>
       <c r="G123" s="6">
         <v>52</v>
@@ -32769,7 +32769,7 @@
         <v>9000</v>
       </c>
       <c r="I123" s="7">
-        <f>H123*G123</f>
+        <f t="shared" si="1"/>
         <v>468000</v>
       </c>
     </row>
@@ -32789,8 +32789,8 @@
       <c r="E124" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>871</v>
+      <c r="F124" s="3">
+        <v>2</v>
       </c>
       <c r="G124" s="6">
         <v>64</v>
@@ -32799,7 +32799,7 @@
         <v>2000</v>
       </c>
       <c r="I124" s="7">
-        <f>H124*G124</f>
+        <f t="shared" si="1"/>
         <v>128000</v>
       </c>
     </row>
@@ -32819,8 +32819,8 @@
       <c r="E125" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>871</v>
+      <c r="F125" s="3">
+        <v>2</v>
       </c>
       <c r="G125" s="6">
         <v>71</v>
@@ -32829,7 +32829,7 @@
         <v>600</v>
       </c>
       <c r="I125" s="7">
-        <f>H125*G125</f>
+        <f t="shared" si="1"/>
         <v>42600</v>
       </c>
     </row>
@@ -32849,8 +32849,8 @@
       <c r="E126" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F126" s="3" t="s">
-        <v>871</v>
+      <c r="F126" s="3">
+        <v>2</v>
       </c>
       <c r="G126" s="6">
         <v>78</v>
@@ -32859,7 +32859,7 @@
         <v>1500</v>
       </c>
       <c r="I126" s="7">
-        <f>H126*G126</f>
+        <f t="shared" si="1"/>
         <v>117000</v>
       </c>
     </row>
@@ -32879,8 +32879,8 @@
       <c r="E127" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>871</v>
+      <c r="F127" s="3">
+        <v>2</v>
       </c>
       <c r="G127" s="6">
         <v>78</v>
@@ -32889,7 +32889,7 @@
         <v>2000</v>
       </c>
       <c r="I127" s="7">
-        <f>H127*G127</f>
+        <f t="shared" si="1"/>
         <v>156000</v>
       </c>
     </row>
@@ -32909,8 +32909,8 @@
       <c r="E128" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>871</v>
+      <c r="F128" s="3">
+        <v>2</v>
       </c>
       <c r="G128" s="6">
         <v>73</v>
@@ -32919,7 +32919,7 @@
         <v>800</v>
       </c>
       <c r="I128" s="7">
-        <f>H128*G128</f>
+        <f t="shared" si="1"/>
         <v>58400</v>
       </c>
     </row>
@@ -32939,8 +32939,8 @@
       <c r="E129" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>871</v>
+      <c r="F129" s="3">
+        <v>2</v>
       </c>
       <c r="G129" s="6">
         <v>73</v>
@@ -32949,7 +32949,7 @@
         <v>1200</v>
       </c>
       <c r="I129" s="7">
-        <f>H129*G129</f>
+        <f t="shared" si="1"/>
         <v>87600</v>
       </c>
     </row>
@@ -32969,8 +32969,8 @@
       <c r="E130" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>871</v>
+      <c r="F130" s="3">
+        <v>2</v>
       </c>
       <c r="G130" s="6">
         <v>64</v>
@@ -32979,7 +32979,7 @@
         <v>5500</v>
       </c>
       <c r="I130" s="7">
-        <f>H130*G130</f>
+        <f t="shared" ref="I130:I193" si="2">H130*G130</f>
         <v>352000</v>
       </c>
     </row>
@@ -32999,8 +32999,8 @@
       <c r="E131" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>871</v>
+      <c r="F131" s="3">
+        <v>2</v>
       </c>
       <c r="G131" s="6">
         <v>51</v>
@@ -33009,7 +33009,7 @@
         <v>1000</v>
       </c>
       <c r="I131" s="7">
-        <f>H131*G131</f>
+        <f t="shared" si="2"/>
         <v>51000</v>
       </c>
     </row>
@@ -33029,8 +33029,8 @@
       <c r="E132" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>871</v>
+      <c r="F132" s="3">
+        <v>2</v>
       </c>
       <c r="G132" s="6">
         <v>61</v>
@@ -33039,7 +33039,7 @@
         <v>1000</v>
       </c>
       <c r="I132" s="7">
-        <f>H132*G132</f>
+        <f t="shared" si="2"/>
         <v>61000</v>
       </c>
     </row>
@@ -33059,8 +33059,8 @@
       <c r="E133" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>871</v>
+      <c r="F133" s="3">
+        <v>2</v>
       </c>
       <c r="G133" s="6">
         <v>90</v>
@@ -33069,7 +33069,7 @@
         <v>2000</v>
       </c>
       <c r="I133" s="7">
-        <f>H133*G133</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -33089,8 +33089,8 @@
       <c r="E134" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>871</v>
+      <c r="F134" s="3">
+        <v>2</v>
       </c>
       <c r="G134" s="6">
         <v>86</v>
@@ -33099,7 +33099,7 @@
         <v>800</v>
       </c>
       <c r="I134" s="7">
-        <f>H134*G134</f>
+        <f t="shared" si="2"/>
         <v>68800</v>
       </c>
     </row>
@@ -33119,8 +33119,8 @@
       <c r="E135" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>871</v>
+      <c r="F135" s="3">
+        <v>2</v>
       </c>
       <c r="G135" s="6">
         <v>51</v>
@@ -33129,7 +33129,7 @@
         <v>1200</v>
       </c>
       <c r="I135" s="7">
-        <f>H135*G135</f>
+        <f t="shared" si="2"/>
         <v>61200</v>
       </c>
     </row>
@@ -33149,8 +33149,8 @@
       <c r="E136" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F136" s="3" t="s">
-        <v>871</v>
+      <c r="F136" s="3">
+        <v>2</v>
       </c>
       <c r="G136" s="6">
         <v>94</v>
@@ -33159,7 +33159,7 @@
         <v>2800</v>
       </c>
       <c r="I136" s="7">
-        <f>H136*G136</f>
+        <f t="shared" si="2"/>
         <v>263200</v>
       </c>
     </row>
@@ -33179,8 +33179,8 @@
       <c r="E137" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F137" s="3" t="s">
-        <v>871</v>
+      <c r="F137" s="3">
+        <v>2</v>
       </c>
       <c r="G137" s="6">
         <v>72</v>
@@ -33189,7 +33189,7 @@
         <v>1000</v>
       </c>
       <c r="I137" s="7">
-        <f>H137*G137</f>
+        <f t="shared" si="2"/>
         <v>72000</v>
       </c>
     </row>
@@ -33209,8 +33209,8 @@
       <c r="E138" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>871</v>
+      <c r="F138" s="3">
+        <v>2</v>
       </c>
       <c r="G138" s="6">
         <v>71</v>
@@ -33219,7 +33219,7 @@
         <v>5500</v>
       </c>
       <c r="I138" s="7">
-        <f>H138*G138</f>
+        <f t="shared" si="2"/>
         <v>390500</v>
       </c>
     </row>
@@ -33239,8 +33239,8 @@
       <c r="E139" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>871</v>
+      <c r="F139" s="3">
+        <v>2</v>
       </c>
       <c r="G139" s="6">
         <v>93</v>
@@ -33249,7 +33249,7 @@
         <v>900</v>
       </c>
       <c r="I139" s="7">
-        <f>H139*G139</f>
+        <f t="shared" si="2"/>
         <v>83700</v>
       </c>
     </row>
@@ -33269,8 +33269,8 @@
       <c r="E140" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>871</v>
+      <c r="F140" s="3">
+        <v>2</v>
       </c>
       <c r="G140" s="6">
         <v>79</v>
@@ -33279,7 +33279,7 @@
         <v>1000</v>
       </c>
       <c r="I140" s="7">
-        <f>H140*G140</f>
+        <f t="shared" si="2"/>
         <v>79000</v>
       </c>
     </row>
@@ -33299,8 +33299,8 @@
       <c r="E141" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>871</v>
+      <c r="F141" s="3">
+        <v>2</v>
       </c>
       <c r="G141" s="6">
         <v>97</v>
@@ -33309,7 +33309,7 @@
         <v>2500</v>
       </c>
       <c r="I141" s="7">
-        <f>H141*G141</f>
+        <f t="shared" si="2"/>
         <v>242500</v>
       </c>
     </row>
@@ -33329,8 +33329,8 @@
       <c r="E142" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>871</v>
+      <c r="F142" s="3">
+        <v>2</v>
       </c>
       <c r="G142" s="6">
         <v>72</v>
@@ -33339,7 +33339,7 @@
         <v>8000</v>
       </c>
       <c r="I142" s="7">
-        <f>H142*G142</f>
+        <f t="shared" si="2"/>
         <v>576000</v>
       </c>
     </row>
@@ -33359,8 +33359,8 @@
       <c r="E143" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>871</v>
+      <c r="F143" s="3">
+        <v>2</v>
       </c>
       <c r="G143" s="6">
         <v>73</v>
@@ -33369,7 +33369,7 @@
         <v>2000</v>
       </c>
       <c r="I143" s="7">
-        <f>H143*G143</f>
+        <f t="shared" si="2"/>
         <v>146000</v>
       </c>
     </row>
@@ -33389,8 +33389,8 @@
       <c r="E144" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>871</v>
+      <c r="F144" s="3">
+        <v>2</v>
       </c>
       <c r="G144" s="6">
         <v>89</v>
@@ -33399,7 +33399,7 @@
         <v>1500</v>
       </c>
       <c r="I144" s="7">
-        <f>H144*G144</f>
+        <f t="shared" si="2"/>
         <v>133500</v>
       </c>
     </row>
@@ -33419,8 +33419,8 @@
       <c r="E145" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>871</v>
+      <c r="F145" s="3">
+        <v>2</v>
       </c>
       <c r="G145" s="6">
         <v>82</v>
@@ -33429,7 +33429,7 @@
         <v>1800</v>
       </c>
       <c r="I145" s="7">
-        <f>H145*G145</f>
+        <f t="shared" si="2"/>
         <v>147600</v>
       </c>
     </row>
@@ -33449,8 +33449,8 @@
       <c r="E146" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>871</v>
+      <c r="F146" s="3">
+        <v>2</v>
       </c>
       <c r="G146" s="6">
         <v>61</v>
@@ -33459,7 +33459,7 @@
         <v>500</v>
       </c>
       <c r="I146" s="7">
-        <f>H146*G146</f>
+        <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
@@ -33479,8 +33479,8 @@
       <c r="E147" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>871</v>
+      <c r="F147" s="3">
+        <v>2</v>
       </c>
       <c r="G147" s="6">
         <v>61</v>
@@ -33489,7 +33489,7 @@
         <v>1200</v>
       </c>
       <c r="I147" s="7">
-        <f>H147*G147</f>
+        <f t="shared" si="2"/>
         <v>73200</v>
       </c>
     </row>
@@ -33509,8 +33509,8 @@
       <c r="E148" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>871</v>
+      <c r="F148" s="3">
+        <v>2</v>
       </c>
       <c r="G148" s="6">
         <v>95</v>
@@ -33519,7 +33519,7 @@
         <v>2500</v>
       </c>
       <c r="I148" s="7">
-        <f>H148*G148</f>
+        <f t="shared" si="2"/>
         <v>237500</v>
       </c>
     </row>
@@ -33539,8 +33539,8 @@
       <c r="E149" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>871</v>
+      <c r="F149" s="3">
+        <v>2</v>
       </c>
       <c r="G149" s="6">
         <v>70</v>
@@ -33549,7 +33549,7 @@
         <v>600</v>
       </c>
       <c r="I149" s="7">
-        <f>H149*G149</f>
+        <f t="shared" si="2"/>
         <v>42000</v>
       </c>
     </row>
@@ -33569,8 +33569,8 @@
       <c r="E150" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>871</v>
+      <c r="F150" s="3">
+        <v>2</v>
       </c>
       <c r="G150" s="6">
         <v>77</v>
@@ -33579,7 +33579,7 @@
         <v>2500</v>
       </c>
       <c r="I150" s="7">
-        <f>H150*G150</f>
+        <f t="shared" si="2"/>
         <v>192500</v>
       </c>
     </row>
@@ -33599,8 +33599,8 @@
       <c r="E151" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>871</v>
+      <c r="F151" s="3">
+        <v>2</v>
       </c>
       <c r="G151" s="6">
         <v>83</v>
@@ -33609,7 +33609,7 @@
         <v>6000</v>
       </c>
       <c r="I151" s="7">
-        <f>H151*G151</f>
+        <f t="shared" si="2"/>
         <v>498000</v>
       </c>
     </row>
@@ -33629,8 +33629,8 @@
       <c r="E152" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>871</v>
+      <c r="F152" s="3">
+        <v>2</v>
       </c>
       <c r="G152" s="6">
         <v>72</v>
@@ -33639,7 +33639,7 @@
         <v>700</v>
       </c>
       <c r="I152" s="7">
-        <f>H152*G152</f>
+        <f t="shared" si="2"/>
         <v>50400</v>
       </c>
     </row>
@@ -33659,8 +33659,8 @@
       <c r="E153" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F153" s="3" t="s">
-        <v>871</v>
+      <c r="F153" s="3">
+        <v>2</v>
       </c>
       <c r="G153" s="6">
         <v>79</v>
@@ -33669,7 +33669,7 @@
         <v>1000</v>
       </c>
       <c r="I153" s="7">
-        <f>H153*G153</f>
+        <f t="shared" si="2"/>
         <v>79000</v>
       </c>
     </row>
@@ -33689,8 +33689,8 @@
       <c r="E154" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="F154" s="3" t="s">
-        <v>871</v>
+      <c r="F154" s="3">
+        <v>2</v>
       </c>
       <c r="G154" s="6">
         <v>91</v>
@@ -33699,7 +33699,7 @@
         <v>2500</v>
       </c>
       <c r="I154" s="7">
-        <f>H154*G154</f>
+        <f t="shared" si="2"/>
         <v>227500</v>
       </c>
     </row>
@@ -33719,8 +33719,8 @@
       <c r="E155" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>871</v>
+      <c r="F155" s="3">
+        <v>2</v>
       </c>
       <c r="G155" s="6">
         <v>70</v>
@@ -33729,7 +33729,7 @@
         <v>3000</v>
       </c>
       <c r="I155" s="7">
-        <f>H155*G155</f>
+        <f t="shared" si="2"/>
         <v>210000</v>
       </c>
     </row>
@@ -33749,8 +33749,8 @@
       <c r="E156" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F156" s="3" t="s">
-        <v>871</v>
+      <c r="F156" s="3">
+        <v>2</v>
       </c>
       <c r="G156" s="6">
         <v>70</v>
@@ -33759,7 +33759,7 @@
         <v>3000</v>
       </c>
       <c r="I156" s="7">
-        <f>H156*G156</f>
+        <f t="shared" si="2"/>
         <v>210000</v>
       </c>
     </row>
@@ -33779,8 +33779,8 @@
       <c r="E157" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>871</v>
+      <c r="F157" s="3">
+        <v>2</v>
       </c>
       <c r="G157" s="6">
         <v>82</v>
@@ -33789,7 +33789,7 @@
         <v>3000</v>
       </c>
       <c r="I157" s="7">
-        <f>H157*G157</f>
+        <f t="shared" si="2"/>
         <v>246000</v>
       </c>
     </row>
@@ -33809,8 +33809,8 @@
       <c r="E158" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>871</v>
+      <c r="F158" s="3">
+        <v>2</v>
       </c>
       <c r="G158" s="6">
         <v>92</v>
@@ -33819,7 +33819,7 @@
         <v>3000</v>
       </c>
       <c r="I158" s="7">
-        <f>H158*G158</f>
+        <f t="shared" si="2"/>
         <v>276000</v>
       </c>
     </row>
@@ -33839,8 +33839,8 @@
       <c r="E159" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="F159" s="3" t="s">
-        <v>871</v>
+      <c r="F159" s="3">
+        <v>2</v>
       </c>
       <c r="G159" s="6">
         <v>85</v>
@@ -33849,7 +33849,7 @@
         <v>600</v>
       </c>
       <c r="I159" s="7">
-        <f>H159*G159</f>
+        <f t="shared" si="2"/>
         <v>51000</v>
       </c>
     </row>
@@ -33869,8 +33869,8 @@
       <c r="E160" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="F160" s="3" t="s">
-        <v>871</v>
+      <c r="F160" s="3">
+        <v>2</v>
       </c>
       <c r="G160" s="6">
         <v>51</v>
@@ -33879,7 +33879,7 @@
         <v>600</v>
       </c>
       <c r="I160" s="7">
-        <f>H160*G160</f>
+        <f t="shared" si="2"/>
         <v>30600</v>
       </c>
     </row>
@@ -33899,8 +33899,8 @@
       <c r="E161" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F161" s="3" t="s">
-        <v>871</v>
+      <c r="F161" s="3">
+        <v>2</v>
       </c>
       <c r="G161" s="6">
         <v>83</v>
@@ -33909,7 +33909,7 @@
         <v>1000</v>
       </c>
       <c r="I161" s="7">
-        <f>H161*G161</f>
+        <f t="shared" si="2"/>
         <v>83000</v>
       </c>
     </row>
@@ -33929,8 +33929,8 @@
       <c r="E162" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F162" s="3" t="s">
-        <v>871</v>
+      <c r="F162" s="3">
+        <v>2</v>
       </c>
       <c r="G162" s="6">
         <v>90</v>
@@ -33939,7 +33939,7 @@
         <v>2000</v>
       </c>
       <c r="I162" s="7">
-        <f>H162*G162</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -33959,8 +33959,8 @@
       <c r="E163" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="F163" s="3" t="s">
-        <v>871</v>
+      <c r="F163" s="3">
+        <v>2</v>
       </c>
       <c r="G163" s="6">
         <v>83</v>
@@ -33969,7 +33969,7 @@
         <v>1800</v>
       </c>
       <c r="I163" s="7">
-        <f>H163*G163</f>
+        <f t="shared" si="2"/>
         <v>149400</v>
       </c>
     </row>
@@ -33989,8 +33989,8 @@
       <c r="E164" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>871</v>
+      <c r="F164" s="3">
+        <v>2</v>
       </c>
       <c r="G164" s="6">
         <v>70</v>
@@ -33999,7 +33999,7 @@
         <v>1800</v>
       </c>
       <c r="I164" s="7">
-        <f>H164*G164</f>
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
     </row>
@@ -34019,8 +34019,8 @@
       <c r="E165" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>871</v>
+      <c r="F165" s="3">
+        <v>2</v>
       </c>
       <c r="G165" s="6">
         <v>59</v>
@@ -34029,7 +34029,7 @@
         <v>600</v>
       </c>
       <c r="I165" s="7">
-        <f>H165*G165</f>
+        <f t="shared" si="2"/>
         <v>35400</v>
       </c>
     </row>
@@ -34049,8 +34049,8 @@
       <c r="E166" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>871</v>
+      <c r="F166" s="3">
+        <v>2</v>
       </c>
       <c r="G166" s="6">
         <v>57</v>
@@ -34059,7 +34059,7 @@
         <v>1000</v>
       </c>
       <c r="I166" s="7">
-        <f>H166*G166</f>
+        <f t="shared" si="2"/>
         <v>57000</v>
       </c>
     </row>
@@ -34079,8 +34079,8 @@
       <c r="E167" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>871</v>
+      <c r="F167" s="3">
+        <v>2</v>
       </c>
       <c r="G167" s="6">
         <v>82</v>
@@ -34089,7 +34089,7 @@
         <v>500</v>
       </c>
       <c r="I167" s="7">
-        <f>H167*G167</f>
+        <f t="shared" si="2"/>
         <v>41000</v>
       </c>
     </row>
@@ -34109,8 +34109,8 @@
       <c r="E168" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>871</v>
+      <c r="F168" s="3">
+        <v>2</v>
       </c>
       <c r="G168" s="6">
         <v>90</v>
@@ -34119,7 +34119,7 @@
         <v>2000</v>
       </c>
       <c r="I168" s="7">
-        <f>H168*G168</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -34139,8 +34139,8 @@
       <c r="E169" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="F169" s="3" t="s">
-        <v>871</v>
+      <c r="F169" s="3">
+        <v>2</v>
       </c>
       <c r="G169" s="6">
         <v>86</v>
@@ -34149,7 +34149,7 @@
         <v>3000</v>
       </c>
       <c r="I169" s="7">
-        <f>H169*G169</f>
+        <f t="shared" si="2"/>
         <v>258000</v>
       </c>
     </row>
@@ -34169,8 +34169,8 @@
       <c r="E170" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="F170" s="3" t="s">
-        <v>871</v>
+      <c r="F170" s="3">
+        <v>2</v>
       </c>
       <c r="G170" s="6">
         <v>80</v>
@@ -34179,7 +34179,7 @@
         <v>300</v>
       </c>
       <c r="I170" s="7">
-        <f>H170*G170</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
     </row>
@@ -34199,8 +34199,8 @@
       <c r="E171" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F171" s="3" t="s">
-        <v>871</v>
+      <c r="F171" s="3">
+        <v>2</v>
       </c>
       <c r="G171" s="6">
         <v>75</v>
@@ -34209,7 +34209,7 @@
         <v>20000</v>
       </c>
       <c r="I171" s="7">
-        <f>H171*G171</f>
+        <f t="shared" si="2"/>
         <v>1500000</v>
       </c>
     </row>
@@ -34229,8 +34229,8 @@
       <c r="E172" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="F172" s="3" t="s">
-        <v>871</v>
+      <c r="F172" s="3">
+        <v>2</v>
       </c>
       <c r="G172" s="6">
         <v>90</v>
@@ -34239,7 +34239,7 @@
         <v>12000</v>
       </c>
       <c r="I172" s="7">
-        <f>H172*G172</f>
+        <f t="shared" si="2"/>
         <v>1080000</v>
       </c>
     </row>
@@ -34259,8 +34259,8 @@
       <c r="E173" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F173" s="3" t="s">
-        <v>871</v>
+      <c r="F173" s="3">
+        <v>2</v>
       </c>
       <c r="G173" s="6">
         <v>93</v>
@@ -34269,7 +34269,7 @@
         <v>1000</v>
       </c>
       <c r="I173" s="7">
-        <f>H173*G173</f>
+        <f t="shared" si="2"/>
         <v>93000</v>
       </c>
     </row>
@@ -34289,8 +34289,8 @@
       <c r="E174" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="F174" s="3" t="s">
-        <v>871</v>
+      <c r="F174" s="3">
+        <v>2</v>
       </c>
       <c r="G174" s="6">
         <v>53</v>
@@ -34299,7 +34299,7 @@
         <v>5000</v>
       </c>
       <c r="I174" s="7">
-        <f>H174*G174</f>
+        <f t="shared" si="2"/>
         <v>265000</v>
       </c>
     </row>
@@ -34319,8 +34319,8 @@
       <c r="E175" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="F175" s="3" t="s">
-        <v>871</v>
+      <c r="F175" s="3">
+        <v>2</v>
       </c>
       <c r="G175" s="6">
         <v>93</v>
@@ -34329,7 +34329,7 @@
         <v>2500</v>
       </c>
       <c r="I175" s="7">
-        <f>H175*G175</f>
+        <f t="shared" si="2"/>
         <v>232500</v>
       </c>
     </row>
@@ -34349,8 +34349,8 @@
       <c r="E176" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="F176" s="3" t="s">
-        <v>871</v>
+      <c r="F176" s="3">
+        <v>2</v>
       </c>
       <c r="G176" s="6">
         <v>94</v>
@@ -34359,7 +34359,7 @@
         <v>700</v>
       </c>
       <c r="I176" s="7">
-        <f>H176*G176</f>
+        <f t="shared" si="2"/>
         <v>65800</v>
       </c>
     </row>
@@ -34379,8 +34379,8 @@
       <c r="E177" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F177" s="3" t="s">
-        <v>871</v>
+      <c r="F177" s="3">
+        <v>2</v>
       </c>
       <c r="G177" s="6">
         <v>50</v>
@@ -34389,7 +34389,7 @@
         <v>800</v>
       </c>
       <c r="I177" s="7">
-        <f>H177*G177</f>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
@@ -34409,8 +34409,8 @@
       <c r="E178" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F178" s="3" t="s">
-        <v>871</v>
+      <c r="F178" s="3">
+        <v>2</v>
       </c>
       <c r="G178" s="6">
         <v>95</v>
@@ -34419,7 +34419,7 @@
         <v>1500</v>
       </c>
       <c r="I178" s="7">
-        <f>H178*G178</f>
+        <f t="shared" si="2"/>
         <v>142500</v>
       </c>
     </row>
@@ -34439,8 +34439,8 @@
       <c r="E179" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="F179" s="3" t="s">
-        <v>871</v>
+      <c r="F179" s="3">
+        <v>2</v>
       </c>
       <c r="G179" s="6">
         <v>52</v>
@@ -34449,7 +34449,7 @@
         <v>1000</v>
       </c>
       <c r="I179" s="7">
-        <f>H179*G179</f>
+        <f t="shared" si="2"/>
         <v>52000</v>
       </c>
     </row>
@@ -34469,8 +34469,8 @@
       <c r="E180" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="F180" s="3" t="s">
-        <v>871</v>
+      <c r="F180" s="3">
+        <v>2</v>
       </c>
       <c r="G180" s="6">
         <v>53</v>
@@ -34479,7 +34479,7 @@
         <v>4000</v>
       </c>
       <c r="I180" s="7">
-        <f>H180*G180</f>
+        <f t="shared" si="2"/>
         <v>212000</v>
       </c>
     </row>
@@ -34499,8 +34499,8 @@
       <c r="E181" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="F181" s="3" t="s">
-        <v>871</v>
+      <c r="F181" s="3">
+        <v>2</v>
       </c>
       <c r="G181" s="6">
         <v>83</v>
@@ -34509,7 +34509,7 @@
         <v>2800</v>
       </c>
       <c r="I181" s="7">
-        <f>H181*G181</f>
+        <f t="shared" si="2"/>
         <v>232400</v>
       </c>
     </row>
@@ -34529,8 +34529,8 @@
       <c r="E182" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F182" s="3" t="s">
-        <v>871</v>
+      <c r="F182" s="3">
+        <v>2</v>
       </c>
       <c r="G182" s="6">
         <v>97</v>
@@ -34539,7 +34539,7 @@
         <v>1200</v>
       </c>
       <c r="I182" s="7">
-        <f>H182*G182</f>
+        <f t="shared" si="2"/>
         <v>116400</v>
       </c>
     </row>
@@ -34559,8 +34559,8 @@
       <c r="E183" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="F183" s="3" t="s">
-        <v>871</v>
+      <c r="F183" s="3">
+        <v>2</v>
       </c>
       <c r="G183" s="6">
         <v>59</v>
@@ -34569,7 +34569,7 @@
         <v>2500</v>
       </c>
       <c r="I183" s="7">
-        <f>H183*G183</f>
+        <f t="shared" si="2"/>
         <v>147500</v>
       </c>
     </row>
@@ -34589,8 +34589,8 @@
       <c r="E184" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="F184" s="3" t="s">
-        <v>871</v>
+      <c r="F184" s="3">
+        <v>2</v>
       </c>
       <c r="G184" s="6">
         <v>61</v>
@@ -34599,7 +34599,7 @@
         <v>1000</v>
       </c>
       <c r="I184" s="7">
-        <f>H184*G184</f>
+        <f t="shared" si="2"/>
         <v>61000</v>
       </c>
     </row>
@@ -34619,8 +34619,8 @@
       <c r="E185" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F185" s="3" t="s">
-        <v>871</v>
+      <c r="F185" s="3">
+        <v>2</v>
       </c>
       <c r="G185" s="6">
         <v>84</v>
@@ -34629,7 +34629,7 @@
         <v>1500</v>
       </c>
       <c r="I185" s="7">
-        <f>H185*G185</f>
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
     </row>
@@ -34649,8 +34649,8 @@
       <c r="E186" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F186" s="3" t="s">
-        <v>871</v>
+      <c r="F186" s="3">
+        <v>2</v>
       </c>
       <c r="G186" s="6">
         <v>97</v>
@@ -34659,7 +34659,7 @@
         <v>1000</v>
       </c>
       <c r="I186" s="7">
-        <f>H186*G186</f>
+        <f t="shared" si="2"/>
         <v>97000</v>
       </c>
     </row>
@@ -34679,8 +34679,8 @@
       <c r="E187" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F187" s="3" t="s">
-        <v>871</v>
+      <c r="F187" s="3">
+        <v>2</v>
       </c>
       <c r="G187" s="6">
         <v>95</v>
@@ -34689,7 +34689,7 @@
         <v>1800</v>
       </c>
       <c r="I187" s="7">
-        <f>H187*G187</f>
+        <f t="shared" si="2"/>
         <v>171000</v>
       </c>
     </row>
@@ -34709,8 +34709,8 @@
       <c r="E188" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>871</v>
+      <c r="F188" s="3">
+        <v>2</v>
       </c>
       <c r="G188" s="6">
         <v>64</v>
@@ -34719,7 +34719,7 @@
         <v>2500</v>
       </c>
       <c r="I188" s="7">
-        <f>H188*G188</f>
+        <f t="shared" si="2"/>
         <v>160000</v>
       </c>
     </row>
@@ -34739,8 +34739,8 @@
       <c r="E189" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F189" s="3" t="s">
-        <v>871</v>
+      <c r="F189" s="3">
+        <v>2</v>
       </c>
       <c r="G189" s="6">
         <v>54</v>
@@ -34749,7 +34749,7 @@
         <v>500</v>
       </c>
       <c r="I189" s="7">
-        <f>H189*G189</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -34769,8 +34769,8 @@
       <c r="E190" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="F190" s="3" t="s">
-        <v>871</v>
+      <c r="F190" s="3">
+        <v>2</v>
       </c>
       <c r="G190" s="6">
         <v>75</v>
@@ -34779,7 +34779,7 @@
         <v>1500</v>
       </c>
       <c r="I190" s="7">
-        <f>H190*G190</f>
+        <f t="shared" si="2"/>
         <v>112500</v>
       </c>
     </row>
@@ -34799,8 +34799,8 @@
       <c r="E191" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="F191" s="3" t="s">
-        <v>871</v>
+      <c r="F191" s="3">
+        <v>2</v>
       </c>
       <c r="G191" s="6">
         <v>59</v>
@@ -34809,7 +34809,7 @@
         <v>1500</v>
       </c>
       <c r="I191" s="7">
-        <f>H191*G191</f>
+        <f t="shared" si="2"/>
         <v>88500</v>
       </c>
     </row>
@@ -34829,8 +34829,8 @@
       <c r="E192" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="F192" s="3" t="s">
-        <v>871</v>
+      <c r="F192" s="3">
+        <v>2</v>
       </c>
       <c r="G192" s="6">
         <v>66</v>
@@ -34839,7 +34839,7 @@
         <v>600</v>
       </c>
       <c r="I192" s="7">
-        <f>H192*G192</f>
+        <f t="shared" si="2"/>
         <v>39600</v>
       </c>
     </row>
@@ -34859,8 +34859,8 @@
       <c r="E193" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="F193" s="3" t="s">
-        <v>871</v>
+      <c r="F193" s="3">
+        <v>2</v>
       </c>
       <c r="G193" s="6">
         <v>55</v>
@@ -34869,7 +34869,7 @@
         <v>1800</v>
       </c>
       <c r="I193" s="7">
-        <f>H193*G193</f>
+        <f t="shared" si="2"/>
         <v>99000</v>
       </c>
     </row>
@@ -34889,8 +34889,8 @@
       <c r="E194" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F194" s="3" t="s">
-        <v>871</v>
+      <c r="F194" s="3">
+        <v>2</v>
       </c>
       <c r="G194" s="6">
         <v>85</v>
@@ -34899,7 +34899,7 @@
         <v>4000</v>
       </c>
       <c r="I194" s="7">
-        <f>H194*G194</f>
+        <f t="shared" ref="I194:I257" si="3">H194*G194</f>
         <v>340000</v>
       </c>
     </row>
@@ -34919,8 +34919,8 @@
       <c r="E195" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F195" s="3" t="s">
-        <v>871</v>
+      <c r="F195" s="3">
+        <v>2</v>
       </c>
       <c r="G195" s="6">
         <v>85</v>
@@ -34929,7 +34929,7 @@
         <v>1000</v>
       </c>
       <c r="I195" s="7">
-        <f>H195*G195</f>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
     </row>
@@ -34949,8 +34949,8 @@
       <c r="E196" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="F196" s="3" t="s">
-        <v>871</v>
+      <c r="F196" s="3">
+        <v>2</v>
       </c>
       <c r="G196" s="6">
         <v>85</v>
@@ -34959,7 +34959,7 @@
         <v>700</v>
       </c>
       <c r="I196" s="7">
-        <f>H196*G196</f>
+        <f t="shared" si="3"/>
         <v>59500</v>
       </c>
     </row>
@@ -34979,8 +34979,8 @@
       <c r="E197" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="F197" s="3" t="s">
-        <v>871</v>
+      <c r="F197" s="3">
+        <v>2</v>
       </c>
       <c r="G197" s="6">
         <v>50</v>
@@ -34989,7 +34989,7 @@
         <v>800</v>
       </c>
       <c r="I197" s="7">
-        <f>H197*G197</f>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
     </row>
@@ -35009,8 +35009,8 @@
       <c r="E198" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="F198" s="3" t="s">
-        <v>871</v>
+      <c r="F198" s="3">
+        <v>2</v>
       </c>
       <c r="G198" s="6">
         <v>83</v>
@@ -35019,7 +35019,7 @@
         <v>1000</v>
       </c>
       <c r="I198" s="7">
-        <f>H198*G198</f>
+        <f t="shared" si="3"/>
         <v>83000</v>
       </c>
     </row>
@@ -35039,8 +35039,8 @@
       <c r="E199" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F199" s="3" t="s">
-        <v>871</v>
+      <c r="F199" s="3">
+        <v>2</v>
       </c>
       <c r="G199" s="6">
         <v>89</v>
@@ -35049,7 +35049,7 @@
         <v>1500</v>
       </c>
       <c r="I199" s="7">
-        <f>H199*G199</f>
+        <f t="shared" si="3"/>
         <v>133500</v>
       </c>
     </row>
@@ -35069,8 +35069,8 @@
       <c r="E200" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="F200" s="3" t="s">
-        <v>871</v>
+      <c r="F200" s="3">
+        <v>2</v>
       </c>
       <c r="G200" s="6">
         <v>72</v>
@@ -35079,7 +35079,7 @@
         <v>600</v>
       </c>
       <c r="I200" s="7">
-        <f>H200*G200</f>
+        <f t="shared" si="3"/>
         <v>43200</v>
       </c>
     </row>
@@ -35099,8 +35099,8 @@
       <c r="E201" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F201" s="3" t="s">
-        <v>871</v>
+      <c r="F201" s="3">
+        <v>2</v>
       </c>
       <c r="G201" s="6">
         <v>60</v>
@@ -35109,7 +35109,7 @@
         <v>500</v>
       </c>
       <c r="I201" s="7">
-        <f>H201*G201</f>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
     </row>
@@ -35129,8 +35129,8 @@
       <c r="E202" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F202" s="3" t="s">
-        <v>871</v>
+      <c r="F202" s="3">
+        <v>2</v>
       </c>
       <c r="G202" s="6">
         <v>97</v>
@@ -35139,7 +35139,7 @@
         <v>1500</v>
       </c>
       <c r="I202" s="7">
-        <f>H202*G202</f>
+        <f t="shared" si="3"/>
         <v>145500</v>
       </c>
     </row>
@@ -35159,8 +35159,8 @@
       <c r="E203" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F203" s="3" t="s">
-        <v>871</v>
+      <c r="F203" s="3">
+        <v>2</v>
       </c>
       <c r="G203" s="6">
         <v>72</v>
@@ -35169,7 +35169,7 @@
         <v>1000</v>
       </c>
       <c r="I203" s="7">
-        <f>H203*G203</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -35189,8 +35189,8 @@
       <c r="E204" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F204" s="3" t="s">
-        <v>871</v>
+      <c r="F204" s="3">
+        <v>2</v>
       </c>
       <c r="G204" s="6">
         <v>95</v>
@@ -35199,7 +35199,7 @@
         <v>1200</v>
       </c>
       <c r="I204" s="7">
-        <f>H204*G204</f>
+        <f t="shared" si="3"/>
         <v>114000</v>
       </c>
     </row>
@@ -35219,8 +35219,8 @@
       <c r="E205" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F205" s="3" t="s">
-        <v>871</v>
+      <c r="F205" s="3">
+        <v>2</v>
       </c>
       <c r="G205" s="6">
         <v>96</v>
@@ -35229,7 +35229,7 @@
         <v>2500</v>
       </c>
       <c r="I205" s="7">
-        <f>H205*G205</f>
+        <f t="shared" si="3"/>
         <v>240000</v>
       </c>
     </row>
@@ -35249,8 +35249,8 @@
       <c r="E206" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="F206" s="3" t="s">
-        <v>871</v>
+      <c r="F206" s="3">
+        <v>2</v>
       </c>
       <c r="G206" s="6">
         <v>90</v>
@@ -35259,7 +35259,7 @@
         <v>800</v>
       </c>
       <c r="I206" s="7">
-        <f>H206*G206</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -35279,8 +35279,8 @@
       <c r="E207" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F207" s="3" t="s">
-        <v>871</v>
+      <c r="F207" s="3">
+        <v>2</v>
       </c>
       <c r="G207" s="6">
         <v>93</v>
@@ -35289,7 +35289,7 @@
         <v>500</v>
       </c>
       <c r="I207" s="7">
-        <f>H207*G207</f>
+        <f t="shared" si="3"/>
         <v>46500</v>
       </c>
     </row>
@@ -35309,8 +35309,8 @@
       <c r="E208" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="F208" s="3" t="s">
-        <v>871</v>
+      <c r="F208" s="3">
+        <v>2</v>
       </c>
       <c r="G208" s="6">
         <v>53</v>
@@ -35319,7 +35319,7 @@
         <v>2500</v>
       </c>
       <c r="I208" s="7">
-        <f>H208*G208</f>
+        <f t="shared" si="3"/>
         <v>132500</v>
       </c>
     </row>
@@ -35339,8 +35339,8 @@
       <c r="E209" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F209" s="3" t="s">
-        <v>871</v>
+      <c r="F209" s="3">
+        <v>2</v>
       </c>
       <c r="G209" s="6">
         <v>86</v>
@@ -35349,7 +35349,7 @@
         <v>1500</v>
       </c>
       <c r="I209" s="7">
-        <f>H209*G209</f>
+        <f t="shared" si="3"/>
         <v>129000</v>
       </c>
     </row>
@@ -35369,8 +35369,8 @@
       <c r="E210" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="F210" s="3" t="s">
-        <v>871</v>
+      <c r="F210" s="3">
+        <v>2</v>
       </c>
       <c r="G210" s="6">
         <v>57</v>
@@ -35379,7 +35379,7 @@
         <v>18000</v>
       </c>
       <c r="I210" s="7">
-        <f>H210*G210</f>
+        <f t="shared" si="3"/>
         <v>1026000</v>
       </c>
     </row>
@@ -35399,8 +35399,8 @@
       <c r="E211" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="F211" s="3" t="s">
-        <v>871</v>
+      <c r="F211" s="3">
+        <v>2</v>
       </c>
       <c r="G211" s="6">
         <v>94</v>
@@ -35409,7 +35409,7 @@
         <v>800</v>
       </c>
       <c r="I211" s="7">
-        <f>H211*G211</f>
+        <f t="shared" si="3"/>
         <v>75200</v>
       </c>
     </row>
@@ -35429,8 +35429,8 @@
       <c r="E212" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F212" s="3" t="s">
-        <v>871</v>
+      <c r="F212" s="3">
+        <v>2</v>
       </c>
       <c r="G212" s="6">
         <v>99</v>
@@ -35439,7 +35439,7 @@
         <v>500</v>
       </c>
       <c r="I212" s="7">
-        <f>H212*G212</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
     </row>
@@ -35459,8 +35459,8 @@
       <c r="E213" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="F213" s="3" t="s">
-        <v>871</v>
+      <c r="F213" s="3">
+        <v>2</v>
       </c>
       <c r="G213" s="6">
         <v>96</v>
@@ -35469,7 +35469,7 @@
         <v>1200</v>
       </c>
       <c r="I213" s="7">
-        <f>H213*G213</f>
+        <f t="shared" si="3"/>
         <v>115200</v>
       </c>
     </row>
@@ -35489,8 +35489,8 @@
       <c r="E214" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F214" s="3" t="s">
-        <v>871</v>
+      <c r="F214" s="3">
+        <v>2</v>
       </c>
       <c r="G214" s="6">
         <v>97</v>
@@ -35499,7 +35499,7 @@
         <v>3000</v>
       </c>
       <c r="I214" s="7">
-        <f>H214*G214</f>
+        <f t="shared" si="3"/>
         <v>291000</v>
       </c>
     </row>
@@ -35519,8 +35519,8 @@
       <c r="E215" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="F215" s="3" t="s">
-        <v>871</v>
+      <c r="F215" s="3">
+        <v>2</v>
       </c>
       <c r="G215" s="6">
         <v>57</v>
@@ -35529,7 +35529,7 @@
         <v>5000</v>
       </c>
       <c r="I215" s="7">
-        <f>H215*G215</f>
+        <f t="shared" si="3"/>
         <v>285000</v>
       </c>
     </row>
@@ -35549,8 +35549,8 @@
       <c r="E216" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="F216" s="3" t="s">
-        <v>871</v>
+      <c r="F216" s="3">
+        <v>2</v>
       </c>
       <c r="G216" s="6">
         <v>66</v>
@@ -35559,7 +35559,7 @@
         <v>700</v>
       </c>
       <c r="I216" s="7">
-        <f>H216*G216</f>
+        <f t="shared" si="3"/>
         <v>46200</v>
       </c>
     </row>
@@ -35579,8 +35579,8 @@
       <c r="E217" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="F217" s="3" t="s">
-        <v>871</v>
+      <c r="F217" s="3">
+        <v>2</v>
       </c>
       <c r="G217" s="6">
         <v>79</v>
@@ -35589,7 +35589,7 @@
         <v>1300</v>
       </c>
       <c r="I217" s="7">
-        <f>H217*G217</f>
+        <f t="shared" si="3"/>
         <v>102700</v>
       </c>
     </row>
@@ -35609,8 +35609,8 @@
       <c r="E218" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="F218" s="3" t="s">
-        <v>871</v>
+      <c r="F218" s="3">
+        <v>2</v>
       </c>
       <c r="G218" s="6">
         <v>95</v>
@@ -35619,7 +35619,7 @@
         <v>3000</v>
       </c>
       <c r="I218" s="7">
-        <f>H218*G218</f>
+        <f t="shared" si="3"/>
         <v>285000</v>
       </c>
     </row>
@@ -35639,8 +35639,8 @@
       <c r="E219" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F219" s="3" t="s">
-        <v>871</v>
+      <c r="F219" s="3">
+        <v>2</v>
       </c>
       <c r="G219" s="6">
         <v>51</v>
@@ -35649,7 +35649,7 @@
         <v>7000</v>
       </c>
       <c r="I219" s="7">
-        <f>H219*G219</f>
+        <f t="shared" si="3"/>
         <v>357000</v>
       </c>
     </row>
@@ -35669,8 +35669,8 @@
       <c r="E220" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="F220" s="3" t="s">
-        <v>871</v>
+      <c r="F220" s="3">
+        <v>2</v>
       </c>
       <c r="G220" s="6">
         <v>82</v>
@@ -35679,7 +35679,7 @@
         <v>1500</v>
       </c>
       <c r="I220" s="7">
-        <f>H220*G220</f>
+        <f t="shared" si="3"/>
         <v>123000</v>
       </c>
     </row>
@@ -35699,8 +35699,8 @@
       <c r="E221" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="F221" s="3" t="s">
-        <v>871</v>
+      <c r="F221" s="3">
+        <v>2</v>
       </c>
       <c r="G221" s="6">
         <v>62</v>
@@ -35709,7 +35709,7 @@
         <v>2500</v>
       </c>
       <c r="I221" s="7">
-        <f>H221*G221</f>
+        <f t="shared" si="3"/>
         <v>155000</v>
       </c>
     </row>
@@ -35729,8 +35729,8 @@
       <c r="E222" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="F222" s="3" t="s">
-        <v>871</v>
+      <c r="F222" s="3">
+        <v>2</v>
       </c>
       <c r="G222" s="6">
         <v>63</v>
@@ -35739,7 +35739,7 @@
         <v>700</v>
       </c>
       <c r="I222" s="7">
-        <f>H222*G222</f>
+        <f t="shared" si="3"/>
         <v>44100</v>
       </c>
     </row>
@@ -35759,8 +35759,8 @@
       <c r="E223" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F223" s="3" t="s">
-        <v>871</v>
+      <c r="F223" s="3">
+        <v>2</v>
       </c>
       <c r="G223" s="6">
         <v>55</v>
@@ -35769,7 +35769,7 @@
         <v>1000</v>
       </c>
       <c r="I223" s="7">
-        <f>H223*G223</f>
+        <f t="shared" si="3"/>
         <v>55000</v>
       </c>
     </row>
@@ -35789,8 +35789,8 @@
       <c r="E224" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="F224" s="3" t="s">
-        <v>871</v>
+      <c r="F224" s="3">
+        <v>2</v>
       </c>
       <c r="G224" s="6">
         <v>50</v>
@@ -35799,7 +35799,7 @@
         <v>1000</v>
       </c>
       <c r="I224" s="7">
-        <f>H224*G224</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
@@ -35819,8 +35819,8 @@
       <c r="E225" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F225" s="3" t="s">
-        <v>871</v>
+      <c r="F225" s="3">
+        <v>2</v>
       </c>
       <c r="G225" s="6">
         <v>70</v>
@@ -35829,7 +35829,7 @@
         <v>1500</v>
       </c>
       <c r="I225" s="7">
-        <f>H225*G225</f>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
     </row>
@@ -35849,8 +35849,8 @@
       <c r="E226" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F226" s="3" t="s">
-        <v>871</v>
+      <c r="F226" s="3">
+        <v>2</v>
       </c>
       <c r="G226" s="6">
         <v>59</v>
@@ -35859,7 +35859,7 @@
         <v>3000</v>
       </c>
       <c r="I226" s="7">
-        <f>H226*G226</f>
+        <f t="shared" si="3"/>
         <v>177000</v>
       </c>
     </row>
@@ -35879,8 +35879,8 @@
       <c r="E227" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="F227" s="3" t="s">
-        <v>871</v>
+      <c r="F227" s="3">
+        <v>2</v>
       </c>
       <c r="G227" s="6">
         <v>50</v>
@@ -35889,7 +35889,7 @@
         <v>1000</v>
       </c>
       <c r="I227" s="7">
-        <f>H227*G227</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
@@ -35909,8 +35909,8 @@
       <c r="E228" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F228" s="3" t="s">
-        <v>871</v>
+      <c r="F228" s="3">
+        <v>2</v>
       </c>
       <c r="G228" s="6">
         <v>90</v>
@@ -35919,7 +35919,7 @@
         <v>800</v>
       </c>
       <c r="I228" s="7">
-        <f>H228*G228</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -35939,8 +35939,8 @@
       <c r="E229" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="F229" s="3" t="s">
-        <v>871</v>
+      <c r="F229" s="3">
+        <v>2</v>
       </c>
       <c r="G229" s="6">
         <v>75</v>
@@ -35949,7 +35949,7 @@
         <v>5000</v>
       </c>
       <c r="I229" s="7">
-        <f>H229*G229</f>
+        <f t="shared" si="3"/>
         <v>375000</v>
       </c>
     </row>
@@ -35969,8 +35969,8 @@
       <c r="E230" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F230" s="3" t="s">
-        <v>871</v>
+      <c r="F230" s="3">
+        <v>2</v>
       </c>
       <c r="G230" s="6">
         <v>77</v>
@@ -35979,7 +35979,7 @@
         <v>1000</v>
       </c>
       <c r="I230" s="7">
-        <f>H230*G230</f>
+        <f t="shared" si="3"/>
         <v>77000</v>
       </c>
     </row>
@@ -35999,8 +35999,8 @@
       <c r="E231" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="F231" s="3" t="s">
-        <v>871</v>
+      <c r="F231" s="3">
+        <v>2</v>
       </c>
       <c r="G231" s="6">
         <v>81</v>
@@ -36009,7 +36009,7 @@
         <v>1500</v>
       </c>
       <c r="I231" s="7">
-        <f>H231*G231</f>
+        <f t="shared" si="3"/>
         <v>121500</v>
       </c>
     </row>
@@ -36029,8 +36029,8 @@
       <c r="E232" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F232" s="3" t="s">
-        <v>871</v>
+      <c r="F232" s="3">
+        <v>2</v>
       </c>
       <c r="G232" s="6">
         <v>80</v>
@@ -36039,7 +36039,7 @@
         <v>1500</v>
       </c>
       <c r="I232" s="7">
-        <f>H232*G232</f>
+        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
@@ -36059,8 +36059,8 @@
       <c r="E233" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="F233" s="3" t="s">
-        <v>871</v>
+      <c r="F233" s="3">
+        <v>2</v>
       </c>
       <c r="G233" s="6">
         <v>97</v>
@@ -36069,7 +36069,7 @@
         <v>1000</v>
       </c>
       <c r="I233" s="7">
-        <f>H233*G233</f>
+        <f t="shared" si="3"/>
         <v>97000</v>
       </c>
     </row>
@@ -36089,8 +36089,8 @@
       <c r="E234" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F234" s="3" t="s">
-        <v>871</v>
+      <c r="F234" s="3">
+        <v>2</v>
       </c>
       <c r="G234" s="6">
         <v>100</v>
@@ -36099,7 +36099,7 @@
         <v>1500</v>
       </c>
       <c r="I234" s="7">
-        <f>H234*G234</f>
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
     </row>
@@ -36119,8 +36119,8 @@
       <c r="E235" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F235" s="3" t="s">
-        <v>871</v>
+      <c r="F235" s="3">
+        <v>2</v>
       </c>
       <c r="G235" s="6">
         <v>55</v>
@@ -36129,7 +36129,7 @@
         <v>1200</v>
       </c>
       <c r="I235" s="7">
-        <f>H235*G235</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -36149,8 +36149,8 @@
       <c r="E236" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F236" s="3" t="s">
-        <v>871</v>
+      <c r="F236" s="3">
+        <v>2</v>
       </c>
       <c r="G236" s="6">
         <v>82</v>
@@ -36159,7 +36159,7 @@
         <v>2500</v>
       </c>
       <c r="I236" s="7">
-        <f>H236*G236</f>
+        <f t="shared" si="3"/>
         <v>205000</v>
       </c>
     </row>
@@ -36179,8 +36179,8 @@
       <c r="E237" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F237" s="3" t="s">
-        <v>871</v>
+      <c r="F237" s="3">
+        <v>2</v>
       </c>
       <c r="G237" s="6">
         <v>62</v>
@@ -36189,7 +36189,7 @@
         <v>1300</v>
       </c>
       <c r="I237" s="7">
-        <f>H237*G237</f>
+        <f t="shared" si="3"/>
         <v>80600</v>
       </c>
     </row>
@@ -36209,8 +36209,8 @@
       <c r="E238" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="F238" s="3" t="s">
-        <v>871</v>
+      <c r="F238" s="3">
+        <v>2</v>
       </c>
       <c r="G238" s="6">
         <v>100</v>
@@ -36219,7 +36219,7 @@
         <v>600</v>
       </c>
       <c r="I238" s="7">
-        <f>H238*G238</f>
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
     </row>
@@ -36239,8 +36239,8 @@
       <c r="E239" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F239" s="3" t="s">
-        <v>871</v>
+      <c r="F239" s="3">
+        <v>2</v>
       </c>
       <c r="G239" s="6">
         <v>62</v>
@@ -36249,7 +36249,7 @@
         <v>1500</v>
       </c>
       <c r="I239" s="7">
-        <f>H239*G239</f>
+        <f t="shared" si="3"/>
         <v>93000</v>
       </c>
     </row>
@@ -36269,8 +36269,8 @@
       <c r="E240" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="F240" s="3" t="s">
-        <v>871</v>
+      <c r="F240" s="3">
+        <v>2</v>
       </c>
       <c r="G240" s="6">
         <v>67</v>
@@ -36279,7 +36279,7 @@
         <v>500</v>
       </c>
       <c r="I240" s="7">
-        <f>H240*G240</f>
+        <f t="shared" si="3"/>
         <v>33500</v>
       </c>
     </row>
@@ -36299,8 +36299,8 @@
       <c r="E241" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="F241" s="3" t="s">
-        <v>871</v>
+      <c r="F241" s="3">
+        <v>2</v>
       </c>
       <c r="G241" s="6">
         <v>73</v>
@@ -36309,7 +36309,7 @@
         <v>1500</v>
       </c>
       <c r="I241" s="7">
-        <f>H241*G241</f>
+        <f t="shared" si="3"/>
         <v>109500</v>
       </c>
     </row>
@@ -36329,8 +36329,8 @@
       <c r="E242" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="F242" s="3" t="s">
-        <v>871</v>
+      <c r="F242" s="3">
+        <v>2</v>
       </c>
       <c r="G242" s="6">
         <v>57</v>
@@ -36339,7 +36339,7 @@
         <v>1500</v>
       </c>
       <c r="I242" s="7">
-        <f>H242*G242</f>
+        <f t="shared" si="3"/>
         <v>85500</v>
       </c>
     </row>
@@ -36359,8 +36359,8 @@
       <c r="E243" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F243" s="3" t="s">
-        <v>871</v>
+      <c r="F243" s="3">
+        <v>2</v>
       </c>
       <c r="G243" s="6">
         <v>93</v>
@@ -36369,7 +36369,7 @@
         <v>2800</v>
       </c>
       <c r="I243" s="7">
-        <f>H243*G243</f>
+        <f t="shared" si="3"/>
         <v>260400</v>
       </c>
     </row>
@@ -36389,8 +36389,8 @@
       <c r="E244" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="F244" s="3" t="s">
-        <v>871</v>
+      <c r="F244" s="3">
+        <v>2</v>
       </c>
       <c r="G244" s="6">
         <v>93</v>
@@ -36399,7 +36399,7 @@
         <v>1500</v>
       </c>
       <c r="I244" s="7">
-        <f>H244*G244</f>
+        <f t="shared" si="3"/>
         <v>139500</v>
       </c>
     </row>
@@ -36419,8 +36419,8 @@
       <c r="E245" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F245" s="3" t="s">
-        <v>871</v>
+      <c r="F245" s="3">
+        <v>2</v>
       </c>
       <c r="G245" s="6">
         <v>95</v>
@@ -36429,7 +36429,7 @@
         <v>1000</v>
       </c>
       <c r="I245" s="7">
-        <f>H245*G245</f>
+        <f t="shared" si="3"/>
         <v>95000</v>
       </c>
     </row>
@@ -36449,8 +36449,8 @@
       <c r="E246" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="F246" s="3" t="s">
-        <v>871</v>
+      <c r="F246" s="3">
+        <v>2</v>
       </c>
       <c r="G246" s="6">
         <v>59</v>
@@ -36459,7 +36459,7 @@
         <v>1800</v>
       </c>
       <c r="I246" s="7">
-        <f>H246*G246</f>
+        <f t="shared" si="3"/>
         <v>106200</v>
       </c>
     </row>
@@ -36479,8 +36479,8 @@
       <c r="E247" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F247" s="3" t="s">
-        <v>871</v>
+      <c r="F247" s="3">
+        <v>2</v>
       </c>
       <c r="G247" s="6">
         <v>78</v>
@@ -36489,7 +36489,7 @@
         <v>1000</v>
       </c>
       <c r="I247" s="7">
-        <f>H247*G247</f>
+        <f t="shared" si="3"/>
         <v>78000</v>
       </c>
     </row>
@@ -36509,8 +36509,8 @@
       <c r="E248" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F248" s="3" t="s">
-        <v>871</v>
+      <c r="F248" s="3">
+        <v>2</v>
       </c>
       <c r="G248" s="6">
         <v>68</v>
@@ -36519,7 +36519,7 @@
         <v>15000</v>
       </c>
       <c r="I248" s="7">
-        <f>H248*G248</f>
+        <f t="shared" si="3"/>
         <v>1020000</v>
       </c>
     </row>
@@ -36539,8 +36539,8 @@
       <c r="E249" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="F249" s="3" t="s">
-        <v>871</v>
+      <c r="F249" s="3">
+        <v>2</v>
       </c>
       <c r="G249" s="6">
         <v>74</v>
@@ -36549,7 +36549,7 @@
         <v>1500</v>
       </c>
       <c r="I249" s="7">
-        <f>H249*G249</f>
+        <f t="shared" si="3"/>
         <v>111000</v>
       </c>
     </row>
@@ -36569,8 +36569,8 @@
       <c r="E250" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="F250" s="3" t="s">
-        <v>871</v>
+      <c r="F250" s="3">
+        <v>2</v>
       </c>
       <c r="G250" s="6">
         <v>86</v>
@@ -36579,7 +36579,7 @@
         <v>2500</v>
       </c>
       <c r="I250" s="7">
-        <f>H250*G250</f>
+        <f t="shared" si="3"/>
         <v>215000</v>
       </c>
     </row>
@@ -36599,8 +36599,8 @@
       <c r="E251" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="F251" s="3" t="s">
-        <v>871</v>
+      <c r="F251" s="3">
+        <v>2</v>
       </c>
       <c r="G251" s="6">
         <v>55</v>
@@ -36609,7 +36609,7 @@
         <v>1200</v>
       </c>
       <c r="I251" s="7">
-        <f>H251*G251</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -36629,8 +36629,8 @@
       <c r="E252" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="F252" s="3" t="s">
-        <v>871</v>
+      <c r="F252" s="3">
+        <v>2</v>
       </c>
       <c r="G252" s="6">
         <v>54</v>
@@ -36639,7 +36639,7 @@
         <v>1500</v>
       </c>
       <c r="I252" s="7">
-        <f>H252*G252</f>
+        <f t="shared" si="3"/>
         <v>81000</v>
       </c>
     </row>
@@ -36659,8 +36659,8 @@
       <c r="E253" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="F253" s="3" t="s">
-        <v>871</v>
+      <c r="F253" s="3">
+        <v>2</v>
       </c>
       <c r="G253" s="6">
         <v>85</v>
@@ -36669,7 +36669,7 @@
         <v>1000</v>
       </c>
       <c r="I253" s="7">
-        <f>H253*G253</f>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
     </row>
@@ -36689,8 +36689,8 @@
       <c r="E254" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F254" s="3" t="s">
-        <v>871</v>
+      <c r="F254" s="3">
+        <v>2</v>
       </c>
       <c r="G254" s="6">
         <v>87</v>
@@ -36699,7 +36699,7 @@
         <v>1500</v>
       </c>
       <c r="I254" s="7">
-        <f>H254*G254</f>
+        <f t="shared" si="3"/>
         <v>130500</v>
       </c>
     </row>
@@ -36719,8 +36719,8 @@
       <c r="E255" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="F255" s="3" t="s">
-        <v>871</v>
+      <c r="F255" s="3">
+        <v>2</v>
       </c>
       <c r="G255" s="6">
         <v>93</v>
@@ -36729,7 +36729,7 @@
         <v>1200</v>
       </c>
       <c r="I255" s="7">
-        <f>H255*G255</f>
+        <f t="shared" si="3"/>
         <v>111600</v>
       </c>
     </row>
@@ -36749,8 +36749,8 @@
       <c r="E256" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F256" s="3" t="s">
-        <v>871</v>
+      <c r="F256" s="3">
+        <v>2</v>
       </c>
       <c r="G256" s="6">
         <v>88</v>
@@ -36759,7 +36759,7 @@
         <v>1000</v>
       </c>
       <c r="I256" s="7">
-        <f>H256*G256</f>
+        <f t="shared" si="3"/>
         <v>88000</v>
       </c>
     </row>
@@ -36779,8 +36779,8 @@
       <c r="E257" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F257" s="3" t="s">
-        <v>871</v>
+      <c r="F257" s="3">
+        <v>2</v>
       </c>
       <c r="G257" s="6">
         <v>92</v>
@@ -36789,7 +36789,7 @@
         <v>5000</v>
       </c>
       <c r="I257" s="7">
-        <f>H257*G257</f>
+        <f t="shared" si="3"/>
         <v>460000</v>
       </c>
     </row>
@@ -36809,8 +36809,8 @@
       <c r="E258" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F258" s="3" t="s">
-        <v>871</v>
+      <c r="F258" s="3">
+        <v>2</v>
       </c>
       <c r="G258" s="6">
         <v>77</v>
@@ -36819,7 +36819,7 @@
         <v>500</v>
       </c>
       <c r="I258" s="7">
-        <f>H258*G258</f>
+        <f t="shared" ref="I258:I321" si="4">H258*G258</f>
         <v>38500</v>
       </c>
     </row>
@@ -36839,8 +36839,8 @@
       <c r="E259" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="F259" s="3" t="s">
-        <v>871</v>
+      <c r="F259" s="3">
+        <v>2</v>
       </c>
       <c r="G259" s="6">
         <v>89</v>
@@ -36849,7 +36849,7 @@
         <v>1500</v>
       </c>
       <c r="I259" s="7">
-        <f>H259*G259</f>
+        <f t="shared" si="4"/>
         <v>133500</v>
       </c>
     </row>
@@ -36869,8 +36869,8 @@
       <c r="E260" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="F260" s="3" t="s">
-        <v>871</v>
+      <c r="F260" s="3">
+        <v>2</v>
       </c>
       <c r="G260" s="6">
         <v>77</v>
@@ -36879,7 +36879,7 @@
         <v>1000</v>
       </c>
       <c r="I260" s="7">
-        <f>H260*G260</f>
+        <f t="shared" si="4"/>
         <v>77000</v>
       </c>
     </row>
@@ -36909,13 +36909,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>883</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>881</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>882</v>
       </c>
     </row>
